--- a/BackTest/2019-10-26 BackTest DASH.xlsx
+++ b/BackTest/2019-10-26 BackTest DASH.xlsx
@@ -451,17 +451,13 @@
         <v>80610</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>81150</v>
-      </c>
-      <c r="K2" t="n">
-        <v>81150</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>80870</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>81250</v>
-      </c>
-      <c r="K3" t="n">
-        <v>81150</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>81080</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>81350</v>
-      </c>
-      <c r="K4" t="n">
-        <v>81150</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>81210</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>81400</v>
-      </c>
-      <c r="K5" t="n">
-        <v>81400</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -621,14 +597,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>81400</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,14 +632,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>81400</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -1085,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1120,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1155,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -4687,13 +4651,17 @@
         <v>81030</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>81350</v>
+      </c>
+      <c r="K122" t="n">
+        <v>81350</v>
+      </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
@@ -4722,14 +4690,22 @@
         <v>81080</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>81550</v>
+      </c>
+      <c r="K123" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4763,8 +4739,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4798,8 +4780,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4833,8 +4821,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4868,8 +4862,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4903,8 +4903,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4938,8 +4944,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4973,8 +4985,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5026,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5043,8 +5067,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5078,8 +5108,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5113,8 +5149,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5148,8 +5190,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5183,8 +5231,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5218,8 +5272,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5253,8 +5313,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5288,8 +5354,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5323,8 +5395,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5358,8 +5436,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5393,8 +5477,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5428,8 +5518,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5463,8 +5559,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5498,8 +5600,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5533,8 +5641,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5568,8 +5682,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5603,8 +5723,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5638,8 +5764,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5673,8 +5805,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5708,8 +5846,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5743,8 +5887,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5778,8 +5928,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5813,8 +5969,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5848,8 +6010,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5883,8 +6051,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5918,8 +6092,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5953,8 +6133,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5988,8 +6174,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6023,8 +6215,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6058,8 +6256,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6093,8 +6297,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6128,8 +6338,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6379,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6198,8 +6420,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6233,8 +6461,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6268,8 +6502,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6303,8 +6543,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6338,8 +6584,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6373,8 +6625,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6408,8 +6666,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6443,8 +6707,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6478,8 +6748,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6513,8 +6789,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6548,8 +6830,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6583,8 +6871,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6618,8 +6912,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6653,8 +6953,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6688,8 +6994,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6723,8 +7035,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6758,8 +7076,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6793,8 +7117,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6828,8 +7158,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6863,8 +7199,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6898,8 +7240,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6933,8 +7281,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6968,8 +7322,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7003,8 +7363,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7038,8 +7404,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7073,8 +7445,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7108,8 +7486,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7143,8 +7527,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7178,8 +7568,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7213,8 +7609,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7248,8 +7650,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7283,8 +7691,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7732,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7353,8 +7773,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7388,8 +7814,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7423,8 +7855,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7458,8 +7896,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7493,8 +7937,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7528,8 +7978,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7563,8 +8019,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7598,8 +8060,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7633,8 +8101,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7668,8 +8142,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7703,8 +8183,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7738,8 +8224,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7773,8 +8265,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7808,8 +8306,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7837,14 +8341,22 @@
         <v>80520</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>80150</v>
+      </c>
+      <c r="K212" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7872,14 +8384,22 @@
         <v>80290</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>80200</v>
+      </c>
+      <c r="K213" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7907,14 +8427,22 @@
         <v>80080</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>79850</v>
+      </c>
+      <c r="K214" t="n">
+        <v>81350</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest DASH.xlsx
+++ b/BackTest/2019-10-26 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M215"/>
+  <dimension ref="A1:N225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>0.216</v>
       </c>
       <c r="G2" t="n">
+        <v>80180</v>
+      </c>
+      <c r="H2" t="n">
         <v>79870</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="n">
+        <v>80260</v>
+      </c>
+      <c r="H3" t="n">
         <v>79883.33333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>3.5592</v>
       </c>
       <c r="G4" t="n">
+        <v>80360</v>
+      </c>
+      <c r="H4" t="n">
         <v>79892.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>0.4022</v>
       </c>
       <c r="G5" t="n">
+        <v>80466.66666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>79908.33333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
+        <v>80550</v>
+      </c>
+      <c r="H6" t="n">
         <v>79928.33333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>11.97302872</v>
       </c>
       <c r="G7" t="n">
+        <v>80663.33333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>79953.33333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
+        <v>80743.33333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>79970</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>8.701771280000001</v>
       </c>
       <c r="G9" t="n">
+        <v>80843.33333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>79985</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>0.6727</v>
       </c>
       <c r="G10" t="n">
+        <v>80896.66666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>79995</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="G11" t="n">
+        <v>80966.66666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>79999.16666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1.9157</v>
       </c>
       <c r="G12" t="n">
+        <v>81043.33333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>80002.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>3.8065</v>
       </c>
       <c r="G13" t="n">
+        <v>81133.33333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>80001.66666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>0.12292562</v>
       </c>
       <c r="G14" t="n">
+        <v>81226.66666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>80007.5</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>30.0654</v>
       </c>
       <c r="G15" t="n">
+        <v>81296.66666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>80025.83333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>21.9298</v>
       </c>
       <c r="G16" t="n">
+        <v>81383.33333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>80058.33333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>0.02</v>
       </c>
       <c r="G17" t="n">
+        <v>81476.66666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>80105</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>38.6237</v>
       </c>
       <c r="G18" t="n">
+        <v>81570</v>
+      </c>
+      <c r="H18" t="n">
         <v>80168.33333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>34.3571</v>
       </c>
       <c r="G19" t="n">
+        <v>81706.66666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>80232.5</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>13.6561</v>
       </c>
       <c r="G20" t="n">
+        <v>81863.33333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>80294.16666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>128.4699</v>
       </c>
       <c r="G21" t="n">
+        <v>81986.66666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>80351.66666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>43.7674</v>
       </c>
       <c r="G22" t="n">
+        <v>82053.33333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>80406.66666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>5.5589</v>
       </c>
       <c r="G23" t="n">
+        <v>82123.33333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>80464.16666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>0.9147</v>
       </c>
       <c r="G24" t="n">
+        <v>82203.33333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>80530</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>0.928</v>
       </c>
       <c r="G25" t="n">
+        <v>82270</v>
+      </c>
+      <c r="H25" t="n">
         <v>80585.83333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>7.985</v>
       </c>
       <c r="G26" t="n">
+        <v>82340</v>
+      </c>
+      <c r="H26" t="n">
         <v>80641.66666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>4</v>
       </c>
       <c r="G27" t="n">
+        <v>82420</v>
+      </c>
+      <c r="H27" t="n">
         <v>80689.16666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>44.6711</v>
       </c>
       <c r="G28" t="n">
+        <v>82530</v>
+      </c>
+      <c r="H28" t="n">
         <v>80744.16666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>38.1716</v>
       </c>
       <c r="G29" t="n">
+        <v>82633.33333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>80798.33333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>13.56</v>
       </c>
       <c r="G30" t="n">
+        <v>82753.33333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>80857.5</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>17.1</v>
       </c>
       <c r="G31" t="n">
+        <v>82843.33333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>80920.83333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>0.5561</v>
       </c>
       <c r="G32" t="n">
+        <v>82903.33333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>80990.83333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>0.1296</v>
       </c>
       <c r="G33" t="n">
+        <v>82976.66666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>81067.5</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>1.63</v>
       </c>
       <c r="G34" t="n">
+        <v>83026.66666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>81153.33333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>8</v>
       </c>
       <c r="G35" t="n">
+        <v>83053.33333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>81243.33333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>31.2942</v>
       </c>
       <c r="G36" t="n">
+        <v>83073.33333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>81325</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>12</v>
       </c>
       <c r="G37" t="n">
+        <v>83113.33333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>81401.66666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>4</v>
       </c>
       <c r="G38" t="n">
+        <v>83176.66666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>81468.33333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>0.1542</v>
       </c>
       <c r="G39" t="n">
+        <v>83226.66666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>81536.66666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>0.159</v>
       </c>
       <c r="G40" t="n">
+        <v>83346.66666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>81607.5</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>1.7477</v>
       </c>
       <c r="G41" t="n">
+        <v>83523.33333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>81695.83333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>4.5686</v>
       </c>
       <c r="G42" t="n">
+        <v>83650</v>
+      </c>
+      <c r="H42" t="n">
         <v>81778.33333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>7.4998</v>
       </c>
       <c r="G43" t="n">
+        <v>83703.33333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>81843.33333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>4.1256</v>
       </c>
       <c r="G44" t="n">
+        <v>83786.66666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>81910.83333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>4</v>
       </c>
       <c r="G45" t="n">
+        <v>83846.66666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>81980.83333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>0.553</v>
       </c>
       <c r="G46" t="n">
+        <v>83893.33333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>82055</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>4</v>
       </c>
       <c r="G47" t="n">
+        <v>83966.66666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>82131.66666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>31.9434</v>
       </c>
       <c r="G48" t="n">
+        <v>84023.33333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>82207.5</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>42.318</v>
       </c>
       <c r="G49" t="n">
+        <v>84046.66666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>82285</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>4</v>
       </c>
       <c r="G50" t="n">
+        <v>84066.66666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>82362.5</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>23.3726</v>
       </c>
       <c r="G51" t="n">
+        <v>84123.33333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>82433.33333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>25.6434</v>
       </c>
       <c r="G52" t="n">
+        <v>84196.66666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>82506.66666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>18.8089</v>
       </c>
       <c r="G53" t="n">
+        <v>84256.66666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>82575</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>52.3287</v>
       </c>
       <c r="G54" t="n">
+        <v>84276.66666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>82637.5</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>2.3684</v>
       </c>
       <c r="G55" t="n">
+        <v>84293.33333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>82701.66666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>12.2195</v>
       </c>
       <c r="G56" t="n">
+        <v>84266.66666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>82774.16666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>147.61115847</v>
       </c>
       <c r="G57" t="n">
+        <v>84356.66666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>82867.5</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>7.2742</v>
       </c>
       <c r="G58" t="n">
+        <v>84426.66666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>82948.33333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>77.7389</v>
       </c>
       <c r="G59" t="n">
+        <v>84416.66666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>83015.83333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>27.2852</v>
       </c>
       <c r="G60" t="n">
+        <v>84400</v>
+      </c>
+      <c r="H60" t="n">
         <v>83074.16666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>0.8014</v>
       </c>
       <c r="G61" t="n">
+        <v>84350</v>
+      </c>
+      <c r="H61" t="n">
         <v>83117.5</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>8</v>
       </c>
       <c r="G62" t="n">
+        <v>84303.33333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>83162.5</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>2.8391</v>
       </c>
       <c r="G63" t="n">
+        <v>84286.66666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>83214.16666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>0.8101</v>
       </c>
       <c r="G64" t="n">
+        <v>84260</v>
+      </c>
+      <c r="H64" t="n">
         <v>83260</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>0.5</v>
       </c>
       <c r="G65" t="n">
+        <v>84220</v>
+      </c>
+      <c r="H65" t="n">
         <v>83300.83333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>1.1306</v>
       </c>
       <c r="G66" t="n">
+        <v>84206.66666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>83347.5</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>17.3037</v>
       </c>
       <c r="G67" t="n">
+        <v>84176.66666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>83385</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>1.8923</v>
       </c>
       <c r="G68" t="n">
+        <v>84160</v>
+      </c>
+      <c r="H68" t="n">
         <v>83429.16666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>0.2</v>
       </c>
       <c r="G69" t="n">
+        <v>84210</v>
+      </c>
+      <c r="H69" t="n">
         <v>83479.16666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>2.9503</v>
       </c>
       <c r="G70" t="n">
+        <v>84236.66666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>83536.66666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>0.1249</v>
       </c>
       <c r="G71" t="n">
+        <v>84250</v>
+      </c>
+      <c r="H71" t="n">
         <v>83595</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>1.0017</v>
       </c>
       <c r="G72" t="n">
+        <v>84143.33333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>83642.5</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>0.1249</v>
       </c>
       <c r="G73" t="n">
+        <v>84086.66666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>83686.66666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>0.1621</v>
       </c>
       <c r="G74" t="n">
+        <v>84083.33333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>83730</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>19.0679</v>
       </c>
       <c r="G75" t="n">
+        <v>84043.33333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>83760.83333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>87.6242</v>
       </c>
       <c r="G76" t="n">
+        <v>84030</v>
+      </c>
+      <c r="H76" t="n">
         <v>83779.16666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>2.1789</v>
       </c>
       <c r="G77" t="n">
+        <v>84013.33333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>83796.66666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>0.1322</v>
       </c>
       <c r="G78" t="n">
+        <v>83956.66666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>83810.83333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>41.1</v>
       </c>
       <c r="G79" t="n">
+        <v>83936.66666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>83817.5</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>16.9</v>
       </c>
       <c r="G80" t="n">
+        <v>83953.33333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>83823.33333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>0.1302</v>
       </c>
       <c r="G81" t="n">
+        <v>83936.66666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>83835</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>19.6911</v>
       </c>
       <c r="G82" t="n">
+        <v>83950</v>
+      </c>
+      <c r="H82" t="n">
         <v>83859.16666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>0.1505</v>
       </c>
       <c r="G83" t="n">
+        <v>83943.33333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>83884.16666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>34.3005</v>
       </c>
       <c r="G84" t="n">
+        <v>83893.33333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>83901.66666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>0.5</v>
       </c>
       <c r="G85" t="n">
+        <v>83793.33333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>83917.5</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>0.119</v>
       </c>
       <c r="G86" t="n">
+        <v>83726.66666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>83941.66666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>71.32680000000001</v>
       </c>
       <c r="G87" t="n">
+        <v>83686.66666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>83959.16666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>1.17569073</v>
       </c>
       <c r="G88" t="n">
+        <v>83676.66666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>83973.33333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>0.3212</v>
       </c>
       <c r="G89" t="n">
+        <v>83626.66666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>83978.33333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>2.5358</v>
       </c>
       <c r="G90" t="n">
+        <v>83610</v>
+      </c>
+      <c r="H90" t="n">
         <v>83975</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>2.24</v>
       </c>
       <c r="G91" t="n">
+        <v>83576.66666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>83962.5</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>0.129</v>
       </c>
       <c r="G92" t="n">
+        <v>83546.66666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>83957.5</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>0.3027</v>
       </c>
       <c r="G93" t="n">
+        <v>83506.66666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>83943.33333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>6.0595</v>
       </c>
       <c r="G94" t="n">
+        <v>83453.33333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>83924.16666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>3.647</v>
       </c>
       <c r="G95" t="n">
+        <v>83356.66666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>83899.16666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>7.3365</v>
       </c>
       <c r="G96" t="n">
+        <v>83260</v>
+      </c>
+      <c r="H96" t="n">
         <v>83881.66666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>10.5558</v>
       </c>
       <c r="G97" t="n">
+        <v>83120</v>
+      </c>
+      <c r="H97" t="n">
         <v>83860.83333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>0.4864</v>
       </c>
       <c r="G98" t="n">
+        <v>82990</v>
+      </c>
+      <c r="H98" t="n">
         <v>83837.5</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>9.120900000000001</v>
       </c>
       <c r="G99" t="n">
+        <v>82833.33333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>83803.33333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>4.29</v>
       </c>
       <c r="G100" t="n">
+        <v>82753.33333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>83769.16666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>0.11</v>
       </c>
       <c r="G101" t="n">
+        <v>82636.66666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>83720</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>1.24</v>
       </c>
       <c r="G102" t="n">
+        <v>82533.33333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>83680</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>1.923</v>
       </c>
       <c r="G103" t="n">
+        <v>82396.66666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>83646.66666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>0.478</v>
       </c>
       <c r="G104" t="n">
+        <v>82293.33333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>83605</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>2.246</v>
       </c>
       <c r="G105" t="n">
+        <v>82230</v>
+      </c>
+      <c r="H105" t="n">
         <v>83570.83333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>4.8607</v>
       </c>
       <c r="G106" t="n">
+        <v>82166.66666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>83530.83333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>0.4748</v>
       </c>
       <c r="G107" t="n">
+        <v>82076.66666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>83485</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>0.773</v>
       </c>
       <c r="G108" t="n">
+        <v>82003.33333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>83438.33333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>4.8927</v>
       </c>
       <c r="G109" t="n">
+        <v>81920</v>
+      </c>
+      <c r="H109" t="n">
         <v>83392.5</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>2.13</v>
       </c>
       <c r="G110" t="n">
+        <v>81830</v>
+      </c>
+      <c r="H110" t="n">
         <v>83340</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>0.21</v>
       </c>
       <c r="G111" t="n">
+        <v>81736.66666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>83285</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>2.5262</v>
       </c>
       <c r="G112" t="n">
+        <v>81666.66666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>83228.33333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>0.6346000000000001</v>
       </c>
       <c r="G113" t="n">
+        <v>81596.66666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>83172.5</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>1.6054</v>
       </c>
       <c r="G114" t="n">
+        <v>81553.33333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>83122.5</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>17.4052</v>
       </c>
       <c r="G115" t="n">
+        <v>81456.66666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>83060</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>4.9</v>
       </c>
       <c r="G116" t="n">
+        <v>81376.66666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>82997.5</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>0.5</v>
       </c>
       <c r="G117" t="n">
+        <v>81290</v>
+      </c>
+      <c r="H117" t="n">
         <v>82913.33333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>2.96</v>
       </c>
       <c r="G118" t="n">
+        <v>81223.33333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>82845.83333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>1.5418</v>
       </c>
       <c r="G119" t="n">
+        <v>81160</v>
+      </c>
+      <c r="H119" t="n">
         <v>82790.83333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>14.3668</v>
       </c>
       <c r="G120" t="n">
+        <v>81073.33333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>82739.16666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>2.554</v>
       </c>
       <c r="G121" t="n">
+        <v>81016.66666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>82697.5</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>0.01229256</v>
       </c>
       <c r="G122" t="n">
+        <v>81003.33333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>82660</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>3.1919</v>
       </c>
       <c r="G123" t="n">
+        <v>80993.33333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>82615</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>0.1093</v>
       </c>
       <c r="G124" t="n">
+        <v>80946.66666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>82564.16666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>1.2285</v>
       </c>
       <c r="G125" t="n">
+        <v>80956.66666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>82524.16666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>1.985</v>
       </c>
       <c r="G126" t="n">
+        <v>80956.66666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>82472.5</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>3</v>
       </c>
       <c r="G127" t="n">
+        <v>80973.33333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>82427.5</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>1.74</v>
       </c>
       <c r="G128" t="n">
+        <v>80980</v>
+      </c>
+      <c r="H128" t="n">
         <v>82377.5</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>7</v>
       </c>
       <c r="G129" t="n">
+        <v>81000</v>
+      </c>
+      <c r="H129" t="n">
         <v>82320</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>3</v>
       </c>
       <c r="G130" t="n">
+        <v>81050</v>
+      </c>
+      <c r="H130" t="n">
         <v>82263.33333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>0.39</v>
       </c>
       <c r="G131" t="n">
+        <v>81106.66666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>82211.66666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>0.2</v>
       </c>
       <c r="G132" t="n">
+        <v>81176.66666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>82171.66666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>0.9874000000000001</v>
       </c>
       <c r="G133" t="n">
+        <v>81260</v>
+      </c>
+      <c r="H133" t="n">
         <v>82139.16666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>1.5791</v>
       </c>
       <c r="G134" t="n">
+        <v>81326.66666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>82101.66666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>0.01218769</v>
       </c>
       <c r="G135" t="n">
+        <v>81416.66666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>82082.5</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>18.0179</v>
       </c>
       <c r="G136" t="n">
+        <v>81513.33333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>82068.33333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>0.216</v>
       </c>
       <c r="G137" t="n">
+        <v>81583.33333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>82052.5</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>0.2943</v>
       </c>
       <c r="G138" t="n">
+        <v>81660</v>
+      </c>
+      <c r="H138" t="n">
         <v>82040.83333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>4</v>
       </c>
       <c r="G139" t="n">
+        <v>81783.33333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>82025.83333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>4.84</v>
       </c>
       <c r="G140" t="n">
+        <v>81863.33333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>82001.66666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>11.7994</v>
       </c>
       <c r="G141" t="n">
+        <v>81993.33333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>81986.66666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>3.672</v>
       </c>
       <c r="G142" t="n">
+        <v>82113.33333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>81968.33333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>0.6984</v>
       </c>
       <c r="G143" t="n">
+        <v>82230</v>
+      </c>
+      <c r="H143" t="n">
         <v>81949.16666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>0.7265</v>
       </c>
       <c r="G144" t="n">
+        <v>82296.66666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>81920.83333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>2.007</v>
       </c>
       <c r="G145" t="n">
+        <v>82380</v>
+      </c>
+      <c r="H145" t="n">
         <v>81910</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>137.5942</v>
       </c>
       <c r="G146" t="n">
+        <v>82460</v>
+      </c>
+      <c r="H146" t="n">
         <v>81895</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>3.6298</v>
       </c>
       <c r="G147" t="n">
+        <v>82523.33333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>81880.83333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>0.4129</v>
       </c>
       <c r="G148" t="n">
+        <v>82576.66666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>81864.16666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>18.0179</v>
       </c>
       <c r="G149" t="n">
+        <v>82636.66666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>81854.16666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>2</v>
       </c>
       <c r="G150" t="n">
+        <v>82673.33333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>81848.33333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>18.9106</v>
       </c>
       <c r="G151" t="n">
+        <v>82690</v>
+      </c>
+      <c r="H151" t="n">
         <v>81846.66666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>5.2494</v>
       </c>
       <c r="G152" t="n">
+        <v>82700</v>
+      </c>
+      <c r="H152" t="n">
         <v>81840.83333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>7.4469</v>
       </c>
       <c r="G153" t="n">
+        <v>82680</v>
+      </c>
+      <c r="H153" t="n">
         <v>81834.16666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>3.4901</v>
       </c>
       <c r="G154" t="n">
+        <v>82653.33333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>81825.83333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>24</v>
       </c>
       <c r="G155" t="n">
+        <v>82613.33333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>81815.83333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>3.6028</v>
       </c>
       <c r="G156" t="n">
+        <v>82560</v>
+      </c>
+      <c r="H156" t="n">
         <v>81811.66666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>15.5</v>
       </c>
       <c r="G157" t="n">
+        <v>82503.33333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>81814.16666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>37.7</v>
       </c>
       <c r="G158" t="n">
+        <v>82480</v>
+      </c>
+      <c r="H158" t="n">
         <v>81821.66666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>20.7</v>
       </c>
       <c r="G159" t="n">
+        <v>82476.66666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>81831.66666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>2.115</v>
       </c>
       <c r="G160" t="n">
+        <v>82453.33333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>81835</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>0.1129</v>
       </c>
       <c r="G161" t="n">
+        <v>82440</v>
+      </c>
+      <c r="H161" t="n">
         <v>81845.83333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>0.1247</v>
       </c>
       <c r="G162" t="n">
+        <v>82456.66666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>81861.66666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>0.5135</v>
       </c>
       <c r="G163" t="n">
+        <v>82470</v>
+      </c>
+      <c r="H163" t="n">
         <v>81882.5</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>2.4663</v>
       </c>
       <c r="G164" t="n">
+        <v>82486.66666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>81902.5</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>1.233</v>
       </c>
       <c r="G165" t="n">
+        <v>82526.66666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>81922.5</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>2.682</v>
       </c>
       <c r="G166" t="n">
+        <v>82570</v>
+      </c>
+      <c r="H166" t="n">
         <v>81947.5</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>3.725</v>
       </c>
       <c r="G167" t="n">
+        <v>82606.66666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>81973.33333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>2.3625</v>
       </c>
       <c r="G168" t="n">
+        <v>82653.33333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>81996.66666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,21 @@
         <v>23.6179</v>
       </c>
       <c r="G169" t="n">
+        <v>82706.66666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>82022.5</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>4</v>
       </c>
       <c r="G170" t="n">
+        <v>82783.33333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>82054.16666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,21 @@
         <v>43.9766</v>
       </c>
       <c r="G171" t="n">
+        <v>82833.33333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>82085.83333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6913,21 @@
         <v>4.0215</v>
       </c>
       <c r="G172" t="n">
+        <v>82896.66666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>82121.66666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6951,21 @@
         <v>4.8</v>
       </c>
       <c r="G173" t="n">
+        <v>82930</v>
+      </c>
+      <c r="H173" t="n">
         <v>82155</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +6989,21 @@
         <v>50.336</v>
       </c>
       <c r="G174" t="n">
+        <v>82953.33333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>82181.66666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7027,21 @@
         <v>1.9968</v>
       </c>
       <c r="G175" t="n">
+        <v>82996.66666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>82220</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7065,21 @@
         <v>0.7296</v>
       </c>
       <c r="G176" t="n">
+        <v>83003.33333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>82252.5</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7103,21 @@
         <v>1.3813</v>
       </c>
       <c r="G177" t="n">
+        <v>82956.66666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>82278.33333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7141,21 @@
         <v>14.6667</v>
       </c>
       <c r="G178" t="n">
+        <v>82933.33333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>82310</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7179,21 @@
         <v>2</v>
       </c>
       <c r="G179" t="n">
+        <v>82910</v>
+      </c>
+      <c r="H179" t="n">
         <v>82340</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7217,21 @@
         <v>1.2055</v>
       </c>
       <c r="G180" t="n">
+        <v>82883.33333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>82375</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7255,21 @@
         <v>0.2943</v>
       </c>
       <c r="G181" t="n">
+        <v>82830</v>
+      </c>
+      <c r="H181" t="n">
         <v>82400.83333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7293,21 @@
         <v>0.0984</v>
       </c>
       <c r="G182" t="n">
+        <v>82753.33333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>82410.83333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7331,21 @@
         <v>1.1727</v>
       </c>
       <c r="G183" t="n">
+        <v>82680</v>
+      </c>
+      <c r="H183" t="n">
         <v>82418.33333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7369,21 @@
         <v>64.15689999999999</v>
       </c>
       <c r="G184" t="n">
+        <v>82610</v>
+      </c>
+      <c r="H184" t="n">
         <v>82438.33333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7407,21 @@
         <v>72.90000000000001</v>
       </c>
       <c r="G185" t="n">
+        <v>82543.33333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>82450.83333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7445,21 @@
         <v>55.6408</v>
       </c>
       <c r="G186" t="n">
+        <v>82483.33333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>82467.5</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7483,21 @@
         <v>27.9523</v>
       </c>
       <c r="G187" t="n">
+        <v>82410</v>
+      </c>
+      <c r="H187" t="n">
         <v>82480.83333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7521,21 @@
         <v>19.7892</v>
       </c>
       <c r="G188" t="n">
+        <v>82336.66666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>82494.16666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7559,21 @@
         <v>19.629</v>
       </c>
       <c r="G189" t="n">
+        <v>82290</v>
+      </c>
+      <c r="H189" t="n">
         <v>82504.16666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7597,21 @@
         <v>3.4999</v>
       </c>
       <c r="G190" t="n">
+        <v>82216.66666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>82511.66666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7635,21 @@
         <v>16</v>
       </c>
       <c r="G191" t="n">
+        <v>82153.33333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>82514.16666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7673,21 @@
         <v>0.216</v>
       </c>
       <c r="G192" t="n">
+        <v>82120</v>
+      </c>
+      <c r="H192" t="n">
         <v>82514.16666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7711,21 @@
         <v>2.7195</v>
       </c>
       <c r="G193" t="n">
+        <v>82043.33333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>82505.83333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7749,21 @@
         <v>0.26</v>
       </c>
       <c r="G194" t="n">
+        <v>81953.33333333333</v>
+      </c>
+      <c r="H194" t="n">
         <v>82496.66666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,22 +7787,21 @@
         <v>13.928</v>
       </c>
       <c r="G195" t="n">
+        <v>81850</v>
+      </c>
+      <c r="H195" t="n">
         <v>82483.33333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>81150</v>
-      </c>
-      <c r="K195" t="n">
-        <v>81150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7242,26 +7825,21 @@
         <v>0.0174</v>
       </c>
       <c r="G196" t="n">
+        <v>81763.33333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>82463.33333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>81250</v>
-      </c>
-      <c r="K196" t="n">
-        <v>81150</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7285,26 +7863,21 @@
         <v>8.4673</v>
       </c>
       <c r="G197" t="n">
+        <v>81713.33333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>82443.33333333333</v>
       </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>81100</v>
-      </c>
-      <c r="K197" t="n">
-        <v>81150</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7328,18 +7901,21 @@
         <v>19.6127</v>
       </c>
       <c r="G198" t="n">
+        <v>81666.66666666667</v>
+      </c>
+      <c r="H198" t="n">
         <v>82420</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7363,18 +7939,21 @@
         <v>4.8072</v>
       </c>
       <c r="G199" t="n">
+        <v>81610</v>
+      </c>
+      <c r="H199" t="n">
         <v>82395</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7398,18 +7977,21 @@
         <v>18</v>
       </c>
       <c r="G200" t="n">
+        <v>81540</v>
+      </c>
+      <c r="H200" t="n">
         <v>82370</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7433,18 +8015,21 @@
         <v>0.3824</v>
       </c>
       <c r="G201" t="n">
+        <v>81490</v>
+      </c>
+      <c r="H201" t="n">
         <v>82341.66666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7468,18 +8053,21 @@
         <v>0.5692</v>
       </c>
       <c r="G202" t="n">
+        <v>81426.66666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>82309.16666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7503,18 +8091,21 @@
         <v>8.845000000000001</v>
       </c>
       <c r="G203" t="n">
+        <v>81383.33333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>82282.5</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7538,18 +8129,21 @@
         <v>1.9139</v>
       </c>
       <c r="G204" t="n">
+        <v>81340</v>
+      </c>
+      <c r="H204" t="n">
         <v>82265</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7573,18 +8167,21 @@
         <v>1.4182</v>
       </c>
       <c r="G205" t="n">
+        <v>81313.33333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>82245</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7608,18 +8205,21 @@
         <v>0.8909</v>
       </c>
       <c r="G206" t="n">
+        <v>81303.33333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>82225</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7643,18 +8243,21 @@
         <v>2</v>
       </c>
       <c r="G207" t="n">
+        <v>81280</v>
+      </c>
+      <c r="H207" t="n">
         <v>82203.33333333333</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7678,18 +8281,21 @@
         <v>3</v>
       </c>
       <c r="G208" t="n">
+        <v>81270</v>
+      </c>
+      <c r="H208" t="n">
         <v>82179.16666666667</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7713,18 +8319,21 @@
         <v>3.55</v>
       </c>
       <c r="G209" t="n">
+        <v>81260</v>
+      </c>
+      <c r="H209" t="n">
         <v>82152.5</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7748,18 +8357,21 @@
         <v>10.3955</v>
       </c>
       <c r="G210" t="n">
+        <v>81226.66666666667</v>
+      </c>
+      <c r="H210" t="n">
         <v>82121.66666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7783,18 +8395,21 @@
         <v>13.8723</v>
       </c>
       <c r="G211" t="n">
+        <v>81186.66666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>82087.5</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7818,18 +8433,27 @@
         <v>13.2374</v>
       </c>
       <c r="G212" t="n">
+        <v>81116.66666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>82047.5</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>80500</v>
+      </c>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7853,18 +8477,27 @@
         <v>21.4199</v>
       </c>
       <c r="G213" t="n">
+        <v>81043.33333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>82010.83333333333</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>80150</v>
+      </c>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7888,24 +8521,27 @@
         <v>20.742</v>
       </c>
       <c r="G214" t="n">
+        <v>80946.66666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>81968.33333333333</v>
       </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
         <v>80200</v>
       </c>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7929,24 +8565,465 @@
         <v>0.615</v>
       </c>
       <c r="G215" t="n">
+        <v>80853.33333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>81930</v>
       </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
         <v>79850</v>
       </c>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>79700</v>
+      </c>
+      <c r="C216" t="n">
+        <v>79700</v>
+      </c>
+      <c r="D216" t="n">
+        <v>79700</v>
+      </c>
+      <c r="E216" t="n">
+        <v>79700</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2.385</v>
+      </c>
+      <c r="G216" t="n">
+        <v>80743.33333333333</v>
+      </c>
+      <c r="H216" t="n">
+        <v>81887.5</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>79700</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>79800</v>
+      </c>
+      <c r="C217" t="n">
+        <v>79800</v>
+      </c>
+      <c r="D217" t="n">
+        <v>79800</v>
+      </c>
+      <c r="E217" t="n">
+        <v>79800</v>
+      </c>
+      <c r="F217" t="n">
+        <v>80.0998</v>
+      </c>
+      <c r="G217" t="n">
+        <v>80650</v>
+      </c>
+      <c r="H217" t="n">
+        <v>81845.83333333333</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>79700</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>79800</v>
+      </c>
+      <c r="C218" t="n">
+        <v>79800</v>
+      </c>
+      <c r="D218" t="n">
+        <v>79800</v>
+      </c>
+      <c r="E218" t="n">
+        <v>79800</v>
+      </c>
+      <c r="F218" t="n">
+        <v>14.9214</v>
+      </c>
+      <c r="G218" t="n">
+        <v>80550</v>
+      </c>
+      <c r="H218" t="n">
+        <v>81800</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>79800</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>79800</v>
+      </c>
+      <c r="C219" t="n">
+        <v>79800</v>
+      </c>
+      <c r="D219" t="n">
+        <v>79800</v>
+      </c>
+      <c r="E219" t="n">
+        <v>79800</v>
+      </c>
+      <c r="F219" t="n">
+        <v>16.3834</v>
+      </c>
+      <c r="G219" t="n">
+        <v>80450</v>
+      </c>
+      <c r="H219" t="n">
+        <v>81758.33333333333</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>79800</v>
+      </c>
+      <c r="C220" t="n">
+        <v>79800</v>
+      </c>
+      <c r="D220" t="n">
+        <v>79800</v>
+      </c>
+      <c r="E220" t="n">
+        <v>79800</v>
+      </c>
+      <c r="F220" t="n">
+        <v>8.726000000000001</v>
+      </c>
+      <c r="G220" t="n">
+        <v>80336.66666666667</v>
+      </c>
+      <c r="H220" t="n">
+        <v>81715.83333333333</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>79800</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>79650</v>
+      </c>
+      <c r="C221" t="n">
+        <v>79550</v>
+      </c>
+      <c r="D221" t="n">
+        <v>79650</v>
+      </c>
+      <c r="E221" t="n">
+        <v>79350</v>
+      </c>
+      <c r="F221" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="G221" t="n">
+        <v>80203.33333333333</v>
+      </c>
+      <c r="H221" t="n">
+        <v>81665.83333333333</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>79800</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>79250</v>
+      </c>
+      <c r="C222" t="n">
+        <v>79150</v>
+      </c>
+      <c r="D222" t="n">
+        <v>79250</v>
+      </c>
+      <c r="E222" t="n">
+        <v>79150</v>
+      </c>
+      <c r="F222" t="n">
+        <v>7.352</v>
+      </c>
+      <c r="G222" t="n">
+        <v>80063.33333333333</v>
+      </c>
+      <c r="H222" t="n">
+        <v>81605</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>79550</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>79100</v>
+      </c>
+      <c r="C223" t="n">
+        <v>79200</v>
+      </c>
+      <c r="D223" t="n">
+        <v>79200</v>
+      </c>
+      <c r="E223" t="n">
+        <v>78650</v>
+      </c>
+      <c r="F223" t="n">
+        <v>24.5192</v>
+      </c>
+      <c r="G223" t="n">
+        <v>79930</v>
+      </c>
+      <c r="H223" t="n">
+        <v>81544.16666666667</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>79150</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C224" t="n">
+        <v>79050</v>
+      </c>
+      <c r="D224" t="n">
+        <v>79200</v>
+      </c>
+      <c r="E224" t="n">
+        <v>79050</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.2851</v>
+      </c>
+      <c r="G224" t="n">
+        <v>79800</v>
+      </c>
+      <c r="H224" t="n">
+        <v>81480.83333333333</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>79200</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>78850</v>
+      </c>
+      <c r="C225" t="n">
+        <v>79100</v>
+      </c>
+      <c r="D225" t="n">
+        <v>79100</v>
+      </c>
+      <c r="E225" t="n">
+        <v>78850</v>
+      </c>
+      <c r="F225" t="n">
+        <v>3.5221</v>
+      </c>
+      <c r="G225" t="n">
+        <v>79690</v>
+      </c>
+      <c r="H225" t="n">
+        <v>81412.5</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>79050</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest DASH.xlsx
+++ b/BackTest/2019-10-26 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:N283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81500</v>
+        <v>80450</v>
       </c>
       <c r="C2" t="n">
-        <v>81350</v>
+        <v>80700</v>
       </c>
       <c r="D2" t="n">
-        <v>81500</v>
+        <v>80700</v>
       </c>
       <c r="E2" t="n">
-        <v>81350</v>
+        <v>80450</v>
       </c>
       <c r="F2" t="n">
-        <v>30.0654</v>
+        <v>30.1</v>
       </c>
       <c r="G2" t="n">
-        <v>81230</v>
+        <v>92.50210000000003</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>81750</v>
+        <v>80400</v>
       </c>
       <c r="C3" t="n">
-        <v>82050</v>
+        <v>80400</v>
       </c>
       <c r="D3" t="n">
-        <v>82050</v>
+        <v>80400</v>
       </c>
       <c r="E3" t="n">
-        <v>81750</v>
+        <v>80400</v>
       </c>
       <c r="F3" t="n">
-        <v>21.9298</v>
+        <v>0.1674</v>
       </c>
       <c r="G3" t="n">
-        <v>81410</v>
+        <v>92.33470000000003</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81350</v>
+        <v>80700</v>
       </c>
       <c r="K3" t="n">
-        <v>81350</v>
+        <v>80700</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
@@ -514,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>82300</v>
+        <v>80200</v>
       </c>
       <c r="C4" t="n">
-        <v>82300</v>
+        <v>80200</v>
       </c>
       <c r="D4" t="n">
-        <v>82300</v>
+        <v>80200</v>
       </c>
       <c r="E4" t="n">
-        <v>82300</v>
+        <v>80200</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.129</v>
       </c>
       <c r="G4" t="n">
-        <v>81640</v>
+        <v>92.20570000000002</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>82050</v>
+        <v>80400</v>
       </c>
       <c r="K4" t="n">
-        <v>81350</v>
+        <v>80700</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -558,32 +558,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>82400</v>
+        <v>80300</v>
       </c>
       <c r="C5" t="n">
-        <v>82550</v>
+        <v>80300</v>
       </c>
       <c r="D5" t="n">
-        <v>82550</v>
+        <v>80300</v>
       </c>
       <c r="E5" t="n">
-        <v>82400</v>
+        <v>80300</v>
       </c>
       <c r="F5" t="n">
-        <v>38.6237</v>
+        <v>0.8088</v>
       </c>
       <c r="G5" t="n">
-        <v>81920</v>
+        <v>93.01450000000003</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>80200</v>
+      </c>
       <c r="K5" t="n">
-        <v>81350</v>
+        <v>80700</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -600,31 +602,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>82750</v>
+        <v>80500</v>
       </c>
       <c r="C6" t="n">
-        <v>83300</v>
+        <v>80500</v>
       </c>
       <c r="D6" t="n">
-        <v>83300</v>
+        <v>80500</v>
       </c>
       <c r="E6" t="n">
-        <v>82750</v>
+        <v>80500</v>
       </c>
       <c r="F6" t="n">
-        <v>34.3571</v>
+        <v>6.6171</v>
       </c>
       <c r="G6" t="n">
-        <v>82310</v>
+        <v>99.63160000000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>80300</v>
+      </c>
+      <c r="K6" t="n">
+        <v>80300</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -636,32 +642,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83350</v>
+        <v>80800</v>
       </c>
       <c r="C7" t="n">
-        <v>83700</v>
+        <v>80900</v>
       </c>
       <c r="D7" t="n">
-        <v>83700</v>
+        <v>81050</v>
       </c>
       <c r="E7" t="n">
-        <v>83350</v>
+        <v>80800</v>
       </c>
       <c r="F7" t="n">
-        <v>13.6561</v>
+        <v>56.422</v>
       </c>
       <c r="G7" t="n">
-        <v>82780</v>
+        <v>156.0536</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>80500</v>
+      </c>
+      <c r="K7" t="n">
+        <v>80300</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -672,22 +686,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83700</v>
+        <v>80800</v>
       </c>
       <c r="C8" t="n">
-        <v>83250</v>
+        <v>80800</v>
       </c>
       <c r="D8" t="n">
-        <v>84800</v>
+        <v>80800</v>
       </c>
       <c r="E8" t="n">
-        <v>83250</v>
+        <v>80800</v>
       </c>
       <c r="F8" t="n">
-        <v>128.4699</v>
+        <v>0.417</v>
       </c>
       <c r="G8" t="n">
-        <v>83020</v>
+        <v>155.6366</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -696,8 +710,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>80300</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -708,22 +728,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83200</v>
+        <v>80900</v>
       </c>
       <c r="C9" t="n">
-        <v>82800</v>
+        <v>80900</v>
       </c>
       <c r="D9" t="n">
-        <v>83200</v>
+        <v>80900</v>
       </c>
       <c r="E9" t="n">
-        <v>82800</v>
+        <v>80850</v>
       </c>
       <c r="F9" t="n">
-        <v>43.7674</v>
+        <v>2.3828</v>
       </c>
       <c r="G9" t="n">
-        <v>83120</v>
+        <v>158.0194</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -744,22 +764,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>82550</v>
+        <v>81050</v>
       </c>
       <c r="C10" t="n">
-        <v>82550</v>
+        <v>80950</v>
       </c>
       <c r="D10" t="n">
-        <v>82550</v>
+        <v>81200</v>
       </c>
       <c r="E10" t="n">
-        <v>82550</v>
+        <v>80950</v>
       </c>
       <c r="F10" t="n">
-        <v>5.5589</v>
+        <v>19.7156</v>
       </c>
       <c r="G10" t="n">
-        <v>83120</v>
+        <v>177.735</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -780,22 +800,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82500</v>
+        <v>81200</v>
       </c>
       <c r="C11" t="n">
-        <v>83000</v>
+        <v>81200</v>
       </c>
       <c r="D11" t="n">
-        <v>83000</v>
+        <v>81450</v>
       </c>
       <c r="E11" t="n">
-        <v>82500</v>
+        <v>81200</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9147</v>
+        <v>24.3692</v>
       </c>
       <c r="G11" t="n">
-        <v>83060</v>
+        <v>202.1042</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -816,22 +836,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82400</v>
+        <v>81250</v>
       </c>
       <c r="C12" t="n">
-        <v>82400</v>
+        <v>81000</v>
       </c>
       <c r="D12" t="n">
-        <v>82400</v>
+        <v>81250</v>
       </c>
       <c r="E12" t="n">
-        <v>82400</v>
+        <v>81000</v>
       </c>
       <c r="F12" t="n">
-        <v>0.928</v>
+        <v>19.5276</v>
       </c>
       <c r="G12" t="n">
-        <v>82800</v>
+        <v>182.5766</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -852,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>82200</v>
+        <v>80850</v>
       </c>
       <c r="C13" t="n">
-        <v>82200</v>
+        <v>80250</v>
       </c>
       <c r="D13" t="n">
-        <v>82200</v>
+        <v>80850</v>
       </c>
       <c r="E13" t="n">
-        <v>82200</v>
+        <v>80250</v>
       </c>
       <c r="F13" t="n">
-        <v>7.985</v>
+        <v>72.3827</v>
       </c>
       <c r="G13" t="n">
-        <v>82590</v>
+        <v>110.1939</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -888,22 +908,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>82350</v>
+        <v>80100</v>
       </c>
       <c r="C14" t="n">
-        <v>82350</v>
+        <v>80100</v>
       </c>
       <c r="D14" t="n">
-        <v>82350</v>
+        <v>80100</v>
       </c>
       <c r="E14" t="n">
-        <v>82350</v>
+        <v>80100</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="G14" t="n">
-        <v>82500</v>
+        <v>109.9939</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -924,22 +944,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82350</v>
+        <v>79900</v>
       </c>
       <c r="C15" t="n">
-        <v>82800</v>
+        <v>79500</v>
       </c>
       <c r="D15" t="n">
-        <v>82800</v>
+        <v>79900</v>
       </c>
       <c r="E15" t="n">
-        <v>82350</v>
+        <v>79450</v>
       </c>
       <c r="F15" t="n">
-        <v>44.6711</v>
+        <v>0.4995</v>
       </c>
       <c r="G15" t="n">
-        <v>82550</v>
+        <v>109.4944</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -960,22 +980,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82950</v>
+        <v>79500</v>
       </c>
       <c r="C16" t="n">
-        <v>82900</v>
+        <v>78750</v>
       </c>
       <c r="D16" t="n">
-        <v>82950</v>
+        <v>79500</v>
       </c>
       <c r="E16" t="n">
-        <v>82900</v>
+        <v>78750</v>
       </c>
       <c r="F16" t="n">
-        <v>38.1716</v>
+        <v>35.224</v>
       </c>
       <c r="G16" t="n">
-        <v>82530</v>
+        <v>74.27040000000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -996,31 +1016,35 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>83200</v>
+        <v>79450</v>
       </c>
       <c r="C17" t="n">
-        <v>83150</v>
+        <v>79450</v>
       </c>
       <c r="D17" t="n">
-        <v>83200</v>
+        <v>79450</v>
       </c>
       <c r="E17" t="n">
-        <v>83150</v>
+        <v>79450</v>
       </c>
       <c r="F17" t="n">
-        <v>13.56</v>
+        <v>2.6184</v>
       </c>
       <c r="G17" t="n">
-        <v>82680</v>
+        <v>76.88880000000002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>78750</v>
+      </c>
+      <c r="K17" t="n">
+        <v>78750</v>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
@@ -1032,22 +1056,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>83200</v>
+        <v>79950</v>
       </c>
       <c r="C18" t="n">
-        <v>83400</v>
+        <v>80000</v>
       </c>
       <c r="D18" t="n">
-        <v>83400</v>
+        <v>80000</v>
       </c>
       <c r="E18" t="n">
-        <v>83200</v>
+        <v>79950</v>
       </c>
       <c r="F18" t="n">
-        <v>17.1</v>
+        <v>19.8705</v>
       </c>
       <c r="G18" t="n">
-        <v>82920</v>
+        <v>96.75930000000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1056,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>78750</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1068,22 +1098,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>83250</v>
+        <v>79800</v>
       </c>
       <c r="C19" t="n">
-        <v>83200</v>
+        <v>79800</v>
       </c>
       <c r="D19" t="n">
-        <v>83250</v>
+        <v>79800</v>
       </c>
       <c r="E19" t="n">
-        <v>83200</v>
+        <v>79450</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5561</v>
+        <v>22.348</v>
       </c>
       <c r="G19" t="n">
-        <v>83090</v>
+        <v>74.41130000000003</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1092,8 +1122,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>78750</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1104,22 +1140,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>83650</v>
+        <v>79500</v>
       </c>
       <c r="C20" t="n">
-        <v>83650</v>
+        <v>79500</v>
       </c>
       <c r="D20" t="n">
-        <v>83650</v>
+        <v>79500</v>
       </c>
       <c r="E20" t="n">
-        <v>83650</v>
+        <v>79500</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1296</v>
+        <v>0.1454</v>
       </c>
       <c r="G20" t="n">
-        <v>83260</v>
+        <v>74.26590000000003</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1140,22 +1176,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>84000</v>
+        <v>79100</v>
       </c>
       <c r="C21" t="n">
-        <v>84050</v>
+        <v>79100</v>
       </c>
       <c r="D21" t="n">
-        <v>84050</v>
+        <v>79100</v>
       </c>
       <c r="E21" t="n">
-        <v>84000</v>
+        <v>79100</v>
       </c>
       <c r="F21" t="n">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>83490</v>
+        <v>72.26590000000003</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1176,22 +1212,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>84100</v>
+        <v>79050</v>
       </c>
       <c r="C22" t="n">
-        <v>84100</v>
+        <v>79050</v>
       </c>
       <c r="D22" t="n">
-        <v>84100</v>
+        <v>79050</v>
       </c>
       <c r="E22" t="n">
-        <v>84100</v>
+        <v>79050</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>0.51</v>
       </c>
       <c r="G22" t="n">
-        <v>83680</v>
+        <v>71.75590000000003</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1212,22 +1248,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>83850</v>
+        <v>79050</v>
       </c>
       <c r="C23" t="n">
-        <v>83550</v>
+        <v>79050</v>
       </c>
       <c r="D23" t="n">
-        <v>83950</v>
+        <v>79050</v>
       </c>
       <c r="E23" t="n">
-        <v>83500</v>
+        <v>79050</v>
       </c>
       <c r="F23" t="n">
-        <v>31.2942</v>
+        <v>0.04</v>
       </c>
       <c r="G23" t="n">
-        <v>83710</v>
+        <v>71.75590000000003</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1248,22 +1284,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>83400</v>
+        <v>78850</v>
       </c>
       <c r="C24" t="n">
-        <v>83400</v>
+        <v>78850</v>
       </c>
       <c r="D24" t="n">
-        <v>83450</v>
+        <v>78850</v>
       </c>
       <c r="E24" t="n">
-        <v>83400</v>
+        <v>78850</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>83750</v>
+        <v>71.06590000000003</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1284,22 +1320,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>83500</v>
+        <v>79500</v>
       </c>
       <c r="C25" t="n">
-        <v>83500</v>
+        <v>79500</v>
       </c>
       <c r="D25" t="n">
-        <v>83500</v>
+        <v>79500</v>
       </c>
       <c r="E25" t="n">
-        <v>83500</v>
+        <v>79500</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>0.169</v>
       </c>
       <c r="G25" t="n">
-        <v>83720</v>
+        <v>71.23490000000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1320,22 +1356,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>83750</v>
+        <v>79500</v>
       </c>
       <c r="C26" t="n">
-        <v>83750</v>
+        <v>79500</v>
       </c>
       <c r="D26" t="n">
-        <v>83750</v>
+        <v>79500</v>
       </c>
       <c r="E26" t="n">
-        <v>83750</v>
+        <v>79500</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1542</v>
+        <v>12.0973</v>
       </c>
       <c r="G26" t="n">
-        <v>83660</v>
+        <v>71.23490000000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1356,22 +1392,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>84150</v>
+        <v>79650</v>
       </c>
       <c r="C27" t="n">
-        <v>84200</v>
+        <v>79650</v>
       </c>
       <c r="D27" t="n">
-        <v>84200</v>
+        <v>79650</v>
       </c>
       <c r="E27" t="n">
-        <v>84150</v>
+        <v>79650</v>
       </c>
       <c r="F27" t="n">
-        <v>0.159</v>
+        <v>16.1621</v>
       </c>
       <c r="G27" t="n">
-        <v>83680</v>
+        <v>87.39700000000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1392,22 +1428,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>84800</v>
+        <v>79600</v>
       </c>
       <c r="C28" t="n">
-        <v>84850</v>
+        <v>79600</v>
       </c>
       <c r="D28" t="n">
-        <v>84850</v>
+        <v>79600</v>
       </c>
       <c r="E28" t="n">
-        <v>84800</v>
+        <v>79600</v>
       </c>
       <c r="F28" t="n">
-        <v>1.7477</v>
+        <v>3.6533</v>
       </c>
       <c r="G28" t="n">
-        <v>83940</v>
+        <v>83.74370000000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1428,22 +1464,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>84450</v>
+        <v>79600</v>
       </c>
       <c r="C29" t="n">
-        <v>84250</v>
+        <v>79600</v>
       </c>
       <c r="D29" t="n">
-        <v>84450</v>
+        <v>79600</v>
       </c>
       <c r="E29" t="n">
-        <v>84250</v>
+        <v>79600</v>
       </c>
       <c r="F29" t="n">
-        <v>4.5686</v>
+        <v>1.7276</v>
       </c>
       <c r="G29" t="n">
-        <v>84110</v>
+        <v>83.74370000000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1464,22 +1500,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>84000</v>
+        <v>79300</v>
       </c>
       <c r="C30" t="n">
-        <v>83600</v>
+        <v>79000</v>
       </c>
       <c r="D30" t="n">
-        <v>84000</v>
+        <v>79300</v>
       </c>
       <c r="E30" t="n">
-        <v>83600</v>
+        <v>79000</v>
       </c>
       <c r="F30" t="n">
-        <v>7.4998</v>
+        <v>25.4</v>
       </c>
       <c r="G30" t="n">
-        <v>84130</v>
+        <v>58.34370000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1500,22 +1536,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>83700</v>
+        <v>79050</v>
       </c>
       <c r="C31" t="n">
-        <v>84150</v>
+        <v>79050</v>
       </c>
       <c r="D31" t="n">
-        <v>84150</v>
+        <v>79050</v>
       </c>
       <c r="E31" t="n">
-        <v>83700</v>
+        <v>79050</v>
       </c>
       <c r="F31" t="n">
-        <v>4.1256</v>
+        <v>12.8</v>
       </c>
       <c r="G31" t="n">
-        <v>84210</v>
+        <v>71.14370000000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1536,22 +1572,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>84050</v>
+        <v>78900</v>
       </c>
       <c r="C32" t="n">
-        <v>84050</v>
+        <v>78900</v>
       </c>
       <c r="D32" t="n">
-        <v>84050</v>
+        <v>78900</v>
       </c>
       <c r="E32" t="n">
-        <v>84050</v>
+        <v>78900</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>0.8499</v>
       </c>
       <c r="G32" t="n">
-        <v>84180</v>
+        <v>70.29380000000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1572,22 +1608,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>84100</v>
+        <v>78700</v>
       </c>
       <c r="C33" t="n">
-        <v>84100</v>
+        <v>78700</v>
       </c>
       <c r="D33" t="n">
-        <v>84100</v>
+        <v>78700</v>
       </c>
       <c r="E33" t="n">
-        <v>84100</v>
+        <v>78700</v>
       </c>
       <c r="F33" t="n">
-        <v>0.553</v>
+        <v>0.6411</v>
       </c>
       <c r="G33" t="n">
-        <v>84030</v>
+        <v>69.65270000000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1608,22 +1644,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>84300</v>
+        <v>78650</v>
       </c>
       <c r="C34" t="n">
-        <v>84300</v>
+        <v>78650</v>
       </c>
       <c r="D34" t="n">
-        <v>84300</v>
+        <v>78650</v>
       </c>
       <c r="E34" t="n">
-        <v>84300</v>
+        <v>78650</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>5.0143</v>
       </c>
       <c r="G34" t="n">
-        <v>84040</v>
+        <v>64.63840000000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1644,22 +1680,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>84250</v>
+        <v>78800</v>
       </c>
       <c r="C35" t="n">
-        <v>84500</v>
+        <v>78800</v>
       </c>
       <c r="D35" t="n">
-        <v>84500</v>
+        <v>78800</v>
       </c>
       <c r="E35" t="n">
-        <v>84200</v>
+        <v>78800</v>
       </c>
       <c r="F35" t="n">
-        <v>31.9434</v>
+        <v>5.0762</v>
       </c>
       <c r="G35" t="n">
-        <v>84220</v>
+        <v>69.71460000000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1680,22 +1716,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>84400</v>
+        <v>79500</v>
       </c>
       <c r="C36" t="n">
-        <v>84400</v>
+        <v>79500</v>
       </c>
       <c r="D36" t="n">
-        <v>84400</v>
+        <v>79500</v>
       </c>
       <c r="E36" t="n">
-        <v>84050</v>
+        <v>79500</v>
       </c>
       <c r="F36" t="n">
-        <v>42.318</v>
+        <v>0.01</v>
       </c>
       <c r="G36" t="n">
-        <v>84270</v>
+        <v>69.72460000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1716,22 +1752,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>84400</v>
+        <v>79500</v>
       </c>
       <c r="C37" t="n">
-        <v>84400</v>
+        <v>79650</v>
       </c>
       <c r="D37" t="n">
-        <v>84400</v>
+        <v>79650</v>
       </c>
       <c r="E37" t="n">
-        <v>84400</v>
+        <v>79500</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>9.316599999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>84340</v>
+        <v>79.04120000000002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1752,22 +1788,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>84400</v>
+        <v>79950</v>
       </c>
       <c r="C38" t="n">
-        <v>84400</v>
+        <v>79950</v>
       </c>
       <c r="D38" t="n">
-        <v>84400</v>
+        <v>79950</v>
       </c>
       <c r="E38" t="n">
-        <v>84400</v>
+        <v>79950</v>
       </c>
       <c r="F38" t="n">
-        <v>23.3726</v>
+        <v>2.8862</v>
       </c>
       <c r="G38" t="n">
-        <v>84400</v>
+        <v>81.92740000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1788,22 +1824,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>84500</v>
+        <v>79550</v>
       </c>
       <c r="C39" t="n">
-        <v>84500</v>
+        <v>79550</v>
       </c>
       <c r="D39" t="n">
-        <v>84550</v>
+        <v>79550</v>
       </c>
       <c r="E39" t="n">
-        <v>84500</v>
+        <v>79550</v>
       </c>
       <c r="F39" t="n">
-        <v>25.6434</v>
+        <v>0.1404</v>
       </c>
       <c r="G39" t="n">
-        <v>84440</v>
+        <v>81.78700000000002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1824,22 +1860,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>84500</v>
+        <v>79300</v>
       </c>
       <c r="C40" t="n">
-        <v>84400</v>
+        <v>79300</v>
       </c>
       <c r="D40" t="n">
-        <v>84500</v>
+        <v>79300</v>
       </c>
       <c r="E40" t="n">
-        <v>84400</v>
+        <v>79300</v>
       </c>
       <c r="F40" t="n">
-        <v>18.8089</v>
+        <v>1.0088</v>
       </c>
       <c r="G40" t="n">
-        <v>84420</v>
+        <v>80.77820000000003</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1860,22 +1896,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>84500</v>
+        <v>79700</v>
       </c>
       <c r="C41" t="n">
-        <v>84050</v>
+        <v>79700</v>
       </c>
       <c r="D41" t="n">
-        <v>84500</v>
+        <v>79700</v>
       </c>
       <c r="E41" t="n">
-        <v>84050</v>
+        <v>79700</v>
       </c>
       <c r="F41" t="n">
-        <v>52.3287</v>
+        <v>0.1404</v>
       </c>
       <c r="G41" t="n">
-        <v>84350</v>
+        <v>80.91860000000003</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1896,22 +1932,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>84450</v>
+        <v>80100</v>
       </c>
       <c r="C42" t="n">
-        <v>84450</v>
+        <v>80100</v>
       </c>
       <c r="D42" t="n">
-        <v>84450</v>
+        <v>80100</v>
       </c>
       <c r="E42" t="n">
-        <v>84450</v>
+        <v>80100</v>
       </c>
       <c r="F42" t="n">
-        <v>2.3684</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>84360</v>
+        <v>81.47760000000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1932,22 +1968,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>84500</v>
+        <v>79900</v>
       </c>
       <c r="C43" t="n">
-        <v>84450</v>
+        <v>79850</v>
       </c>
       <c r="D43" t="n">
-        <v>84650</v>
+        <v>79900</v>
       </c>
       <c r="E43" t="n">
-        <v>84350</v>
+        <v>79850</v>
       </c>
       <c r="F43" t="n">
-        <v>12.2195</v>
+        <v>11.0146</v>
       </c>
       <c r="G43" t="n">
-        <v>84370</v>
+        <v>70.46300000000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1968,22 +2004,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>84400</v>
+        <v>79650</v>
       </c>
       <c r="C44" t="n">
-        <v>85600</v>
+        <v>79650</v>
       </c>
       <c r="D44" t="n">
-        <v>85600</v>
+        <v>79650</v>
       </c>
       <c r="E44" t="n">
-        <v>84350</v>
+        <v>79650</v>
       </c>
       <c r="F44" t="n">
-        <v>147.61115847</v>
+        <v>1.8551</v>
       </c>
       <c r="G44" t="n">
-        <v>84590</v>
+        <v>68.60790000000003</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2004,28 +2040,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>85350</v>
+        <v>79650</v>
       </c>
       <c r="C45" t="n">
-        <v>84650</v>
+        <v>79700</v>
       </c>
       <c r="D45" t="n">
-        <v>85350</v>
+        <v>79700</v>
       </c>
       <c r="E45" t="n">
-        <v>84650</v>
+        <v>79650</v>
       </c>
       <c r="F45" t="n">
-        <v>7.2742</v>
+        <v>4.5432</v>
       </c>
       <c r="G45" t="n">
-        <v>84640</v>
+        <v>73.15110000000003</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2040,28 +2076,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>84650</v>
+        <v>79950</v>
       </c>
       <c r="C46" t="n">
-        <v>84000</v>
+        <v>79950</v>
       </c>
       <c r="D46" t="n">
-        <v>84650</v>
+        <v>79950</v>
       </c>
       <c r="E46" t="n">
-        <v>84000</v>
+        <v>79950</v>
       </c>
       <c r="F46" t="n">
-        <v>77.7389</v>
+        <v>0.9381</v>
       </c>
       <c r="G46" t="n">
-        <v>84630</v>
+        <v>74.08920000000003</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2076,22 +2112,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>84000</v>
+        <v>79750</v>
       </c>
       <c r="C47" t="n">
-        <v>83800</v>
+        <v>79750</v>
       </c>
       <c r="D47" t="n">
-        <v>84000</v>
+        <v>79750</v>
       </c>
       <c r="E47" t="n">
-        <v>83800</v>
+        <v>79750</v>
       </c>
       <c r="F47" t="n">
-        <v>27.2852</v>
+        <v>0.0108</v>
       </c>
       <c r="G47" t="n">
-        <v>84500</v>
+        <v>74.07840000000003</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2112,22 +2148,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>83500</v>
+        <v>79750</v>
       </c>
       <c r="C48" t="n">
-        <v>83350</v>
+        <v>79750</v>
       </c>
       <c r="D48" t="n">
-        <v>83500</v>
+        <v>79750</v>
       </c>
       <c r="E48" t="n">
-        <v>83350</v>
+        <v>79750</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8014</v>
+        <v>0.02</v>
       </c>
       <c r="G48" t="n">
-        <v>84280</v>
+        <v>74.07840000000003</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2148,22 +2184,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>83600</v>
+        <v>80000</v>
       </c>
       <c r="C49" t="n">
-        <v>83600</v>
+        <v>80150</v>
       </c>
       <c r="D49" t="n">
-        <v>83600</v>
+        <v>80150</v>
       </c>
       <c r="E49" t="n">
-        <v>83600</v>
+        <v>80000</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>9.773300000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>83880</v>
+        <v>83.85170000000004</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2184,22 +2220,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>84100</v>
+        <v>80100</v>
       </c>
       <c r="C50" t="n">
-        <v>84250</v>
+        <v>80100</v>
       </c>
       <c r="D50" t="n">
-        <v>84250</v>
+        <v>80100</v>
       </c>
       <c r="E50" t="n">
-        <v>84100</v>
+        <v>80100</v>
       </c>
       <c r="F50" t="n">
-        <v>2.8391</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>83800</v>
+        <v>82.85170000000004</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2220,22 +2256,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>84200</v>
+        <v>80200</v>
       </c>
       <c r="C51" t="n">
-        <v>84000</v>
+        <v>80300</v>
       </c>
       <c r="D51" t="n">
-        <v>84200</v>
+        <v>80300</v>
       </c>
       <c r="E51" t="n">
-        <v>84000</v>
+        <v>80200</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8101</v>
+        <v>0.55</v>
       </c>
       <c r="G51" t="n">
-        <v>83800</v>
+        <v>83.40170000000003</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2256,22 +2292,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83800</v>
+        <v>80300</v>
       </c>
       <c r="C52" t="n">
-        <v>83800</v>
+        <v>80300</v>
       </c>
       <c r="D52" t="n">
-        <v>83800</v>
+        <v>80300</v>
       </c>
       <c r="E52" t="n">
-        <v>83800</v>
+        <v>80300</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
       <c r="G52" t="n">
-        <v>83800</v>
+        <v>83.40170000000003</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2292,22 +2328,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>83750</v>
+        <v>80400</v>
       </c>
       <c r="C53" t="n">
-        <v>84200</v>
+        <v>80600</v>
       </c>
       <c r="D53" t="n">
-        <v>84200</v>
+        <v>80600</v>
       </c>
       <c r="E53" t="n">
-        <v>83750</v>
+        <v>80400</v>
       </c>
       <c r="F53" t="n">
-        <v>1.1306</v>
+        <v>1.985</v>
       </c>
       <c r="G53" t="n">
-        <v>83970</v>
+        <v>85.38670000000003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2328,22 +2364,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>84150</v>
+        <v>80100</v>
       </c>
       <c r="C54" t="n">
-        <v>84050</v>
+        <v>80100</v>
       </c>
       <c r="D54" t="n">
-        <v>84150</v>
+        <v>80100</v>
       </c>
       <c r="E54" t="n">
-        <v>84050</v>
+        <v>80100</v>
       </c>
       <c r="F54" t="n">
-        <v>17.3037</v>
+        <v>0.5584</v>
       </c>
       <c r="G54" t="n">
-        <v>84060</v>
+        <v>84.82830000000003</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2364,22 +2400,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>84150</v>
+        <v>80000</v>
       </c>
       <c r="C55" t="n">
-        <v>84150</v>
+        <v>80000</v>
       </c>
       <c r="D55" t="n">
-        <v>84150</v>
+        <v>80000</v>
       </c>
       <c r="E55" t="n">
-        <v>84150</v>
+        <v>80000</v>
       </c>
       <c r="F55" t="n">
-        <v>1.8923</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>84040</v>
+        <v>82.82830000000003</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2400,28 +2436,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>84800</v>
+        <v>79800</v>
       </c>
       <c r="C56" t="n">
-        <v>84800</v>
+        <v>79800</v>
       </c>
       <c r="D56" t="n">
-        <v>84800</v>
+        <v>79800</v>
       </c>
       <c r="E56" t="n">
-        <v>84800</v>
+        <v>79800</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2</v>
+        <v>0.1299</v>
       </c>
       <c r="G56" t="n">
-        <v>84200</v>
+        <v>82.69840000000002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2436,28 +2472,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>85100</v>
+        <v>79950</v>
       </c>
       <c r="C57" t="n">
-        <v>84850</v>
+        <v>79950</v>
       </c>
       <c r="D57" t="n">
-        <v>85100</v>
+        <v>79950</v>
       </c>
       <c r="E57" t="n">
-        <v>84850</v>
+        <v>79950</v>
       </c>
       <c r="F57" t="n">
-        <v>2.9503</v>
+        <v>0.8</v>
       </c>
       <c r="G57" t="n">
-        <v>84410</v>
+        <v>83.49840000000002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2472,28 +2508,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>84650</v>
+        <v>80300</v>
       </c>
       <c r="C58" t="n">
-        <v>84650</v>
+        <v>80300</v>
       </c>
       <c r="D58" t="n">
-        <v>84650</v>
+        <v>80300</v>
       </c>
       <c r="E58" t="n">
-        <v>84650</v>
+        <v>80300</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1249</v>
+        <v>17.9549</v>
       </c>
       <c r="G58" t="n">
-        <v>84500</v>
+        <v>101.4533</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2508,28 +2544,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>84150</v>
+        <v>80300</v>
       </c>
       <c r="C59" t="n">
-        <v>84000</v>
+        <v>80750</v>
       </c>
       <c r="D59" t="n">
-        <v>84150</v>
+        <v>80750</v>
       </c>
       <c r="E59" t="n">
-        <v>84000</v>
+        <v>80300</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0017</v>
+        <v>28.2001</v>
       </c>
       <c r="G59" t="n">
-        <v>84490</v>
+        <v>129.6534</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2544,28 +2580,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>83800</v>
+        <v>80900</v>
       </c>
       <c r="C60" t="n">
-        <v>83800</v>
+        <v>80900</v>
       </c>
       <c r="D60" t="n">
-        <v>83800</v>
+        <v>80900</v>
       </c>
       <c r="E60" t="n">
-        <v>83800</v>
+        <v>80900</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1249</v>
+        <v>0.216</v>
       </c>
       <c r="G60" t="n">
-        <v>84420</v>
+        <v>129.8694</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2580,28 +2616,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>83950</v>
+        <v>81150</v>
       </c>
       <c r="C61" t="n">
-        <v>83950</v>
+        <v>81150</v>
       </c>
       <c r="D61" t="n">
-        <v>83950</v>
+        <v>81150</v>
       </c>
       <c r="E61" t="n">
-        <v>83950</v>
+        <v>81150</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1621</v>
+        <v>0.05</v>
       </c>
       <c r="G61" t="n">
-        <v>84250</v>
+        <v>129.9194</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2616,28 +2652,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>83400</v>
+        <v>81250</v>
       </c>
       <c r="C62" t="n">
-        <v>83200</v>
+        <v>81250</v>
       </c>
       <c r="D62" t="n">
-        <v>83400</v>
+        <v>81250</v>
       </c>
       <c r="E62" t="n">
-        <v>83200</v>
+        <v>81250</v>
       </c>
       <c r="F62" t="n">
-        <v>19.0679</v>
+        <v>3.5592</v>
       </c>
       <c r="G62" t="n">
-        <v>83920</v>
+        <v>133.4786</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2652,28 +2688,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>82650</v>
+        <v>81350</v>
       </c>
       <c r="C63" t="n">
-        <v>83150</v>
+        <v>81350</v>
       </c>
       <c r="D63" t="n">
-        <v>83300</v>
+        <v>81350</v>
       </c>
       <c r="E63" t="n">
-        <v>82650</v>
+        <v>81350</v>
       </c>
       <c r="F63" t="n">
-        <v>87.6242</v>
+        <v>0.4022</v>
       </c>
       <c r="G63" t="n">
-        <v>83620</v>
+        <v>133.8808</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2688,28 +2724,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>83350</v>
+        <v>81400</v>
       </c>
       <c r="C64" t="n">
-        <v>83350</v>
+        <v>81400</v>
       </c>
       <c r="D64" t="n">
-        <v>83350</v>
+        <v>81400</v>
       </c>
       <c r="E64" t="n">
-        <v>83350</v>
+        <v>81400</v>
       </c>
       <c r="F64" t="n">
-        <v>2.1789</v>
+        <v>0.01</v>
       </c>
       <c r="G64" t="n">
-        <v>83490</v>
+        <v>133.8908</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2724,22 +2760,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>83400</v>
+        <v>81500</v>
       </c>
       <c r="C65" t="n">
-        <v>83400</v>
+        <v>81800</v>
       </c>
       <c r="D65" t="n">
-        <v>83400</v>
+        <v>81800</v>
       </c>
       <c r="E65" t="n">
-        <v>83400</v>
+        <v>81500</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1322</v>
+        <v>11.97302872</v>
       </c>
       <c r="G65" t="n">
-        <v>83410</v>
+        <v>145.86382872</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2760,22 +2796,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>83500</v>
+        <v>81500</v>
       </c>
       <c r="C66" t="n">
-        <v>83700</v>
+        <v>81500</v>
       </c>
       <c r="D66" t="n">
-        <v>83700</v>
+        <v>81500</v>
       </c>
       <c r="E66" t="n">
-        <v>83500</v>
+        <v>81500</v>
       </c>
       <c r="F66" t="n">
-        <v>41.1</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>83360</v>
+        <v>144.86382872</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2796,22 +2832,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>84000</v>
+        <v>81750</v>
       </c>
       <c r="C67" t="n">
-        <v>84050</v>
+        <v>81800</v>
       </c>
       <c r="D67" t="n">
-        <v>84050</v>
+        <v>81800</v>
       </c>
       <c r="E67" t="n">
-        <v>84000</v>
+        <v>81750</v>
       </c>
       <c r="F67" t="n">
-        <v>16.9</v>
+        <v>8.701771280000001</v>
       </c>
       <c r="G67" t="n">
-        <v>83530</v>
+        <v>153.5656</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2832,22 +2868,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>83950</v>
+        <v>81550</v>
       </c>
       <c r="C68" t="n">
-        <v>83950</v>
+        <v>81400</v>
       </c>
       <c r="D68" t="n">
-        <v>83950</v>
+        <v>81550</v>
       </c>
       <c r="E68" t="n">
-        <v>83950</v>
+        <v>81400</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1302</v>
+        <v>0.6727</v>
       </c>
       <c r="G68" t="n">
-        <v>83690</v>
+        <v>152.8929</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2868,22 +2904,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>84200</v>
+        <v>81150</v>
       </c>
       <c r="C69" t="n">
-        <v>84250</v>
+        <v>81150</v>
       </c>
       <c r="D69" t="n">
-        <v>84250</v>
+        <v>81150</v>
       </c>
       <c r="E69" t="n">
-        <v>84200</v>
+        <v>81150</v>
       </c>
       <c r="F69" t="n">
-        <v>19.6911</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>83870</v>
+        <v>152.8118</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2904,28 +2940,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>84050</v>
+        <v>81150</v>
       </c>
       <c r="C70" t="n">
-        <v>84050</v>
+        <v>81150</v>
       </c>
       <c r="D70" t="n">
-        <v>84050</v>
+        <v>81150</v>
       </c>
       <c r="E70" t="n">
-        <v>84050</v>
+        <v>81150</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1505</v>
+        <v>1.9157</v>
       </c>
       <c r="G70" t="n">
-        <v>84000</v>
+        <v>152.8118</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2940,22 +2976,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>84050</v>
+        <v>81150</v>
       </c>
       <c r="C71" t="n">
-        <v>84050</v>
+        <v>81150</v>
       </c>
       <c r="D71" t="n">
-        <v>84050</v>
+        <v>81150</v>
       </c>
       <c r="E71" t="n">
-        <v>84050</v>
+        <v>81150</v>
       </c>
       <c r="F71" t="n">
-        <v>34.3005</v>
+        <v>3.8065</v>
       </c>
       <c r="G71" t="n">
-        <v>84070</v>
+        <v>152.8118</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2976,28 +3012,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>83700</v>
+        <v>81350</v>
       </c>
       <c r="C72" t="n">
-        <v>83350</v>
+        <v>81350</v>
       </c>
       <c r="D72" t="n">
-        <v>83700</v>
+        <v>81350</v>
       </c>
       <c r="E72" t="n">
-        <v>83350</v>
+        <v>81350</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5</v>
+        <v>0.12292562</v>
       </c>
       <c r="G72" t="n">
-        <v>83930</v>
+        <v>152.93472562</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3012,22 +3048,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>83650</v>
+        <v>81500</v>
       </c>
       <c r="C73" t="n">
-        <v>83650</v>
+        <v>81350</v>
       </c>
       <c r="D73" t="n">
-        <v>83650</v>
+        <v>81500</v>
       </c>
       <c r="E73" t="n">
-        <v>83650</v>
+        <v>81350</v>
       </c>
       <c r="F73" t="n">
-        <v>0.119</v>
+        <v>30.0654</v>
       </c>
       <c r="G73" t="n">
-        <v>83870</v>
+        <v>152.93472562</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3048,22 +3084,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>83500</v>
+        <v>81750</v>
       </c>
       <c r="C74" t="n">
-        <v>83400</v>
+        <v>82050</v>
       </c>
       <c r="D74" t="n">
-        <v>83500</v>
+        <v>82050</v>
       </c>
       <c r="E74" t="n">
-        <v>83400</v>
+        <v>81750</v>
       </c>
       <c r="F74" t="n">
-        <v>71.32680000000001</v>
+        <v>21.9298</v>
       </c>
       <c r="G74" t="n">
-        <v>83700</v>
+        <v>174.86452562</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3084,22 +3120,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>83550</v>
+        <v>82300</v>
       </c>
       <c r="C75" t="n">
-        <v>83650</v>
+        <v>82300</v>
       </c>
       <c r="D75" t="n">
-        <v>83650</v>
+        <v>82300</v>
       </c>
       <c r="E75" t="n">
-        <v>83550</v>
+        <v>82300</v>
       </c>
       <c r="F75" t="n">
-        <v>1.17569073</v>
+        <v>0.02</v>
       </c>
       <c r="G75" t="n">
-        <v>83620</v>
+        <v>174.88452562</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3120,22 +3156,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>83300</v>
+        <v>82400</v>
       </c>
       <c r="C76" t="n">
-        <v>83200</v>
+        <v>82550</v>
       </c>
       <c r="D76" t="n">
-        <v>83300</v>
+        <v>82550</v>
       </c>
       <c r="E76" t="n">
-        <v>83200</v>
+        <v>82400</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3212</v>
+        <v>38.6237</v>
       </c>
       <c r="G76" t="n">
-        <v>83450</v>
+        <v>213.50822562</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3156,28 +3192,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>82950</v>
+        <v>82750</v>
       </c>
       <c r="C77" t="n">
-        <v>82950</v>
+        <v>83300</v>
       </c>
       <c r="D77" t="n">
-        <v>82950</v>
+        <v>83300</v>
       </c>
       <c r="E77" t="n">
-        <v>82950</v>
+        <v>82750</v>
       </c>
       <c r="F77" t="n">
-        <v>2.5358</v>
+        <v>34.3571</v>
       </c>
       <c r="G77" t="n">
-        <v>83370</v>
+        <v>247.86532562</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3192,28 +3228,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>82900</v>
+        <v>83350</v>
       </c>
       <c r="C78" t="n">
-        <v>82650</v>
+        <v>83700</v>
       </c>
       <c r="D78" t="n">
-        <v>82900</v>
+        <v>83700</v>
       </c>
       <c r="E78" t="n">
-        <v>82350</v>
+        <v>83350</v>
       </c>
       <c r="F78" t="n">
-        <v>2.24</v>
+        <v>13.6561</v>
       </c>
       <c r="G78" t="n">
-        <v>83170</v>
+        <v>261.52142562</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3228,28 +3264,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>82900</v>
+        <v>83700</v>
       </c>
       <c r="C79" t="n">
-        <v>82900</v>
+        <v>83250</v>
       </c>
       <c r="D79" t="n">
-        <v>82900</v>
+        <v>84800</v>
       </c>
       <c r="E79" t="n">
-        <v>82900</v>
+        <v>83250</v>
       </c>
       <c r="F79" t="n">
-        <v>0.129</v>
+        <v>128.4699</v>
       </c>
       <c r="G79" t="n">
-        <v>83070</v>
+        <v>133.05152562</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3264,28 +3300,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>82800</v>
+        <v>83200</v>
       </c>
       <c r="C80" t="n">
         <v>82800</v>
       </c>
       <c r="D80" t="n">
-        <v>82800</v>
+        <v>83200</v>
       </c>
       <c r="E80" t="n">
         <v>82800</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3027</v>
+        <v>43.7674</v>
       </c>
       <c r="G80" t="n">
-        <v>82900</v>
+        <v>89.28412562</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3300,28 +3336,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>82900</v>
+        <v>82550</v>
       </c>
       <c r="C81" t="n">
-        <v>82900</v>
+        <v>82550</v>
       </c>
       <c r="D81" t="n">
-        <v>82900</v>
+        <v>82550</v>
       </c>
       <c r="E81" t="n">
-        <v>82900</v>
+        <v>82550</v>
       </c>
       <c r="F81" t="n">
-        <v>6.0595</v>
+        <v>5.5589</v>
       </c>
       <c r="G81" t="n">
-        <v>82840</v>
+        <v>83.72522562</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3336,28 +3372,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>82600</v>
+        <v>82500</v>
       </c>
       <c r="C82" t="n">
-        <v>82600</v>
+        <v>83000</v>
       </c>
       <c r="D82" t="n">
-        <v>82600</v>
+        <v>83000</v>
       </c>
       <c r="E82" t="n">
-        <v>82600</v>
+        <v>82500</v>
       </c>
       <c r="F82" t="n">
-        <v>3.647</v>
+        <v>0.9147</v>
       </c>
       <c r="G82" t="n">
-        <v>82770</v>
+        <v>84.63992562</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3372,22 +3408,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>82500</v>
+        <v>82400</v>
       </c>
       <c r="C83" t="n">
-        <v>82500</v>
+        <v>82400</v>
       </c>
       <c r="D83" t="n">
-        <v>82500</v>
+        <v>82400</v>
       </c>
       <c r="E83" t="n">
-        <v>82500</v>
+        <v>82400</v>
       </c>
       <c r="F83" t="n">
-        <v>7.3365</v>
+        <v>0.928</v>
       </c>
       <c r="G83" t="n">
-        <v>82740</v>
+        <v>83.71192562</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3408,22 +3444,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>82450</v>
+        <v>82200</v>
       </c>
       <c r="C84" t="n">
-        <v>82150</v>
+        <v>82200</v>
       </c>
       <c r="D84" t="n">
-        <v>82450</v>
+        <v>82200</v>
       </c>
       <c r="E84" t="n">
-        <v>82150</v>
+        <v>82200</v>
       </c>
       <c r="F84" t="n">
-        <v>10.5558</v>
+        <v>7.985</v>
       </c>
       <c r="G84" t="n">
-        <v>82590</v>
+        <v>75.72692562</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3444,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>82150</v>
+        <v>82350</v>
       </c>
       <c r="C85" t="n">
-        <v>82100</v>
+        <v>82350</v>
       </c>
       <c r="D85" t="n">
-        <v>82150</v>
+        <v>82350</v>
       </c>
       <c r="E85" t="n">
-        <v>82100</v>
+        <v>82350</v>
       </c>
       <c r="F85" t="n">
-        <v>0.4864</v>
+        <v>4</v>
       </c>
       <c r="G85" t="n">
-        <v>82450</v>
+        <v>79.72692562</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3480,22 +3516,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>82100</v>
+        <v>82350</v>
       </c>
       <c r="C86" t="n">
-        <v>81700</v>
+        <v>82800</v>
       </c>
       <c r="D86" t="n">
-        <v>82100</v>
+        <v>82800</v>
       </c>
       <c r="E86" t="n">
-        <v>81700</v>
+        <v>82350</v>
       </c>
       <c r="F86" t="n">
-        <v>9.120900000000001</v>
+        <v>44.6711</v>
       </c>
       <c r="G86" t="n">
-        <v>82210</v>
+        <v>124.39802562</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3516,22 +3552,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>82150</v>
+        <v>82950</v>
       </c>
       <c r="C87" t="n">
-        <v>82150</v>
+        <v>82900</v>
       </c>
       <c r="D87" t="n">
-        <v>82150</v>
+        <v>82950</v>
       </c>
       <c r="E87" t="n">
-        <v>82150</v>
+        <v>82900</v>
       </c>
       <c r="F87" t="n">
-        <v>4.29</v>
+        <v>38.1716</v>
       </c>
       <c r="G87" t="n">
-        <v>82120</v>
+        <v>162.56962562</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3552,22 +3588,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>81900</v>
+        <v>83200</v>
       </c>
       <c r="C88" t="n">
-        <v>81900</v>
+        <v>83150</v>
       </c>
       <c r="D88" t="n">
-        <v>81900</v>
+        <v>83200</v>
       </c>
       <c r="E88" t="n">
-        <v>81900</v>
+        <v>83150</v>
       </c>
       <c r="F88" t="n">
-        <v>0.11</v>
+        <v>13.56</v>
       </c>
       <c r="G88" t="n">
-        <v>82000</v>
+        <v>176.12962562</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3588,28 +3624,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>81850</v>
+        <v>83200</v>
       </c>
       <c r="C89" t="n">
-        <v>81850</v>
+        <v>83400</v>
       </c>
       <c r="D89" t="n">
-        <v>81850</v>
+        <v>83400</v>
       </c>
       <c r="E89" t="n">
-        <v>81850</v>
+        <v>83200</v>
       </c>
       <c r="F89" t="n">
-        <v>1.24</v>
+        <v>17.1</v>
       </c>
       <c r="G89" t="n">
-        <v>81940</v>
+        <v>193.22962562</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3624,28 +3660,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>81600</v>
+        <v>83250</v>
       </c>
       <c r="C90" t="n">
-        <v>81600</v>
+        <v>83200</v>
       </c>
       <c r="D90" t="n">
-        <v>81600</v>
+        <v>83250</v>
       </c>
       <c r="E90" t="n">
-        <v>81600</v>
+        <v>83200</v>
       </c>
       <c r="F90" t="n">
-        <v>1.923</v>
+        <v>0.5561</v>
       </c>
       <c r="G90" t="n">
-        <v>81840</v>
+        <v>192.67352562</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3660,28 +3696,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>81650</v>
+        <v>83650</v>
       </c>
       <c r="C91" t="n">
-        <v>81650</v>
+        <v>83650</v>
       </c>
       <c r="D91" t="n">
-        <v>81650</v>
+        <v>83650</v>
       </c>
       <c r="E91" t="n">
-        <v>81650</v>
+        <v>83650</v>
       </c>
       <c r="F91" t="n">
-        <v>0.478</v>
+        <v>0.1296</v>
       </c>
       <c r="G91" t="n">
-        <v>81830</v>
+        <v>192.80312562</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3696,28 +3732,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>82000</v>
+        <v>84000</v>
       </c>
       <c r="C92" t="n">
-        <v>82000</v>
+        <v>84050</v>
       </c>
       <c r="D92" t="n">
-        <v>82000</v>
+        <v>84050</v>
       </c>
       <c r="E92" t="n">
-        <v>82000</v>
+        <v>84000</v>
       </c>
       <c r="F92" t="n">
-        <v>2.246</v>
+        <v>1.63</v>
       </c>
       <c r="G92" t="n">
-        <v>81800</v>
+        <v>194.43312562</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3732,28 +3768,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>81700</v>
+        <v>84100</v>
       </c>
       <c r="C93" t="n">
-        <v>81700</v>
+        <v>84100</v>
       </c>
       <c r="D93" t="n">
-        <v>81700</v>
+        <v>84100</v>
       </c>
       <c r="E93" t="n">
-        <v>81700</v>
+        <v>84100</v>
       </c>
       <c r="F93" t="n">
-        <v>4.8607</v>
+        <v>8</v>
       </c>
       <c r="G93" t="n">
-        <v>81760</v>
+        <v>202.43312562</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3768,28 +3804,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>81550</v>
+        <v>83850</v>
       </c>
       <c r="C94" t="n">
-        <v>81550</v>
+        <v>83550</v>
       </c>
       <c r="D94" t="n">
-        <v>81550</v>
+        <v>83950</v>
       </c>
       <c r="E94" t="n">
-        <v>81550</v>
+        <v>83500</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4748</v>
+        <v>31.2942</v>
       </c>
       <c r="G94" t="n">
-        <v>81700</v>
+        <v>171.13892562</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3804,28 +3840,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>81700</v>
+        <v>83400</v>
       </c>
       <c r="C95" t="n">
-        <v>81700</v>
+        <v>83400</v>
       </c>
       <c r="D95" t="n">
-        <v>81700</v>
+        <v>83450</v>
       </c>
       <c r="E95" t="n">
-        <v>81700</v>
+        <v>83400</v>
       </c>
       <c r="F95" t="n">
-        <v>0.773</v>
+        <v>12</v>
       </c>
       <c r="G95" t="n">
-        <v>81720</v>
+        <v>159.13892562</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3840,28 +3876,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>81650</v>
+        <v>83500</v>
       </c>
       <c r="C96" t="n">
-        <v>81650</v>
+        <v>83500</v>
       </c>
       <c r="D96" t="n">
-        <v>81650</v>
+        <v>83500</v>
       </c>
       <c r="E96" t="n">
-        <v>81650</v>
+        <v>83500</v>
       </c>
       <c r="F96" t="n">
-        <v>4.8927</v>
+        <v>4</v>
       </c>
       <c r="G96" t="n">
-        <v>81720</v>
+        <v>163.13892562</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3876,28 +3912,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>81400</v>
+        <v>83750</v>
       </c>
       <c r="C97" t="n">
-        <v>81250</v>
+        <v>83750</v>
       </c>
       <c r="D97" t="n">
-        <v>81400</v>
+        <v>83750</v>
       </c>
       <c r="E97" t="n">
-        <v>81250</v>
+        <v>83750</v>
       </c>
       <c r="F97" t="n">
-        <v>2.13</v>
+        <v>0.1542</v>
       </c>
       <c r="G97" t="n">
-        <v>81570</v>
+        <v>163.29312562</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3912,28 +3948,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>81100</v>
+        <v>84150</v>
       </c>
       <c r="C98" t="n">
-        <v>81100</v>
+        <v>84200</v>
       </c>
       <c r="D98" t="n">
-        <v>81100</v>
+        <v>84200</v>
       </c>
       <c r="E98" t="n">
-        <v>81100</v>
+        <v>84150</v>
       </c>
       <c r="F98" t="n">
-        <v>0.21</v>
+        <v>0.159</v>
       </c>
       <c r="G98" t="n">
-        <v>81450</v>
+        <v>163.45212562</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3948,28 +3984,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>81050</v>
+        <v>84800</v>
       </c>
       <c r="C99" t="n">
-        <v>81100</v>
+        <v>84850</v>
       </c>
       <c r="D99" t="n">
-        <v>81100</v>
+        <v>84850</v>
       </c>
       <c r="E99" t="n">
-        <v>81050</v>
+        <v>84800</v>
       </c>
       <c r="F99" t="n">
-        <v>2.5262</v>
+        <v>1.7477</v>
       </c>
       <c r="G99" t="n">
-        <v>81360</v>
+        <v>165.19982562</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3984,28 +4020,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>81050</v>
+        <v>84450</v>
       </c>
       <c r="C100" t="n">
-        <v>81050</v>
+        <v>84250</v>
       </c>
       <c r="D100" t="n">
-        <v>81050</v>
+        <v>84450</v>
       </c>
       <c r="E100" t="n">
-        <v>81050</v>
+        <v>84250</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6346000000000001</v>
+        <v>4.5686</v>
       </c>
       <c r="G100" t="n">
-        <v>81230</v>
+        <v>160.63122562</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4020,28 +4056,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>81050</v>
+        <v>84000</v>
       </c>
       <c r="C101" t="n">
-        <v>81050</v>
+        <v>83600</v>
       </c>
       <c r="D101" t="n">
-        <v>81050</v>
+        <v>84000</v>
       </c>
       <c r="E101" t="n">
-        <v>81050</v>
+        <v>83600</v>
       </c>
       <c r="F101" t="n">
-        <v>1.6054</v>
+        <v>7.4998</v>
       </c>
       <c r="G101" t="n">
-        <v>81110</v>
+        <v>153.13142562</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4056,28 +4092,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>80900</v>
+        <v>83700</v>
       </c>
       <c r="C102" t="n">
-        <v>80700</v>
+        <v>84150</v>
       </c>
       <c r="D102" t="n">
-        <v>80900</v>
+        <v>84150</v>
       </c>
       <c r="E102" t="n">
-        <v>80700</v>
+        <v>83700</v>
       </c>
       <c r="F102" t="n">
-        <v>17.4052</v>
+        <v>4.1256</v>
       </c>
       <c r="G102" t="n">
-        <v>81000</v>
+        <v>157.25702562</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4092,28 +4128,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>80700</v>
+        <v>84050</v>
       </c>
       <c r="C103" t="n">
-        <v>80700</v>
+        <v>84050</v>
       </c>
       <c r="D103" t="n">
-        <v>80700</v>
+        <v>84050</v>
       </c>
       <c r="E103" t="n">
-        <v>80700</v>
+        <v>84050</v>
       </c>
       <c r="F103" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="G103" t="n">
-        <v>80920</v>
+        <v>153.25702562</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4128,28 +4164,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>80650</v>
+        <v>84100</v>
       </c>
       <c r="C104" t="n">
-        <v>80550</v>
+        <v>84100</v>
       </c>
       <c r="D104" t="n">
-        <v>80650</v>
+        <v>84100</v>
       </c>
       <c r="E104" t="n">
-        <v>80550</v>
+        <v>84100</v>
       </c>
       <c r="F104" t="n">
-        <v>0.5</v>
+        <v>0.553</v>
       </c>
       <c r="G104" t="n">
-        <v>80810</v>
+        <v>153.81002562</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4164,28 +4200,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>80600</v>
+        <v>84300</v>
       </c>
       <c r="C105" t="n">
-        <v>80600</v>
+        <v>84300</v>
       </c>
       <c r="D105" t="n">
-        <v>80600</v>
+        <v>84300</v>
       </c>
       <c r="E105" t="n">
-        <v>80600</v>
+        <v>84300</v>
       </c>
       <c r="F105" t="n">
-        <v>2.96</v>
+        <v>4</v>
       </c>
       <c r="G105" t="n">
-        <v>80720</v>
+        <v>157.81002562</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4200,28 +4236,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>80600</v>
+        <v>84250</v>
       </c>
       <c r="C106" t="n">
-        <v>80700</v>
+        <v>84500</v>
       </c>
       <c r="D106" t="n">
-        <v>80700</v>
+        <v>84500</v>
       </c>
       <c r="E106" t="n">
-        <v>80600</v>
+        <v>84200</v>
       </c>
       <c r="F106" t="n">
-        <v>1.5418</v>
+        <v>31.9434</v>
       </c>
       <c r="G106" t="n">
-        <v>80650</v>
+        <v>189.75342562</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4236,28 +4272,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>80700</v>
+        <v>84400</v>
       </c>
       <c r="C107" t="n">
-        <v>80700</v>
+        <v>84400</v>
       </c>
       <c r="D107" t="n">
-        <v>80700</v>
+        <v>84400</v>
       </c>
       <c r="E107" t="n">
-        <v>80700</v>
+        <v>84050</v>
       </c>
       <c r="F107" t="n">
-        <v>14.3668</v>
+        <v>42.318</v>
       </c>
       <c r="G107" t="n">
-        <v>80650</v>
+        <v>147.43542562</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4272,28 +4308,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>80800</v>
+        <v>84400</v>
       </c>
       <c r="C108" t="n">
-        <v>80850</v>
+        <v>84400</v>
       </c>
       <c r="D108" t="n">
-        <v>80850</v>
+        <v>84400</v>
       </c>
       <c r="E108" t="n">
-        <v>80800</v>
+        <v>84400</v>
       </c>
       <c r="F108" t="n">
-        <v>2.554</v>
+        <v>4</v>
       </c>
       <c r="G108" t="n">
-        <v>80680</v>
+        <v>147.43542562</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4308,28 +4344,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>81350</v>
+        <v>84400</v>
       </c>
       <c r="C109" t="n">
-        <v>81350</v>
+        <v>84400</v>
       </c>
       <c r="D109" t="n">
-        <v>81350</v>
+        <v>84400</v>
       </c>
       <c r="E109" t="n">
-        <v>81350</v>
+        <v>84400</v>
       </c>
       <c r="F109" t="n">
-        <v>0.01229256</v>
+        <v>23.3726</v>
       </c>
       <c r="G109" t="n">
-        <v>80840</v>
+        <v>147.43542562</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4344,28 +4380,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>81550</v>
+        <v>84500</v>
       </c>
       <c r="C110" t="n">
-        <v>81550</v>
+        <v>84500</v>
       </c>
       <c r="D110" t="n">
-        <v>81550</v>
+        <v>84550</v>
       </c>
       <c r="E110" t="n">
-        <v>81550</v>
+        <v>84500</v>
       </c>
       <c r="F110" t="n">
-        <v>3.1919</v>
+        <v>25.6434</v>
       </c>
       <c r="G110" t="n">
-        <v>81030</v>
+        <v>173.07882562</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4380,28 +4416,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>80950</v>
+        <v>84500</v>
       </c>
       <c r="C111" t="n">
-        <v>80950</v>
+        <v>84400</v>
       </c>
       <c r="D111" t="n">
-        <v>80950</v>
+        <v>84500</v>
       </c>
       <c r="E111" t="n">
-        <v>80950</v>
+        <v>84400</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1093</v>
+        <v>18.8089</v>
       </c>
       <c r="G111" t="n">
-        <v>81080</v>
+        <v>154.26992562</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4416,28 +4452,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>81300</v>
+        <v>84500</v>
       </c>
       <c r="C112" t="n">
-        <v>81400</v>
+        <v>84050</v>
       </c>
       <c r="D112" t="n">
-        <v>81400</v>
+        <v>84500</v>
       </c>
       <c r="E112" t="n">
-        <v>81300</v>
+        <v>84050</v>
       </c>
       <c r="F112" t="n">
-        <v>1.2285</v>
+        <v>52.3287</v>
       </c>
       <c r="G112" t="n">
-        <v>81220</v>
+        <v>101.94122562</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4452,28 +4488,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>81150</v>
+        <v>84450</v>
       </c>
       <c r="C113" t="n">
-        <v>81100</v>
+        <v>84450</v>
       </c>
       <c r="D113" t="n">
-        <v>81150</v>
+        <v>84450</v>
       </c>
       <c r="E113" t="n">
-        <v>81100</v>
+        <v>84450</v>
       </c>
       <c r="F113" t="n">
-        <v>1.985</v>
+        <v>2.3684</v>
       </c>
       <c r="G113" t="n">
-        <v>81270</v>
+        <v>104.30962562</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4488,22 +4524,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>81350</v>
+        <v>84500</v>
       </c>
       <c r="C114" t="n">
-        <v>81350</v>
+        <v>84450</v>
       </c>
       <c r="D114" t="n">
-        <v>81350</v>
+        <v>84650</v>
       </c>
       <c r="E114" t="n">
-        <v>81350</v>
+        <v>84350</v>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>12.2195</v>
       </c>
       <c r="G114" t="n">
-        <v>81270</v>
+        <v>104.30962562</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4524,22 +4560,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>81150</v>
+        <v>84400</v>
       </c>
       <c r="C115" t="n">
-        <v>81150</v>
+        <v>85600</v>
       </c>
       <c r="D115" t="n">
-        <v>81150</v>
+        <v>85600</v>
       </c>
       <c r="E115" t="n">
-        <v>81150</v>
+        <v>84350</v>
       </c>
       <c r="F115" t="n">
-        <v>1.74</v>
+        <v>147.61115847</v>
       </c>
       <c r="G115" t="n">
-        <v>81190</v>
+        <v>251.92078409</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4560,28 +4596,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>81350</v>
+        <v>85350</v>
       </c>
       <c r="C116" t="n">
-        <v>81350</v>
+        <v>84650</v>
       </c>
       <c r="D116" t="n">
-        <v>81350</v>
+        <v>85350</v>
       </c>
       <c r="E116" t="n">
-        <v>81350</v>
+        <v>84650</v>
       </c>
       <c r="F116" t="n">
-        <v>7</v>
+        <v>7.2742</v>
       </c>
       <c r="G116" t="n">
-        <v>81270</v>
+        <v>244.64658409</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4596,28 +4632,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>81450</v>
+        <v>84650</v>
       </c>
       <c r="C117" t="n">
-        <v>81450</v>
+        <v>84000</v>
       </c>
       <c r="D117" t="n">
-        <v>81450</v>
+        <v>84650</v>
       </c>
       <c r="E117" t="n">
-        <v>81450</v>
+        <v>84000</v>
       </c>
       <c r="F117" t="n">
-        <v>3</v>
+        <v>77.7389</v>
       </c>
       <c r="G117" t="n">
-        <v>81280</v>
+        <v>166.90768409</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4632,28 +4668,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>81550</v>
+        <v>84000</v>
       </c>
       <c r="C118" t="n">
-        <v>81550</v>
+        <v>83800</v>
       </c>
       <c r="D118" t="n">
-        <v>81550</v>
+        <v>84000</v>
       </c>
       <c r="E118" t="n">
-        <v>81550</v>
+        <v>83800</v>
       </c>
       <c r="F118" t="n">
-        <v>0.39</v>
+        <v>27.2852</v>
       </c>
       <c r="G118" t="n">
-        <v>81370</v>
+        <v>139.62248409</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4668,22 +4704,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>81600</v>
+        <v>83500</v>
       </c>
       <c r="C119" t="n">
-        <v>81600</v>
+        <v>83350</v>
       </c>
       <c r="D119" t="n">
-        <v>81600</v>
+        <v>83500</v>
       </c>
       <c r="E119" t="n">
-        <v>81600</v>
+        <v>83350</v>
       </c>
       <c r="F119" t="n">
-        <v>0.2</v>
+        <v>0.8014</v>
       </c>
       <c r="G119" t="n">
-        <v>81420</v>
+        <v>138.82108409</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4704,22 +4740,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>81850</v>
+        <v>83600</v>
       </c>
       <c r="C120" t="n">
-        <v>81850</v>
+        <v>83600</v>
       </c>
       <c r="D120" t="n">
-        <v>81850</v>
+        <v>83600</v>
       </c>
       <c r="E120" t="n">
-        <v>81850</v>
+        <v>83600</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9874000000000001</v>
+        <v>8</v>
       </c>
       <c r="G120" t="n">
-        <v>81560</v>
+        <v>146.82108409</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4740,22 +4776,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>81750</v>
+        <v>84100</v>
       </c>
       <c r="C121" t="n">
-        <v>81700</v>
+        <v>84250</v>
       </c>
       <c r="D121" t="n">
-        <v>81750</v>
+        <v>84250</v>
       </c>
       <c r="E121" t="n">
-        <v>81700</v>
+        <v>84100</v>
       </c>
       <c r="F121" t="n">
-        <v>1.5791</v>
+        <v>2.8391</v>
       </c>
       <c r="G121" t="n">
-        <v>81630</v>
+        <v>149.66018409</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4776,22 +4812,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>82050</v>
+        <v>84200</v>
       </c>
       <c r="C122" t="n">
-        <v>82050</v>
+        <v>84000</v>
       </c>
       <c r="D122" t="n">
-        <v>82050</v>
+        <v>84200</v>
       </c>
       <c r="E122" t="n">
-        <v>82050</v>
+        <v>84000</v>
       </c>
       <c r="F122" t="n">
-        <v>0.01218769</v>
+        <v>0.8101</v>
       </c>
       <c r="G122" t="n">
-        <v>81750</v>
+        <v>148.85008409</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4812,22 +4848,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>82300</v>
+        <v>83800</v>
       </c>
       <c r="C123" t="n">
-        <v>82300</v>
+        <v>83800</v>
       </c>
       <c r="D123" t="n">
-        <v>82300</v>
+        <v>83800</v>
       </c>
       <c r="E123" t="n">
-        <v>82300</v>
+        <v>83800</v>
       </c>
       <c r="F123" t="n">
-        <v>18.0179</v>
+        <v>0.5</v>
       </c>
       <c r="G123" t="n">
-        <v>81900</v>
+        <v>148.35008409</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4848,22 +4884,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>82400</v>
+        <v>83750</v>
       </c>
       <c r="C124" t="n">
-        <v>82400</v>
+        <v>84200</v>
       </c>
       <c r="D124" t="n">
-        <v>82400</v>
+        <v>84200</v>
       </c>
       <c r="E124" t="n">
-        <v>82400</v>
+        <v>83750</v>
       </c>
       <c r="F124" t="n">
-        <v>0.216</v>
+        <v>1.1306</v>
       </c>
       <c r="G124" t="n">
-        <v>82060</v>
+        <v>149.48068409</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4884,22 +4920,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>82700</v>
+        <v>84150</v>
       </c>
       <c r="C125" t="n">
-        <v>82700</v>
+        <v>84050</v>
       </c>
       <c r="D125" t="n">
-        <v>82700</v>
+        <v>84150</v>
       </c>
       <c r="E125" t="n">
-        <v>82700</v>
+        <v>84050</v>
       </c>
       <c r="F125" t="n">
-        <v>0.2943</v>
+        <v>17.3037</v>
       </c>
       <c r="G125" t="n">
-        <v>82230</v>
+        <v>132.17698409</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4920,22 +4956,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>82800</v>
+        <v>84150</v>
       </c>
       <c r="C126" t="n">
-        <v>82800</v>
+        <v>84150</v>
       </c>
       <c r="D126" t="n">
-        <v>82800</v>
+        <v>84150</v>
       </c>
       <c r="E126" t="n">
-        <v>82800</v>
+        <v>84150</v>
       </c>
       <c r="F126" t="n">
-        <v>4</v>
+        <v>1.8923</v>
       </c>
       <c r="G126" t="n">
-        <v>82450</v>
+        <v>134.06928409</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4956,22 +4992,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>82600</v>
+        <v>84800</v>
       </c>
       <c r="C127" t="n">
-        <v>82600</v>
+        <v>84800</v>
       </c>
       <c r="D127" t="n">
-        <v>82600</v>
+        <v>84800</v>
       </c>
       <c r="E127" t="n">
-        <v>82600</v>
+        <v>84800</v>
       </c>
       <c r="F127" t="n">
-        <v>4.84</v>
+        <v>0.2</v>
       </c>
       <c r="G127" t="n">
-        <v>82560</v>
+        <v>134.26928409</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4992,22 +5028,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>82850</v>
+        <v>85100</v>
       </c>
       <c r="C128" t="n">
-        <v>83050</v>
+        <v>84850</v>
       </c>
       <c r="D128" t="n">
-        <v>83050</v>
+        <v>85100</v>
       </c>
       <c r="E128" t="n">
-        <v>82850</v>
+        <v>84850</v>
       </c>
       <c r="F128" t="n">
-        <v>11.7994</v>
+        <v>2.9503</v>
       </c>
       <c r="G128" t="n">
-        <v>82710</v>
+        <v>137.21958409</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5028,22 +5064,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>83100</v>
+        <v>84650</v>
       </c>
       <c r="C129" t="n">
-        <v>83150</v>
+        <v>84650</v>
       </c>
       <c r="D129" t="n">
-        <v>83150</v>
+        <v>84650</v>
       </c>
       <c r="E129" t="n">
-        <v>83100</v>
+        <v>84650</v>
       </c>
       <c r="F129" t="n">
-        <v>3.672</v>
+        <v>0.1249</v>
       </c>
       <c r="G129" t="n">
-        <v>82860</v>
+        <v>137.09468409</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5064,22 +5100,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>82900</v>
+        <v>84150</v>
       </c>
       <c r="C130" t="n">
-        <v>82900</v>
+        <v>84000</v>
       </c>
       <c r="D130" t="n">
-        <v>82900</v>
+        <v>84150</v>
       </c>
       <c r="E130" t="n">
-        <v>82900</v>
+        <v>84000</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6984</v>
+        <v>1.0017</v>
       </c>
       <c r="G130" t="n">
-        <v>82900</v>
+        <v>136.09298409</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5100,22 +5136,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>82700</v>
+        <v>83800</v>
       </c>
       <c r="C131" t="n">
-        <v>82350</v>
+        <v>83800</v>
       </c>
       <c r="D131" t="n">
-        <v>82700</v>
+        <v>83800</v>
       </c>
       <c r="E131" t="n">
-        <v>82350</v>
+        <v>83800</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7265</v>
+        <v>0.1249</v>
       </c>
       <c r="G131" t="n">
-        <v>82810</v>
+        <v>135.96808409</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5136,22 +5172,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>82750</v>
+        <v>83950</v>
       </c>
       <c r="C132" t="n">
-        <v>82700</v>
+        <v>83950</v>
       </c>
       <c r="D132" t="n">
-        <v>82750</v>
+        <v>83950</v>
       </c>
       <c r="E132" t="n">
-        <v>82700</v>
+        <v>83950</v>
       </c>
       <c r="F132" t="n">
-        <v>2.007</v>
+        <v>0.1621</v>
       </c>
       <c r="G132" t="n">
-        <v>82830</v>
+        <v>136.13018409</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5172,22 +5208,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>82500</v>
+        <v>83400</v>
       </c>
       <c r="C133" t="n">
-        <v>82750</v>
+        <v>83200</v>
       </c>
       <c r="D133" t="n">
-        <v>82750</v>
+        <v>83400</v>
       </c>
       <c r="E133" t="n">
-        <v>82000</v>
+        <v>83200</v>
       </c>
       <c r="F133" t="n">
-        <v>137.5942</v>
+        <v>19.0679</v>
       </c>
       <c r="G133" t="n">
-        <v>82770</v>
+        <v>117.06228409</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5208,22 +5244,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>82600</v>
+        <v>82650</v>
       </c>
       <c r="C134" t="n">
-        <v>82550</v>
+        <v>83150</v>
       </c>
       <c r="D134" t="n">
-        <v>82600</v>
+        <v>83300</v>
       </c>
       <c r="E134" t="n">
-        <v>82550</v>
+        <v>82650</v>
       </c>
       <c r="F134" t="n">
-        <v>3.6298</v>
+        <v>87.6242</v>
       </c>
       <c r="G134" t="n">
-        <v>82650</v>
+        <v>29.43808409000002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5244,22 +5280,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>82650</v>
+        <v>83350</v>
       </c>
       <c r="C135" t="n">
-        <v>82650</v>
+        <v>83350</v>
       </c>
       <c r="D135" t="n">
-        <v>82650</v>
+        <v>83350</v>
       </c>
       <c r="E135" t="n">
-        <v>82650</v>
+        <v>83350</v>
       </c>
       <c r="F135" t="n">
-        <v>0.4129</v>
+        <v>2.1789</v>
       </c>
       <c r="G135" t="n">
-        <v>82600</v>
+        <v>31.61698409000002</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5280,22 +5316,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>82600</v>
+        <v>83400</v>
       </c>
       <c r="C136" t="n">
-        <v>82600</v>
+        <v>83400</v>
       </c>
       <c r="D136" t="n">
-        <v>82600</v>
+        <v>83400</v>
       </c>
       <c r="E136" t="n">
-        <v>82600</v>
+        <v>83400</v>
       </c>
       <c r="F136" t="n">
-        <v>18.0179</v>
+        <v>0.1322</v>
       </c>
       <c r="G136" t="n">
-        <v>82650</v>
+        <v>31.74918409000002</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5316,22 +5352,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>82550</v>
+        <v>83500</v>
       </c>
       <c r="C137" t="n">
-        <v>82600</v>
+        <v>83700</v>
       </c>
       <c r="D137" t="n">
-        <v>82600</v>
+        <v>83700</v>
       </c>
       <c r="E137" t="n">
-        <v>82550</v>
+        <v>83500</v>
       </c>
       <c r="F137" t="n">
-        <v>2</v>
+        <v>41.1</v>
       </c>
       <c r="G137" t="n">
-        <v>82630</v>
+        <v>72.84918409000002</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5352,22 +5388,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>82600</v>
+        <v>84000</v>
       </c>
       <c r="C138" t="n">
-        <v>82550</v>
+        <v>84050</v>
       </c>
       <c r="D138" t="n">
-        <v>82600</v>
+        <v>84050</v>
       </c>
       <c r="E138" t="n">
-        <v>82550</v>
+        <v>84000</v>
       </c>
       <c r="F138" t="n">
-        <v>18.9106</v>
+        <v>16.9</v>
       </c>
       <c r="G138" t="n">
-        <v>82590</v>
+        <v>89.74918409000003</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5388,22 +5424,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>82550</v>
+        <v>83950</v>
       </c>
       <c r="C139" t="n">
-        <v>82550</v>
+        <v>83950</v>
       </c>
       <c r="D139" t="n">
-        <v>82550</v>
+        <v>83950</v>
       </c>
       <c r="E139" t="n">
-        <v>82550</v>
+        <v>83950</v>
       </c>
       <c r="F139" t="n">
-        <v>5.2494</v>
+        <v>0.1302</v>
       </c>
       <c r="G139" t="n">
-        <v>82590</v>
+        <v>89.61898409000003</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5424,22 +5460,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>82450</v>
+        <v>84200</v>
       </c>
       <c r="C140" t="n">
-        <v>82400</v>
+        <v>84250</v>
       </c>
       <c r="D140" t="n">
-        <v>82450</v>
+        <v>84250</v>
       </c>
       <c r="E140" t="n">
-        <v>82400</v>
+        <v>84200</v>
       </c>
       <c r="F140" t="n">
-        <v>7.4469</v>
+        <v>19.6911</v>
       </c>
       <c r="G140" t="n">
-        <v>82540</v>
+        <v>109.31008409</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5460,22 +5496,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>82400</v>
+        <v>84050</v>
       </c>
       <c r="C141" t="n">
-        <v>82400</v>
+        <v>84050</v>
       </c>
       <c r="D141" t="n">
-        <v>82400</v>
+        <v>84050</v>
       </c>
       <c r="E141" t="n">
-        <v>82400</v>
+        <v>84050</v>
       </c>
       <c r="F141" t="n">
-        <v>3.4901</v>
+        <v>0.1505</v>
       </c>
       <c r="G141" t="n">
-        <v>82500</v>
+        <v>109.15958409</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5496,22 +5532,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>82050</v>
+        <v>84050</v>
       </c>
       <c r="C142" t="n">
-        <v>82000</v>
+        <v>84050</v>
       </c>
       <c r="D142" t="n">
-        <v>82050</v>
+        <v>84050</v>
       </c>
       <c r="E142" t="n">
-        <v>82000</v>
+        <v>84050</v>
       </c>
       <c r="F142" t="n">
-        <v>24</v>
+        <v>34.3005</v>
       </c>
       <c r="G142" t="n">
-        <v>82380</v>
+        <v>109.15958409</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5532,22 +5568,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>82250</v>
+        <v>83700</v>
       </c>
       <c r="C143" t="n">
-        <v>82250</v>
+        <v>83350</v>
       </c>
       <c r="D143" t="n">
-        <v>82250</v>
+        <v>83700</v>
       </c>
       <c r="E143" t="n">
-        <v>82250</v>
+        <v>83350</v>
       </c>
       <c r="F143" t="n">
-        <v>3.6028</v>
+        <v>0.5</v>
       </c>
       <c r="G143" t="n">
-        <v>82320</v>
+        <v>108.65958409</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5568,22 +5604,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>82300</v>
+        <v>83650</v>
       </c>
       <c r="C144" t="n">
-        <v>82300</v>
+        <v>83650</v>
       </c>
       <c r="D144" t="n">
-        <v>82300</v>
+        <v>83650</v>
       </c>
       <c r="E144" t="n">
-        <v>82300</v>
+        <v>83650</v>
       </c>
       <c r="F144" t="n">
-        <v>15.5</v>
+        <v>0.119</v>
       </c>
       <c r="G144" t="n">
-        <v>82270</v>
+        <v>108.77858409</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5604,22 +5640,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>82400</v>
+        <v>83500</v>
       </c>
       <c r="C145" t="n">
-        <v>82550</v>
+        <v>83400</v>
       </c>
       <c r="D145" t="n">
-        <v>82550</v>
+        <v>83500</v>
       </c>
       <c r="E145" t="n">
-        <v>82400</v>
+        <v>83400</v>
       </c>
       <c r="F145" t="n">
-        <v>37.7</v>
+        <v>71.32680000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>82300</v>
+        <v>37.45178409000003</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5640,22 +5676,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>82250</v>
+        <v>83550</v>
       </c>
       <c r="C146" t="n">
-        <v>82300</v>
+        <v>83650</v>
       </c>
       <c r="D146" t="n">
-        <v>82300</v>
+        <v>83650</v>
       </c>
       <c r="E146" t="n">
-        <v>82250</v>
+        <v>83550</v>
       </c>
       <c r="F146" t="n">
-        <v>20.7</v>
+        <v>1.17569073</v>
       </c>
       <c r="G146" t="n">
-        <v>82280</v>
+        <v>38.62747482000003</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5676,22 +5712,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>82400</v>
+        <v>83300</v>
       </c>
       <c r="C147" t="n">
-        <v>82350</v>
+        <v>83200</v>
       </c>
       <c r="D147" t="n">
-        <v>82400</v>
+        <v>83300</v>
       </c>
       <c r="E147" t="n">
-        <v>82350</v>
+        <v>83200</v>
       </c>
       <c r="F147" t="n">
-        <v>2.115</v>
+        <v>0.3212</v>
       </c>
       <c r="G147" t="n">
-        <v>82350</v>
+        <v>38.30627482000003</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5712,22 +5748,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>82550</v>
+        <v>82950</v>
       </c>
       <c r="C148" t="n">
-        <v>82550</v>
+        <v>82950</v>
       </c>
       <c r="D148" t="n">
-        <v>82550</v>
+        <v>82950</v>
       </c>
       <c r="E148" t="n">
-        <v>82550</v>
+        <v>82950</v>
       </c>
       <c r="F148" t="n">
-        <v>0.1129</v>
+        <v>2.5358</v>
       </c>
       <c r="G148" t="n">
-        <v>82410</v>
+        <v>35.77047482000003</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5748,22 +5784,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>82800</v>
+        <v>82900</v>
       </c>
       <c r="C149" t="n">
-        <v>82800</v>
+        <v>82650</v>
       </c>
       <c r="D149" t="n">
-        <v>82800</v>
+        <v>82900</v>
       </c>
       <c r="E149" t="n">
-        <v>82800</v>
+        <v>82350</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1247</v>
+        <v>2.24</v>
       </c>
       <c r="G149" t="n">
-        <v>82510</v>
+        <v>33.53047482000003</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5784,22 +5820,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>82850</v>
+        <v>82900</v>
       </c>
       <c r="C150" t="n">
-        <v>82850</v>
+        <v>82900</v>
       </c>
       <c r="D150" t="n">
-        <v>82850</v>
+        <v>82900</v>
       </c>
       <c r="E150" t="n">
-        <v>82850</v>
+        <v>82900</v>
       </c>
       <c r="F150" t="n">
-        <v>0.5135</v>
+        <v>0.129</v>
       </c>
       <c r="G150" t="n">
-        <v>82570</v>
+        <v>33.65947482000003</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5820,22 +5856,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>82850</v>
+        <v>82800</v>
       </c>
       <c r="C151" t="n">
-        <v>82850</v>
+        <v>82800</v>
       </c>
       <c r="D151" t="n">
-        <v>82850</v>
+        <v>82800</v>
       </c>
       <c r="E151" t="n">
-        <v>82850</v>
+        <v>82800</v>
       </c>
       <c r="F151" t="n">
-        <v>2.4663</v>
+        <v>0.3027</v>
       </c>
       <c r="G151" t="n">
-        <v>82680</v>
+        <v>33.35677482000003</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5856,22 +5892,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>83200</v>
+        <v>82900</v>
       </c>
       <c r="C152" t="n">
-        <v>83200</v>
+        <v>82900</v>
       </c>
       <c r="D152" t="n">
-        <v>83200</v>
+        <v>82900</v>
       </c>
       <c r="E152" t="n">
-        <v>83200</v>
+        <v>82900</v>
       </c>
       <c r="F152" t="n">
-        <v>1.233</v>
+        <v>6.0595</v>
       </c>
       <c r="G152" t="n">
-        <v>82850</v>
+        <v>39.41627482000003</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5892,22 +5928,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>83200</v>
+        <v>82600</v>
       </c>
       <c r="C153" t="n">
-        <v>83200</v>
+        <v>82600</v>
       </c>
       <c r="D153" t="n">
-        <v>83200</v>
+        <v>82600</v>
       </c>
       <c r="E153" t="n">
-        <v>83200</v>
+        <v>82600</v>
       </c>
       <c r="F153" t="n">
-        <v>2.682</v>
+        <v>3.647</v>
       </c>
       <c r="G153" t="n">
-        <v>82980</v>
+        <v>35.76927482000003</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5928,22 +5964,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>83100</v>
+        <v>82500</v>
       </c>
       <c r="C154" t="n">
-        <v>83100</v>
+        <v>82500</v>
       </c>
       <c r="D154" t="n">
-        <v>83100</v>
+        <v>82500</v>
       </c>
       <c r="E154" t="n">
-        <v>83100</v>
+        <v>82500</v>
       </c>
       <c r="F154" t="n">
-        <v>3.725</v>
+        <v>7.3365</v>
       </c>
       <c r="G154" t="n">
-        <v>83040</v>
+        <v>28.43277482000003</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5964,22 +6000,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>83100</v>
+        <v>82450</v>
       </c>
       <c r="C155" t="n">
-        <v>83100</v>
+        <v>82150</v>
       </c>
       <c r="D155" t="n">
-        <v>83100</v>
+        <v>82450</v>
       </c>
       <c r="E155" t="n">
-        <v>83100</v>
+        <v>82150</v>
       </c>
       <c r="F155" t="n">
-        <v>2.3625</v>
+        <v>10.5558</v>
       </c>
       <c r="G155" t="n">
-        <v>83090</v>
+        <v>17.87697482000003</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6000,22 +6036,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>83200</v>
+        <v>82150</v>
       </c>
       <c r="C156" t="n">
-        <v>83200</v>
+        <v>82100</v>
       </c>
       <c r="D156" t="n">
-        <v>83200</v>
+        <v>82150</v>
       </c>
       <c r="E156" t="n">
-        <v>83150</v>
+        <v>82100</v>
       </c>
       <c r="F156" t="n">
-        <v>23.6179</v>
+        <v>0.4864</v>
       </c>
       <c r="G156" t="n">
-        <v>83160</v>
+        <v>17.39057482000003</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6036,22 +6072,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>83150</v>
+        <v>82100</v>
       </c>
       <c r="C157" t="n">
-        <v>83150</v>
+        <v>81700</v>
       </c>
       <c r="D157" t="n">
-        <v>83150</v>
+        <v>82100</v>
       </c>
       <c r="E157" t="n">
-        <v>83150</v>
+        <v>81700</v>
       </c>
       <c r="F157" t="n">
-        <v>4</v>
+        <v>9.120900000000001</v>
       </c>
       <c r="G157" t="n">
-        <v>83150</v>
+        <v>8.269674820000029</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6072,22 +6108,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>83100</v>
+        <v>82150</v>
       </c>
       <c r="C158" t="n">
-        <v>83000</v>
+        <v>82150</v>
       </c>
       <c r="D158" t="n">
-        <v>83200</v>
+        <v>82150</v>
       </c>
       <c r="E158" t="n">
-        <v>82950</v>
+        <v>82150</v>
       </c>
       <c r="F158" t="n">
-        <v>43.9766</v>
+        <v>4.29</v>
       </c>
       <c r="G158" t="n">
-        <v>83110</v>
+        <v>12.55967482000003</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6108,22 +6144,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>83200</v>
+        <v>81900</v>
       </c>
       <c r="C159" t="n">
-        <v>83250</v>
+        <v>81900</v>
       </c>
       <c r="D159" t="n">
-        <v>83250</v>
+        <v>81900</v>
       </c>
       <c r="E159" t="n">
-        <v>83200</v>
+        <v>81900</v>
       </c>
       <c r="F159" t="n">
-        <v>4.0215</v>
+        <v>0.11</v>
       </c>
       <c r="G159" t="n">
-        <v>83140</v>
+        <v>12.44967482000003</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6144,22 +6180,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>83050</v>
+        <v>81850</v>
       </c>
       <c r="C160" t="n">
-        <v>83050</v>
+        <v>81850</v>
       </c>
       <c r="D160" t="n">
-        <v>83050</v>
+        <v>81850</v>
       </c>
       <c r="E160" t="n">
-        <v>83050</v>
+        <v>81850</v>
       </c>
       <c r="F160" t="n">
-        <v>4.8</v>
+        <v>1.24</v>
       </c>
       <c r="G160" t="n">
-        <v>83130</v>
+        <v>11.20967482000003</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6180,22 +6216,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>82950</v>
+        <v>81600</v>
       </c>
       <c r="C161" t="n">
-        <v>82650</v>
+        <v>81600</v>
       </c>
       <c r="D161" t="n">
-        <v>82950</v>
+        <v>81600</v>
       </c>
       <c r="E161" t="n">
-        <v>82650</v>
+        <v>81600</v>
       </c>
       <c r="F161" t="n">
-        <v>50.336</v>
+        <v>1.923</v>
       </c>
       <c r="G161" t="n">
-        <v>83020</v>
+        <v>9.28667482000003</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6216,22 +6252,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>82950</v>
+        <v>81650</v>
       </c>
       <c r="C162" t="n">
-        <v>83000</v>
+        <v>81650</v>
       </c>
       <c r="D162" t="n">
-        <v>83000</v>
+        <v>81650</v>
       </c>
       <c r="E162" t="n">
-        <v>82950</v>
+        <v>81650</v>
       </c>
       <c r="F162" t="n">
-        <v>1.9968</v>
+        <v>0.478</v>
       </c>
       <c r="G162" t="n">
-        <v>82990</v>
+        <v>9.76467482000003</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6252,22 +6288,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>82700</v>
+        <v>82000</v>
       </c>
       <c r="C163" t="n">
-        <v>82650</v>
+        <v>82000</v>
       </c>
       <c r="D163" t="n">
-        <v>82700</v>
+        <v>82000</v>
       </c>
       <c r="E163" t="n">
-        <v>82650</v>
+        <v>82000</v>
       </c>
       <c r="F163" t="n">
-        <v>0.7296</v>
+        <v>2.246</v>
       </c>
       <c r="G163" t="n">
-        <v>82920</v>
+        <v>12.01067482000003</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6288,22 +6324,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>82400</v>
+        <v>81700</v>
       </c>
       <c r="C164" t="n">
-        <v>82100</v>
+        <v>81700</v>
       </c>
       <c r="D164" t="n">
-        <v>82450</v>
+        <v>81700</v>
       </c>
       <c r="E164" t="n">
-        <v>82100</v>
+        <v>81700</v>
       </c>
       <c r="F164" t="n">
-        <v>1.3813</v>
+        <v>4.8607</v>
       </c>
       <c r="G164" t="n">
-        <v>82690</v>
+        <v>7.149974820000031</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6324,22 +6360,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>82400</v>
+        <v>81550</v>
       </c>
       <c r="C165" t="n">
-        <v>82500</v>
+        <v>81550</v>
       </c>
       <c r="D165" t="n">
-        <v>82500</v>
+        <v>81550</v>
       </c>
       <c r="E165" t="n">
-        <v>82400</v>
+        <v>81550</v>
       </c>
       <c r="F165" t="n">
-        <v>14.6667</v>
+        <v>0.4748</v>
       </c>
       <c r="G165" t="n">
-        <v>82580</v>
+        <v>6.675174820000031</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6360,22 +6396,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>82500</v>
+        <v>81700</v>
       </c>
       <c r="C166" t="n">
-        <v>82500</v>
+        <v>81700</v>
       </c>
       <c r="D166" t="n">
-        <v>82500</v>
+        <v>81700</v>
       </c>
       <c r="E166" t="n">
-        <v>82500</v>
+        <v>81700</v>
       </c>
       <c r="F166" t="n">
-        <v>2</v>
+        <v>0.773</v>
       </c>
       <c r="G166" t="n">
-        <v>82550</v>
+        <v>7.44817482000003</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6396,22 +6432,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>82800</v>
+        <v>81650</v>
       </c>
       <c r="C167" t="n">
-        <v>82800</v>
+        <v>81650</v>
       </c>
       <c r="D167" t="n">
-        <v>82800</v>
+        <v>81650</v>
       </c>
       <c r="E167" t="n">
-        <v>82800</v>
+        <v>81650</v>
       </c>
       <c r="F167" t="n">
-        <v>1.2055</v>
+        <v>4.8927</v>
       </c>
       <c r="G167" t="n">
-        <v>82510</v>
+        <v>2.555474820000031</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6432,22 +6468,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>82500</v>
+        <v>81400</v>
       </c>
       <c r="C168" t="n">
-        <v>82400</v>
+        <v>81250</v>
       </c>
       <c r="D168" t="n">
-        <v>82500</v>
+        <v>81400</v>
       </c>
       <c r="E168" t="n">
-        <v>82400</v>
+        <v>81250</v>
       </c>
       <c r="F168" t="n">
-        <v>0.2943</v>
+        <v>2.13</v>
       </c>
       <c r="G168" t="n">
-        <v>82460</v>
+        <v>0.4254748200000309</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6468,22 +6504,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>81950</v>
+        <v>81100</v>
       </c>
       <c r="C169" t="n">
-        <v>81950</v>
+        <v>81100</v>
       </c>
       <c r="D169" t="n">
-        <v>81950</v>
+        <v>81100</v>
       </c>
       <c r="E169" t="n">
-        <v>81950</v>
+        <v>81100</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0984</v>
+        <v>0.21</v>
       </c>
       <c r="G169" t="n">
-        <v>82430</v>
+        <v>0.2154748200000309</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6504,22 +6540,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>82100</v>
+        <v>81050</v>
       </c>
       <c r="C170" t="n">
-        <v>82000</v>
+        <v>81100</v>
       </c>
       <c r="D170" t="n">
-        <v>82100</v>
+        <v>81100</v>
       </c>
       <c r="E170" t="n">
-        <v>82000</v>
+        <v>81050</v>
       </c>
       <c r="F170" t="n">
-        <v>1.1727</v>
+        <v>2.5262</v>
       </c>
       <c r="G170" t="n">
-        <v>82330</v>
+        <v>0.2154748200000309</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6540,22 +6576,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>82150</v>
+        <v>81050</v>
       </c>
       <c r="C171" t="n">
-        <v>82150</v>
+        <v>81050</v>
       </c>
       <c r="D171" t="n">
-        <v>82150</v>
+        <v>81050</v>
       </c>
       <c r="E171" t="n">
-        <v>82150</v>
+        <v>81050</v>
       </c>
       <c r="F171" t="n">
-        <v>64.15689999999999</v>
+        <v>0.6346000000000001</v>
       </c>
       <c r="G171" t="n">
-        <v>82260</v>
+        <v>-0.4191251799999691</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6576,22 +6612,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>82150</v>
+        <v>81050</v>
       </c>
       <c r="C172" t="n">
-        <v>82150</v>
+        <v>81050</v>
       </c>
       <c r="D172" t="n">
-        <v>82150</v>
+        <v>81050</v>
       </c>
       <c r="E172" t="n">
-        <v>82150</v>
+        <v>81050</v>
       </c>
       <c r="F172" t="n">
-        <v>72.90000000000001</v>
+        <v>1.6054</v>
       </c>
       <c r="G172" t="n">
-        <v>82130</v>
+        <v>-0.4191251799999691</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6612,22 +6648,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>82000</v>
+        <v>80900</v>
       </c>
       <c r="C173" t="n">
-        <v>82100</v>
+        <v>80700</v>
       </c>
       <c r="D173" t="n">
-        <v>82150</v>
+        <v>80900</v>
       </c>
       <c r="E173" t="n">
-        <v>81900</v>
+        <v>80700</v>
       </c>
       <c r="F173" t="n">
-        <v>55.6408</v>
+        <v>17.4052</v>
       </c>
       <c r="G173" t="n">
-        <v>82070</v>
+        <v>-17.82432517999997</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6648,22 +6684,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>82150</v>
+        <v>80700</v>
       </c>
       <c r="C174" t="n">
-        <v>82150</v>
+        <v>80700</v>
       </c>
       <c r="D174" t="n">
-        <v>82150</v>
+        <v>80700</v>
       </c>
       <c r="E174" t="n">
-        <v>81950</v>
+        <v>80700</v>
       </c>
       <c r="F174" t="n">
-        <v>27.9523</v>
+        <v>4.9</v>
       </c>
       <c r="G174" t="n">
-        <v>82110</v>
+        <v>-17.82432517999997</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6684,22 +6720,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>82000</v>
+        <v>80650</v>
       </c>
       <c r="C175" t="n">
-        <v>81950</v>
+        <v>80550</v>
       </c>
       <c r="D175" t="n">
-        <v>82150</v>
+        <v>80650</v>
       </c>
       <c r="E175" t="n">
-        <v>81950</v>
+        <v>80550</v>
       </c>
       <c r="F175" t="n">
-        <v>19.7892</v>
+        <v>0.5</v>
       </c>
       <c r="G175" t="n">
-        <v>82100</v>
+        <v>-18.32432517999997</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6720,22 +6756,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>81950</v>
+        <v>80600</v>
       </c>
       <c r="C176" t="n">
-        <v>81950</v>
+        <v>80600</v>
       </c>
       <c r="D176" t="n">
-        <v>82150</v>
+        <v>80600</v>
       </c>
       <c r="E176" t="n">
-        <v>81950</v>
+        <v>80600</v>
       </c>
       <c r="F176" t="n">
-        <v>19.629</v>
+        <v>2.96</v>
       </c>
       <c r="G176" t="n">
-        <v>82060</v>
+        <v>-15.36432517999997</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6756,22 +6792,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>81900</v>
+        <v>80600</v>
       </c>
       <c r="C177" t="n">
-        <v>81900</v>
+        <v>80700</v>
       </c>
       <c r="D177" t="n">
-        <v>81900</v>
+        <v>80700</v>
       </c>
       <c r="E177" t="n">
-        <v>81900</v>
+        <v>80600</v>
       </c>
       <c r="F177" t="n">
-        <v>3.4999</v>
+        <v>1.5418</v>
       </c>
       <c r="G177" t="n">
-        <v>82010</v>
+        <v>-13.82252517999997</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6792,22 +6828,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>81700</v>
+        <v>80700</v>
       </c>
       <c r="C178" t="n">
-        <v>81700</v>
+        <v>80700</v>
       </c>
       <c r="D178" t="n">
-        <v>81700</v>
+        <v>80700</v>
       </c>
       <c r="E178" t="n">
-        <v>81700</v>
+        <v>80700</v>
       </c>
       <c r="F178" t="n">
-        <v>16</v>
+        <v>14.3668</v>
       </c>
       <c r="G178" t="n">
-        <v>81930</v>
+        <v>-13.82252517999997</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6828,22 +6864,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>81600</v>
+        <v>80800</v>
       </c>
       <c r="C179" t="n">
-        <v>81600</v>
+        <v>80850</v>
       </c>
       <c r="D179" t="n">
-        <v>81600</v>
+        <v>80850</v>
       </c>
       <c r="E179" t="n">
-        <v>81600</v>
+        <v>80800</v>
       </c>
       <c r="F179" t="n">
-        <v>0.216</v>
+        <v>2.554</v>
       </c>
       <c r="G179" t="n">
-        <v>81820</v>
+        <v>-11.26852517999997</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6876,10 +6912,10 @@
         <v>81350</v>
       </c>
       <c r="F180" t="n">
-        <v>2.7195</v>
+        <v>0.01229256</v>
       </c>
       <c r="G180" t="n">
-        <v>81700</v>
+        <v>-11.25623261999997</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6900,22 +6936,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>81150</v>
+        <v>81550</v>
       </c>
       <c r="C181" t="n">
-        <v>81150</v>
+        <v>81550</v>
       </c>
       <c r="D181" t="n">
-        <v>81150</v>
+        <v>81550</v>
       </c>
       <c r="E181" t="n">
-        <v>81150</v>
+        <v>81550</v>
       </c>
       <c r="F181" t="n">
-        <v>0.26</v>
+        <v>3.1919</v>
       </c>
       <c r="G181" t="n">
-        <v>81540</v>
+        <v>-8.064332619999968</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6936,22 +6972,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>81200</v>
+        <v>80950</v>
       </c>
       <c r="C182" t="n">
-        <v>81250</v>
+        <v>80950</v>
       </c>
       <c r="D182" t="n">
-        <v>81250</v>
+        <v>80950</v>
       </c>
       <c r="E182" t="n">
-        <v>81200</v>
+        <v>80950</v>
       </c>
       <c r="F182" t="n">
-        <v>13.928</v>
+        <v>0.1093</v>
       </c>
       <c r="G182" t="n">
-        <v>81410</v>
+        <v>-8.173632619999967</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6972,22 +7008,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>81100</v>
+        <v>81300</v>
       </c>
       <c r="C183" t="n">
-        <v>81100</v>
+        <v>81400</v>
       </c>
       <c r="D183" t="n">
-        <v>81100</v>
+        <v>81400</v>
       </c>
       <c r="E183" t="n">
-        <v>81100</v>
+        <v>81300</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0174</v>
+        <v>1.2285</v>
       </c>
       <c r="G183" t="n">
-        <v>81290</v>
+        <v>-6.945132619999967</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7008,22 +7044,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>81200</v>
+        <v>81150</v>
       </c>
       <c r="C184" t="n">
-        <v>81200</v>
+        <v>81100</v>
       </c>
       <c r="D184" t="n">
-        <v>81200</v>
+        <v>81150</v>
       </c>
       <c r="E184" t="n">
-        <v>81200</v>
+        <v>81100</v>
       </c>
       <c r="F184" t="n">
-        <v>8.4673</v>
+        <v>1.985</v>
       </c>
       <c r="G184" t="n">
-        <v>81210</v>
+        <v>-8.930132619999966</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7044,22 +7080,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>81300</v>
+        <v>81350</v>
       </c>
       <c r="C185" t="n">
-        <v>81300</v>
+        <v>81350</v>
       </c>
       <c r="D185" t="n">
-        <v>81300</v>
+        <v>81350</v>
       </c>
       <c r="E185" t="n">
-        <v>81300</v>
+        <v>81350</v>
       </c>
       <c r="F185" t="n">
-        <v>19.6127</v>
+        <v>3</v>
       </c>
       <c r="G185" t="n">
-        <v>81200</v>
+        <v>-5.930132619999966</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7080,22 +7116,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>81300</v>
+        <v>81150</v>
       </c>
       <c r="C186" t="n">
-        <v>81300</v>
+        <v>81150</v>
       </c>
       <c r="D186" t="n">
-        <v>81300</v>
+        <v>81150</v>
       </c>
       <c r="E186" t="n">
-        <v>81300</v>
+        <v>81150</v>
       </c>
       <c r="F186" t="n">
-        <v>4.8072</v>
+        <v>1.74</v>
       </c>
       <c r="G186" t="n">
-        <v>81230</v>
+        <v>-7.670132619999967</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7116,22 +7152,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>81150</v>
+        <v>81350</v>
       </c>
       <c r="C187" t="n">
-        <v>81100</v>
+        <v>81350</v>
       </c>
       <c r="D187" t="n">
-        <v>81150</v>
+        <v>81350</v>
       </c>
       <c r="E187" t="n">
-        <v>81100</v>
+        <v>81350</v>
       </c>
       <c r="F187" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G187" t="n">
-        <v>81200</v>
+        <v>-0.6701326199999666</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7152,22 +7188,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>81350</v>
+        <v>81450</v>
       </c>
       <c r="C188" t="n">
-        <v>81350</v>
+        <v>81450</v>
       </c>
       <c r="D188" t="n">
-        <v>81350</v>
+        <v>81450</v>
       </c>
       <c r="E188" t="n">
-        <v>81350</v>
+        <v>81450</v>
       </c>
       <c r="F188" t="n">
-        <v>0.3824</v>
+        <v>3</v>
       </c>
       <c r="G188" t="n">
-        <v>81250</v>
+        <v>2.329867380000033</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7188,22 +7224,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>81200</v>
+        <v>81550</v>
       </c>
       <c r="C189" t="n">
-        <v>81200</v>
+        <v>81550</v>
       </c>
       <c r="D189" t="n">
-        <v>81200</v>
+        <v>81550</v>
       </c>
       <c r="E189" t="n">
-        <v>81200</v>
+        <v>81550</v>
       </c>
       <c r="F189" t="n">
-        <v>0.5692</v>
+        <v>0.39</v>
       </c>
       <c r="G189" t="n">
-        <v>81250</v>
+        <v>2.719867380000033</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7224,22 +7260,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>81300</v>
+        <v>81600</v>
       </c>
       <c r="C190" t="n">
-        <v>81300</v>
+        <v>81600</v>
       </c>
       <c r="D190" t="n">
-        <v>81300</v>
+        <v>81600</v>
       </c>
       <c r="E190" t="n">
-        <v>81300</v>
+        <v>81600</v>
       </c>
       <c r="F190" t="n">
-        <v>8.845000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G190" t="n">
-        <v>81250</v>
+        <v>2.919867380000034</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7260,22 +7296,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>81300</v>
+        <v>81850</v>
       </c>
       <c r="C191" t="n">
-        <v>81300</v>
+        <v>81850</v>
       </c>
       <c r="D191" t="n">
-        <v>81300</v>
+        <v>81850</v>
       </c>
       <c r="E191" t="n">
-        <v>81300</v>
+        <v>81850</v>
       </c>
       <c r="F191" t="n">
-        <v>1.9139</v>
+        <v>0.9874000000000001</v>
       </c>
       <c r="G191" t="n">
-        <v>81250</v>
+        <v>3.907267380000034</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7296,22 +7332,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>81500</v>
+        <v>81750</v>
       </c>
       <c r="C192" t="n">
-        <v>81500</v>
+        <v>81700</v>
       </c>
       <c r="D192" t="n">
-        <v>81500</v>
+        <v>81750</v>
       </c>
       <c r="E192" t="n">
-        <v>81500</v>
+        <v>81700</v>
       </c>
       <c r="F192" t="n">
-        <v>1.4182</v>
+        <v>1.5791</v>
       </c>
       <c r="G192" t="n">
-        <v>81330</v>
+        <v>2.328167380000034</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7332,22 +7368,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>81550</v>
+        <v>82050</v>
       </c>
       <c r="C193" t="n">
-        <v>81550</v>
+        <v>82050</v>
       </c>
       <c r="D193" t="n">
-        <v>81550</v>
+        <v>82050</v>
       </c>
       <c r="E193" t="n">
-        <v>81550</v>
+        <v>82050</v>
       </c>
       <c r="F193" t="n">
-        <v>0.8909</v>
+        <v>0.01218769</v>
       </c>
       <c r="G193" t="n">
-        <v>81370</v>
+        <v>2.340355070000034</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7368,22 +7404,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>81250</v>
+        <v>82300</v>
       </c>
       <c r="C194" t="n">
-        <v>81250</v>
+        <v>82300</v>
       </c>
       <c r="D194" t="n">
-        <v>81250</v>
+        <v>82300</v>
       </c>
       <c r="E194" t="n">
-        <v>81250</v>
+        <v>82300</v>
       </c>
       <c r="F194" t="n">
-        <v>2</v>
+        <v>18.0179</v>
       </c>
       <c r="G194" t="n">
-        <v>81380</v>
+        <v>20.35825507000003</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7404,22 +7440,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>81200</v>
+        <v>82400</v>
       </c>
       <c r="C195" t="n">
-        <v>81200</v>
+        <v>82400</v>
       </c>
       <c r="D195" t="n">
-        <v>81200</v>
+        <v>82400</v>
       </c>
       <c r="E195" t="n">
-        <v>81200</v>
+        <v>82400</v>
       </c>
       <c r="F195" t="n">
-        <v>3</v>
+        <v>0.216</v>
       </c>
       <c r="G195" t="n">
-        <v>81360</v>
+        <v>20.57425507000004</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7440,22 +7476,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>81050</v>
+        <v>82700</v>
       </c>
       <c r="C196" t="n">
-        <v>81000</v>
+        <v>82700</v>
       </c>
       <c r="D196" t="n">
-        <v>81050</v>
+        <v>82700</v>
       </c>
       <c r="E196" t="n">
-        <v>81000</v>
+        <v>82700</v>
       </c>
       <c r="F196" t="n">
-        <v>3.55</v>
+        <v>0.2943</v>
       </c>
       <c r="G196" t="n">
-        <v>81300</v>
+        <v>20.86855507000003</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7476,22 +7512,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>80950</v>
+        <v>82800</v>
       </c>
       <c r="C197" t="n">
-        <v>80750</v>
+        <v>82800</v>
       </c>
       <c r="D197" t="n">
-        <v>80950</v>
+        <v>82800</v>
       </c>
       <c r="E197" t="n">
-        <v>80750</v>
+        <v>82800</v>
       </c>
       <c r="F197" t="n">
-        <v>10.3955</v>
+        <v>4</v>
       </c>
       <c r="G197" t="n">
-        <v>81150</v>
+        <v>24.86855507000003</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7512,22 +7548,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>80700</v>
+        <v>82600</v>
       </c>
       <c r="C198" t="n">
-        <v>80500</v>
+        <v>82600</v>
       </c>
       <c r="D198" t="n">
-        <v>80700</v>
+        <v>82600</v>
       </c>
       <c r="E198" t="n">
-        <v>80500</v>
+        <v>82600</v>
       </c>
       <c r="F198" t="n">
-        <v>13.8723</v>
+        <v>4.84</v>
       </c>
       <c r="G198" t="n">
-        <v>80940</v>
+        <v>20.02855507000003</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7548,22 +7584,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>80450</v>
+        <v>82850</v>
       </c>
       <c r="C199" t="n">
-        <v>80150</v>
+        <v>83050</v>
       </c>
       <c r="D199" t="n">
-        <v>80450</v>
+        <v>83050</v>
       </c>
       <c r="E199" t="n">
-        <v>80150</v>
+        <v>82850</v>
       </c>
       <c r="F199" t="n">
-        <v>13.2374</v>
+        <v>11.7994</v>
       </c>
       <c r="G199" t="n">
-        <v>80720</v>
+        <v>31.82795507000004</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7584,38 +7620,32 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>80100</v>
+        <v>83100</v>
       </c>
       <c r="C200" t="n">
-        <v>80200</v>
+        <v>83150</v>
       </c>
       <c r="D200" t="n">
-        <v>80200</v>
+        <v>83150</v>
       </c>
       <c r="E200" t="n">
-        <v>80100</v>
+        <v>83100</v>
       </c>
       <c r="F200" t="n">
-        <v>21.4199</v>
+        <v>3.672</v>
       </c>
       <c r="G200" t="n">
-        <v>80520</v>
+        <v>35.49995507000003</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>80150</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7626,38 +7656,32 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>80000</v>
+        <v>82900</v>
       </c>
       <c r="C201" t="n">
-        <v>79850</v>
+        <v>82900</v>
       </c>
       <c r="D201" t="n">
-        <v>80000</v>
+        <v>82900</v>
       </c>
       <c r="E201" t="n">
-        <v>79850</v>
+        <v>82900</v>
       </c>
       <c r="F201" t="n">
-        <v>20.742</v>
+        <v>0.6984</v>
       </c>
       <c r="G201" t="n">
-        <v>80290</v>
+        <v>34.80155507000003</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>80200</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7668,38 +7692,32 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>79700</v>
+        <v>82700</v>
       </c>
       <c r="C202" t="n">
-        <v>79700</v>
+        <v>82350</v>
       </c>
       <c r="D202" t="n">
-        <v>79700</v>
+        <v>82700</v>
       </c>
       <c r="E202" t="n">
-        <v>79700</v>
+        <v>82350</v>
       </c>
       <c r="F202" t="n">
-        <v>0.615</v>
+        <v>0.7265</v>
       </c>
       <c r="G202" t="n">
-        <v>80080</v>
+        <v>34.07505507000003</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>79850</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7710,38 +7728,32 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>79700</v>
+        <v>82750</v>
       </c>
       <c r="C203" t="n">
-        <v>79700</v>
+        <v>82700</v>
       </c>
       <c r="D203" t="n">
-        <v>79700</v>
+        <v>82750</v>
       </c>
       <c r="E203" t="n">
-        <v>79700</v>
+        <v>82700</v>
       </c>
       <c r="F203" t="n">
-        <v>2.385</v>
+        <v>2.007</v>
       </c>
       <c r="G203" t="n">
-        <v>79920</v>
+        <v>36.08205507000003</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>79700</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7752,38 +7764,32 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>79800</v>
+        <v>82500</v>
       </c>
       <c r="C204" t="n">
-        <v>79800</v>
+        <v>82750</v>
       </c>
       <c r="D204" t="n">
-        <v>79800</v>
+        <v>82750</v>
       </c>
       <c r="E204" t="n">
-        <v>79800</v>
+        <v>82000</v>
       </c>
       <c r="F204" t="n">
-        <v>80.0998</v>
+        <v>137.5942</v>
       </c>
       <c r="G204" t="n">
-        <v>79850</v>
+        <v>173.67625507</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>79700</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7794,38 +7800,32 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>79800</v>
+        <v>82600</v>
       </c>
       <c r="C205" t="n">
-        <v>79800</v>
+        <v>82550</v>
       </c>
       <c r="D205" t="n">
-        <v>79800</v>
+        <v>82600</v>
       </c>
       <c r="E205" t="n">
-        <v>79800</v>
+        <v>82550</v>
       </c>
       <c r="F205" t="n">
-        <v>14.9214</v>
+        <v>3.6298</v>
       </c>
       <c r="G205" t="n">
-        <v>79770</v>
+        <v>170.04645507</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>79800</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7836,38 +7836,32 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>79800</v>
+        <v>82650</v>
       </c>
       <c r="C206" t="n">
-        <v>79800</v>
+        <v>82650</v>
       </c>
       <c r="D206" t="n">
-        <v>79800</v>
+        <v>82650</v>
       </c>
       <c r="E206" t="n">
-        <v>79800</v>
+        <v>82650</v>
       </c>
       <c r="F206" t="n">
-        <v>16.3834</v>
+        <v>0.4129</v>
       </c>
       <c r="G206" t="n">
-        <v>79760</v>
+        <v>170.45935507</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>79800</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7878,38 +7872,32 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>79800</v>
+        <v>82600</v>
       </c>
       <c r="C207" t="n">
-        <v>79800</v>
+        <v>82600</v>
       </c>
       <c r="D207" t="n">
-        <v>79800</v>
+        <v>82600</v>
       </c>
       <c r="E207" t="n">
-        <v>79800</v>
+        <v>82600</v>
       </c>
       <c r="F207" t="n">
-        <v>8.726000000000001</v>
+        <v>18.0179</v>
       </c>
       <c r="G207" t="n">
-        <v>79780</v>
+        <v>152.44145507</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>79800</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7920,38 +7908,32 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>79650</v>
+        <v>82550</v>
       </c>
       <c r="C208" t="n">
-        <v>79550</v>
+        <v>82600</v>
       </c>
       <c r="D208" t="n">
-        <v>79650</v>
+        <v>82600</v>
       </c>
       <c r="E208" t="n">
-        <v>79350</v>
+        <v>82550</v>
       </c>
       <c r="F208" t="n">
-        <v>16.3</v>
+        <v>2</v>
       </c>
       <c r="G208" t="n">
-        <v>79750</v>
+        <v>152.44145507</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>79800</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7962,38 +7944,32 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>79250</v>
+        <v>82600</v>
       </c>
       <c r="C209" t="n">
-        <v>79150</v>
+        <v>82550</v>
       </c>
       <c r="D209" t="n">
-        <v>79250</v>
+        <v>82600</v>
       </c>
       <c r="E209" t="n">
-        <v>79150</v>
+        <v>82550</v>
       </c>
       <c r="F209" t="n">
-        <v>7.352</v>
+        <v>18.9106</v>
       </c>
       <c r="G209" t="n">
-        <v>79620</v>
+        <v>133.5308550700001</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>79550</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8004,38 +7980,32 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>79100</v>
+        <v>82550</v>
       </c>
       <c r="C210" t="n">
-        <v>79200</v>
+        <v>82550</v>
       </c>
       <c r="D210" t="n">
-        <v>79200</v>
+        <v>82550</v>
       </c>
       <c r="E210" t="n">
-        <v>78650</v>
+        <v>82550</v>
       </c>
       <c r="F210" t="n">
-        <v>24.5192</v>
+        <v>5.2494</v>
       </c>
       <c r="G210" t="n">
-        <v>79500</v>
+        <v>133.5308550700001</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>79150</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8046,38 +8016,32 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>79200</v>
+        <v>82450</v>
       </c>
       <c r="C211" t="n">
-        <v>79050</v>
+        <v>82400</v>
       </c>
       <c r="D211" t="n">
-        <v>79200</v>
+        <v>82450</v>
       </c>
       <c r="E211" t="n">
-        <v>79050</v>
+        <v>82400</v>
       </c>
       <c r="F211" t="n">
-        <v>0.2851</v>
+        <v>7.4469</v>
       </c>
       <c r="G211" t="n">
-        <v>79350</v>
+        <v>126.0839550700001</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>79200</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8088,42 +8052,2592 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
+        <v>82400</v>
+      </c>
+      <c r="C212" t="n">
+        <v>82400</v>
+      </c>
+      <c r="D212" t="n">
+        <v>82400</v>
+      </c>
+      <c r="E212" t="n">
+        <v>82400</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3.4901</v>
+      </c>
+      <c r="G212" t="n">
+        <v>126.0839550700001</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>82050</v>
+      </c>
+      <c r="C213" t="n">
+        <v>82000</v>
+      </c>
+      <c r="D213" t="n">
+        <v>82050</v>
+      </c>
+      <c r="E213" t="n">
+        <v>82000</v>
+      </c>
+      <c r="F213" t="n">
+        <v>24</v>
+      </c>
+      <c r="G213" t="n">
+        <v>102.0839550700001</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>82250</v>
+      </c>
+      <c r="C214" t="n">
+        <v>82250</v>
+      </c>
+      <c r="D214" t="n">
+        <v>82250</v>
+      </c>
+      <c r="E214" t="n">
+        <v>82250</v>
+      </c>
+      <c r="F214" t="n">
+        <v>3.6028</v>
+      </c>
+      <c r="G214" t="n">
+        <v>105.6867550700001</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>82300</v>
+      </c>
+      <c r="C215" t="n">
+        <v>82300</v>
+      </c>
+      <c r="D215" t="n">
+        <v>82300</v>
+      </c>
+      <c r="E215" t="n">
+        <v>82300</v>
+      </c>
+      <c r="F215" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G215" t="n">
+        <v>121.1867550700001</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>82400</v>
+      </c>
+      <c r="C216" t="n">
+        <v>82550</v>
+      </c>
+      <c r="D216" t="n">
+        <v>82550</v>
+      </c>
+      <c r="E216" t="n">
+        <v>82400</v>
+      </c>
+      <c r="F216" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="G216" t="n">
+        <v>158.88675507</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>82250</v>
+      </c>
+      <c r="C217" t="n">
+        <v>82300</v>
+      </c>
+      <c r="D217" t="n">
+        <v>82300</v>
+      </c>
+      <c r="E217" t="n">
+        <v>82250</v>
+      </c>
+      <c r="F217" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="G217" t="n">
+        <v>138.1867550700001</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>82400</v>
+      </c>
+      <c r="C218" t="n">
+        <v>82350</v>
+      </c>
+      <c r="D218" t="n">
+        <v>82400</v>
+      </c>
+      <c r="E218" t="n">
+        <v>82350</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2.115</v>
+      </c>
+      <c r="G218" t="n">
+        <v>140.3017550700001</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>82550</v>
+      </c>
+      <c r="C219" t="n">
+        <v>82550</v>
+      </c>
+      <c r="D219" t="n">
+        <v>82550</v>
+      </c>
+      <c r="E219" t="n">
+        <v>82550</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.1129</v>
+      </c>
+      <c r="G219" t="n">
+        <v>140.4146550700001</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>82800</v>
+      </c>
+      <c r="C220" t="n">
+        <v>82800</v>
+      </c>
+      <c r="D220" t="n">
+        <v>82800</v>
+      </c>
+      <c r="E220" t="n">
+        <v>82800</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.1247</v>
+      </c>
+      <c r="G220" t="n">
+        <v>140.5393550700001</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>82850</v>
+      </c>
+      <c r="C221" t="n">
+        <v>82850</v>
+      </c>
+      <c r="D221" t="n">
+        <v>82850</v>
+      </c>
+      <c r="E221" t="n">
+        <v>82850</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.5135</v>
+      </c>
+      <c r="G221" t="n">
+        <v>141.05285507</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>82850</v>
+      </c>
+      <c r="C222" t="n">
+        <v>82850</v>
+      </c>
+      <c r="D222" t="n">
+        <v>82850</v>
+      </c>
+      <c r="E222" t="n">
+        <v>82850</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2.4663</v>
+      </c>
+      <c r="G222" t="n">
+        <v>141.05285507</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>83200</v>
+      </c>
+      <c r="C223" t="n">
+        <v>83200</v>
+      </c>
+      <c r="D223" t="n">
+        <v>83200</v>
+      </c>
+      <c r="E223" t="n">
+        <v>83200</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1.233</v>
+      </c>
+      <c r="G223" t="n">
+        <v>142.2858550700001</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>83200</v>
+      </c>
+      <c r="C224" t="n">
+        <v>83200</v>
+      </c>
+      <c r="D224" t="n">
+        <v>83200</v>
+      </c>
+      <c r="E224" t="n">
+        <v>83200</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2.682</v>
+      </c>
+      <c r="G224" t="n">
+        <v>142.2858550700001</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>83100</v>
+      </c>
+      <c r="C225" t="n">
+        <v>83100</v>
+      </c>
+      <c r="D225" t="n">
+        <v>83100</v>
+      </c>
+      <c r="E225" t="n">
+        <v>83100</v>
+      </c>
+      <c r="F225" t="n">
+        <v>3.725</v>
+      </c>
+      <c r="G225" t="n">
+        <v>138.5608550700001</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>83100</v>
+      </c>
+      <c r="C226" t="n">
+        <v>83100</v>
+      </c>
+      <c r="D226" t="n">
+        <v>83100</v>
+      </c>
+      <c r="E226" t="n">
+        <v>83100</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2.3625</v>
+      </c>
+      <c r="G226" t="n">
+        <v>138.5608550700001</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>83200</v>
+      </c>
+      <c r="C227" t="n">
+        <v>83200</v>
+      </c>
+      <c r="D227" t="n">
+        <v>83200</v>
+      </c>
+      <c r="E227" t="n">
+        <v>83150</v>
+      </c>
+      <c r="F227" t="n">
+        <v>23.6179</v>
+      </c>
+      <c r="G227" t="n">
+        <v>162.1787550700001</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>83150</v>
+      </c>
+      <c r="C228" t="n">
+        <v>83150</v>
+      </c>
+      <c r="D228" t="n">
+        <v>83150</v>
+      </c>
+      <c r="E228" t="n">
+        <v>83150</v>
+      </c>
+      <c r="F228" t="n">
+        <v>4</v>
+      </c>
+      <c r="G228" t="n">
+        <v>158.1787550700001</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>83100</v>
+      </c>
+      <c r="C229" t="n">
+        <v>83000</v>
+      </c>
+      <c r="D229" t="n">
+        <v>83200</v>
+      </c>
+      <c r="E229" t="n">
+        <v>82950</v>
+      </c>
+      <c r="F229" t="n">
+        <v>43.9766</v>
+      </c>
+      <c r="G229" t="n">
+        <v>114.2021550700001</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>83200</v>
+      </c>
+      <c r="C230" t="n">
+        <v>83250</v>
+      </c>
+      <c r="D230" t="n">
+        <v>83250</v>
+      </c>
+      <c r="E230" t="n">
+        <v>83200</v>
+      </c>
+      <c r="F230" t="n">
+        <v>4.0215</v>
+      </c>
+      <c r="G230" t="n">
+        <v>118.2236550700001</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>83050</v>
+      </c>
+      <c r="C231" t="n">
+        <v>83050</v>
+      </c>
+      <c r="D231" t="n">
+        <v>83050</v>
+      </c>
+      <c r="E231" t="n">
+        <v>83050</v>
+      </c>
+      <c r="F231" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G231" t="n">
+        <v>113.4236550700001</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>82950</v>
+      </c>
+      <c r="C232" t="n">
+        <v>82650</v>
+      </c>
+      <c r="D232" t="n">
+        <v>82950</v>
+      </c>
+      <c r="E232" t="n">
+        <v>82650</v>
+      </c>
+      <c r="F232" t="n">
+        <v>50.336</v>
+      </c>
+      <c r="G232" t="n">
+        <v>63.08765507000007</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>82950</v>
+      </c>
+      <c r="C233" t="n">
+        <v>83000</v>
+      </c>
+      <c r="D233" t="n">
+        <v>83000</v>
+      </c>
+      <c r="E233" t="n">
+        <v>82950</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1.9968</v>
+      </c>
+      <c r="G233" t="n">
+        <v>65.08445507000006</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>82700</v>
+      </c>
+      <c r="C234" t="n">
+        <v>82650</v>
+      </c>
+      <c r="D234" t="n">
+        <v>82700</v>
+      </c>
+      <c r="E234" t="n">
+        <v>82650</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.7296</v>
+      </c>
+      <c r="G234" t="n">
+        <v>64.35485507000006</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>82400</v>
+      </c>
+      <c r="C235" t="n">
+        <v>82100</v>
+      </c>
+      <c r="D235" t="n">
+        <v>82450</v>
+      </c>
+      <c r="E235" t="n">
+        <v>82100</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1.3813</v>
+      </c>
+      <c r="G235" t="n">
+        <v>62.97355507000005</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>82400</v>
+      </c>
+      <c r="C236" t="n">
+        <v>82500</v>
+      </c>
+      <c r="D236" t="n">
+        <v>82500</v>
+      </c>
+      <c r="E236" t="n">
+        <v>82400</v>
+      </c>
+      <c r="F236" t="n">
+        <v>14.6667</v>
+      </c>
+      <c r="G236" t="n">
+        <v>77.64025507000005</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>82500</v>
+      </c>
+      <c r="C237" t="n">
+        <v>82500</v>
+      </c>
+      <c r="D237" t="n">
+        <v>82500</v>
+      </c>
+      <c r="E237" t="n">
+        <v>82500</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2</v>
+      </c>
+      <c r="G237" t="n">
+        <v>77.64025507000005</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>82800</v>
+      </c>
+      <c r="C238" t="n">
+        <v>82800</v>
+      </c>
+      <c r="D238" t="n">
+        <v>82800</v>
+      </c>
+      <c r="E238" t="n">
+        <v>82800</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1.2055</v>
+      </c>
+      <c r="G238" t="n">
+        <v>78.84575507000005</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>82500</v>
+      </c>
+      <c r="C239" t="n">
+        <v>82400</v>
+      </c>
+      <c r="D239" t="n">
+        <v>82500</v>
+      </c>
+      <c r="E239" t="n">
+        <v>82400</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.2943</v>
+      </c>
+      <c r="G239" t="n">
+        <v>78.55145507000005</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>81950</v>
+      </c>
+      <c r="C240" t="n">
+        <v>81950</v>
+      </c>
+      <c r="D240" t="n">
+        <v>81950</v>
+      </c>
+      <c r="E240" t="n">
+        <v>81950</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.0984</v>
+      </c>
+      <c r="G240" t="n">
+        <v>78.45305507000005</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>82100</v>
+      </c>
+      <c r="C241" t="n">
+        <v>82000</v>
+      </c>
+      <c r="D241" t="n">
+        <v>82100</v>
+      </c>
+      <c r="E241" t="n">
+        <v>82000</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1.1727</v>
+      </c>
+      <c r="G241" t="n">
+        <v>79.62575507000005</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>82150</v>
+      </c>
+      <c r="C242" t="n">
+        <v>82150</v>
+      </c>
+      <c r="D242" t="n">
+        <v>82150</v>
+      </c>
+      <c r="E242" t="n">
+        <v>82150</v>
+      </c>
+      <c r="F242" t="n">
+        <v>64.15689999999999</v>
+      </c>
+      <c r="G242" t="n">
+        <v>143.78265507</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>82150</v>
+      </c>
+      <c r="C243" t="n">
+        <v>82150</v>
+      </c>
+      <c r="D243" t="n">
+        <v>82150</v>
+      </c>
+      <c r="E243" t="n">
+        <v>82150</v>
+      </c>
+      <c r="F243" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="G243" t="n">
+        <v>143.78265507</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>82000</v>
+      </c>
+      <c r="C244" t="n">
+        <v>82100</v>
+      </c>
+      <c r="D244" t="n">
+        <v>82150</v>
+      </c>
+      <c r="E244" t="n">
+        <v>81900</v>
+      </c>
+      <c r="F244" t="n">
+        <v>55.6408</v>
+      </c>
+      <c r="G244" t="n">
+        <v>88.14185507000003</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>82150</v>
+      </c>
+      <c r="C245" t="n">
+        <v>82150</v>
+      </c>
+      <c r="D245" t="n">
+        <v>82150</v>
+      </c>
+      <c r="E245" t="n">
+        <v>81950</v>
+      </c>
+      <c r="F245" t="n">
+        <v>27.9523</v>
+      </c>
+      <c r="G245" t="n">
+        <v>116.09415507</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>82000</v>
+      </c>
+      <c r="C246" t="n">
+        <v>81950</v>
+      </c>
+      <c r="D246" t="n">
+        <v>82150</v>
+      </c>
+      <c r="E246" t="n">
+        <v>81950</v>
+      </c>
+      <c r="F246" t="n">
+        <v>19.7892</v>
+      </c>
+      <c r="G246" t="n">
+        <v>96.30495507000003</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>81950</v>
+      </c>
+      <c r="C247" t="n">
+        <v>81950</v>
+      </c>
+      <c r="D247" t="n">
+        <v>82150</v>
+      </c>
+      <c r="E247" t="n">
+        <v>81950</v>
+      </c>
+      <c r="F247" t="n">
+        <v>19.629</v>
+      </c>
+      <c r="G247" t="n">
+        <v>96.30495507000003</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>81900</v>
+      </c>
+      <c r="C248" t="n">
+        <v>81900</v>
+      </c>
+      <c r="D248" t="n">
+        <v>81900</v>
+      </c>
+      <c r="E248" t="n">
+        <v>81900</v>
+      </c>
+      <c r="F248" t="n">
+        <v>3.4999</v>
+      </c>
+      <c r="G248" t="n">
+        <v>92.80505507000004</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>81700</v>
+      </c>
+      <c r="C249" t="n">
+        <v>81700</v>
+      </c>
+      <c r="D249" t="n">
+        <v>81700</v>
+      </c>
+      <c r="E249" t="n">
+        <v>81700</v>
+      </c>
+      <c r="F249" t="n">
+        <v>16</v>
+      </c>
+      <c r="G249" t="n">
+        <v>76.80505507000004</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>81600</v>
+      </c>
+      <c r="C250" t="n">
+        <v>81600</v>
+      </c>
+      <c r="D250" t="n">
+        <v>81600</v>
+      </c>
+      <c r="E250" t="n">
+        <v>81600</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="G250" t="n">
+        <v>76.58905507000004</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>81350</v>
+      </c>
+      <c r="C251" t="n">
+        <v>81350</v>
+      </c>
+      <c r="D251" t="n">
+        <v>81350</v>
+      </c>
+      <c r="E251" t="n">
+        <v>81350</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2.7195</v>
+      </c>
+      <c r="G251" t="n">
+        <v>73.86955507000005</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>81150</v>
+      </c>
+      <c r="C252" t="n">
+        <v>81150</v>
+      </c>
+      <c r="D252" t="n">
+        <v>81150</v>
+      </c>
+      <c r="E252" t="n">
+        <v>81150</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G252" t="n">
+        <v>73.60955507000004</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>81200</v>
+      </c>
+      <c r="C253" t="n">
+        <v>81250</v>
+      </c>
+      <c r="D253" t="n">
+        <v>81250</v>
+      </c>
+      <c r="E253" t="n">
+        <v>81200</v>
+      </c>
+      <c r="F253" t="n">
+        <v>13.928</v>
+      </c>
+      <c r="G253" t="n">
+        <v>87.53755507000004</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>81100</v>
+      </c>
+      <c r="C254" t="n">
+        <v>81100</v>
+      </c>
+      <c r="D254" t="n">
+        <v>81100</v>
+      </c>
+      <c r="E254" t="n">
+        <v>81100</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.0174</v>
+      </c>
+      <c r="G254" t="n">
+        <v>87.52015507000004</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>81200</v>
+      </c>
+      <c r="C255" t="n">
+        <v>81200</v>
+      </c>
+      <c r="D255" t="n">
+        <v>81200</v>
+      </c>
+      <c r="E255" t="n">
+        <v>81200</v>
+      </c>
+      <c r="F255" t="n">
+        <v>8.4673</v>
+      </c>
+      <c r="G255" t="n">
+        <v>95.98745507000004</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>81300</v>
+      </c>
+      <c r="C256" t="n">
+        <v>81300</v>
+      </c>
+      <c r="D256" t="n">
+        <v>81300</v>
+      </c>
+      <c r="E256" t="n">
+        <v>81300</v>
+      </c>
+      <c r="F256" t="n">
+        <v>19.6127</v>
+      </c>
+      <c r="G256" t="n">
+        <v>115.60015507</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>81300</v>
+      </c>
+      <c r="C257" t="n">
+        <v>81300</v>
+      </c>
+      <c r="D257" t="n">
+        <v>81300</v>
+      </c>
+      <c r="E257" t="n">
+        <v>81300</v>
+      </c>
+      <c r="F257" t="n">
+        <v>4.8072</v>
+      </c>
+      <c r="G257" t="n">
+        <v>115.60015507</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>81150</v>
+      </c>
+      <c r="C258" t="n">
+        <v>81100</v>
+      </c>
+      <c r="D258" t="n">
+        <v>81150</v>
+      </c>
+      <c r="E258" t="n">
+        <v>81100</v>
+      </c>
+      <c r="F258" t="n">
+        <v>18</v>
+      </c>
+      <c r="G258" t="n">
+        <v>97.60015507000004</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>81350</v>
+      </c>
+      <c r="C259" t="n">
+        <v>81350</v>
+      </c>
+      <c r="D259" t="n">
+        <v>81350</v>
+      </c>
+      <c r="E259" t="n">
+        <v>81350</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.3824</v>
+      </c>
+      <c r="G259" t="n">
+        <v>97.98255507000005</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>81200</v>
+      </c>
+      <c r="C260" t="n">
+        <v>81200</v>
+      </c>
+      <c r="D260" t="n">
+        <v>81200</v>
+      </c>
+      <c r="E260" t="n">
+        <v>81200</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.5692</v>
+      </c>
+      <c r="G260" t="n">
+        <v>97.41335507000005</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>81300</v>
+      </c>
+      <c r="C261" t="n">
+        <v>81300</v>
+      </c>
+      <c r="D261" t="n">
+        <v>81300</v>
+      </c>
+      <c r="E261" t="n">
+        <v>81300</v>
+      </c>
+      <c r="F261" t="n">
+        <v>8.845000000000001</v>
+      </c>
+      <c r="G261" t="n">
+        <v>106.2583550700001</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>81300</v>
+      </c>
+      <c r="C262" t="n">
+        <v>81300</v>
+      </c>
+      <c r="D262" t="n">
+        <v>81300</v>
+      </c>
+      <c r="E262" t="n">
+        <v>81300</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1.9139</v>
+      </c>
+      <c r="G262" t="n">
+        <v>106.2583550700001</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>81500</v>
+      </c>
+      <c r="C263" t="n">
+        <v>81500</v>
+      </c>
+      <c r="D263" t="n">
+        <v>81500</v>
+      </c>
+      <c r="E263" t="n">
+        <v>81500</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1.4182</v>
+      </c>
+      <c r="G263" t="n">
+        <v>107.67655507</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>81550</v>
+      </c>
+      <c r="C264" t="n">
+        <v>81550</v>
+      </c>
+      <c r="D264" t="n">
+        <v>81550</v>
+      </c>
+      <c r="E264" t="n">
+        <v>81550</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.8909</v>
+      </c>
+      <c r="G264" t="n">
+        <v>108.5674550700001</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>81250</v>
+      </c>
+      <c r="C265" t="n">
+        <v>81250</v>
+      </c>
+      <c r="D265" t="n">
+        <v>81250</v>
+      </c>
+      <c r="E265" t="n">
+        <v>81250</v>
+      </c>
+      <c r="F265" t="n">
+        <v>2</v>
+      </c>
+      <c r="G265" t="n">
+        <v>106.5674550700001</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>81200</v>
+      </c>
+      <c r="C266" t="n">
+        <v>81200</v>
+      </c>
+      <c r="D266" t="n">
+        <v>81200</v>
+      </c>
+      <c r="E266" t="n">
+        <v>81200</v>
+      </c>
+      <c r="F266" t="n">
+        <v>3</v>
+      </c>
+      <c r="G266" t="n">
+        <v>103.5674550700001</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>81050</v>
+      </c>
+      <c r="C267" t="n">
+        <v>81000</v>
+      </c>
+      <c r="D267" t="n">
+        <v>81050</v>
+      </c>
+      <c r="E267" t="n">
+        <v>81000</v>
+      </c>
+      <c r="F267" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G267" t="n">
+        <v>100.0174550700001</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>80950</v>
+      </c>
+      <c r="C268" t="n">
+        <v>80750</v>
+      </c>
+      <c r="D268" t="n">
+        <v>80950</v>
+      </c>
+      <c r="E268" t="n">
+        <v>80750</v>
+      </c>
+      <c r="F268" t="n">
+        <v>10.3955</v>
+      </c>
+      <c r="G268" t="n">
+        <v>89.62195507000006</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>80700</v>
+      </c>
+      <c r="C269" t="n">
+        <v>80500</v>
+      </c>
+      <c r="D269" t="n">
+        <v>80700</v>
+      </c>
+      <c r="E269" t="n">
+        <v>80500</v>
+      </c>
+      <c r="F269" t="n">
+        <v>13.8723</v>
+      </c>
+      <c r="G269" t="n">
+        <v>75.74965507000006</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>80450</v>
+      </c>
+      <c r="C270" t="n">
+        <v>80150</v>
+      </c>
+      <c r="D270" t="n">
+        <v>80450</v>
+      </c>
+      <c r="E270" t="n">
+        <v>80150</v>
+      </c>
+      <c r="F270" t="n">
+        <v>13.2374</v>
+      </c>
+      <c r="G270" t="n">
+        <v>62.51225507000006</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>80100</v>
+      </c>
+      <c r="C271" t="n">
+        <v>80200</v>
+      </c>
+      <c r="D271" t="n">
+        <v>80200</v>
+      </c>
+      <c r="E271" t="n">
+        <v>80100</v>
+      </c>
+      <c r="F271" t="n">
+        <v>21.4199</v>
+      </c>
+      <c r="G271" t="n">
+        <v>83.93215507000005</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>80000</v>
+      </c>
+      <c r="C272" t="n">
+        <v>79850</v>
+      </c>
+      <c r="D272" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E272" t="n">
+        <v>79850</v>
+      </c>
+      <c r="F272" t="n">
+        <v>20.742</v>
+      </c>
+      <c r="G272" t="n">
+        <v>63.19015507000005</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>79700</v>
+      </c>
+      <c r="C273" t="n">
+        <v>79700</v>
+      </c>
+      <c r="D273" t="n">
+        <v>79700</v>
+      </c>
+      <c r="E273" t="n">
+        <v>79700</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G273" t="n">
+        <v>62.57515507000004</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>79700</v>
+      </c>
+      <c r="C274" t="n">
+        <v>79700</v>
+      </c>
+      <c r="D274" t="n">
+        <v>79700</v>
+      </c>
+      <c r="E274" t="n">
+        <v>79700</v>
+      </c>
+      <c r="F274" t="n">
+        <v>2.385</v>
+      </c>
+      <c r="G274" t="n">
+        <v>62.57515507000004</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>79800</v>
+      </c>
+      <c r="C275" t="n">
+        <v>79800</v>
+      </c>
+      <c r="D275" t="n">
+        <v>79800</v>
+      </c>
+      <c r="E275" t="n">
+        <v>79800</v>
+      </c>
+      <c r="F275" t="n">
+        <v>80.0998</v>
+      </c>
+      <c r="G275" t="n">
+        <v>142.67495507</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>79800</v>
+      </c>
+      <c r="C276" t="n">
+        <v>79800</v>
+      </c>
+      <c r="D276" t="n">
+        <v>79800</v>
+      </c>
+      <c r="E276" t="n">
+        <v>79800</v>
+      </c>
+      <c r="F276" t="n">
+        <v>14.9214</v>
+      </c>
+      <c r="G276" t="n">
+        <v>142.67495507</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="N276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>79800</v>
+      </c>
+      <c r="C277" t="n">
+        <v>79800</v>
+      </c>
+      <c r="D277" t="n">
+        <v>79800</v>
+      </c>
+      <c r="E277" t="n">
+        <v>79800</v>
+      </c>
+      <c r="F277" t="n">
+        <v>16.3834</v>
+      </c>
+      <c r="G277" t="n">
+        <v>142.67495507</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>79800</v>
+      </c>
+      <c r="C278" t="n">
+        <v>79800</v>
+      </c>
+      <c r="D278" t="n">
+        <v>79800</v>
+      </c>
+      <c r="E278" t="n">
+        <v>79800</v>
+      </c>
+      <c r="F278" t="n">
+        <v>8.726000000000001</v>
+      </c>
+      <c r="G278" t="n">
+        <v>142.67495507</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>79650</v>
+      </c>
+      <c r="C279" t="n">
+        <v>79550</v>
+      </c>
+      <c r="D279" t="n">
+        <v>79650</v>
+      </c>
+      <c r="E279" t="n">
+        <v>79350</v>
+      </c>
+      <c r="F279" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="G279" t="n">
+        <v>126.37495507</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="n">
+        <v>1</v>
+      </c>
+      <c r="N279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>79250</v>
+      </c>
+      <c r="C280" t="n">
+        <v>79150</v>
+      </c>
+      <c r="D280" t="n">
+        <v>79250</v>
+      </c>
+      <c r="E280" t="n">
+        <v>79150</v>
+      </c>
+      <c r="F280" t="n">
+        <v>7.352</v>
+      </c>
+      <c r="G280" t="n">
+        <v>119.02295507</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="n">
+        <v>1</v>
+      </c>
+      <c r="N280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>79100</v>
+      </c>
+      <c r="C281" t="n">
+        <v>79200</v>
+      </c>
+      <c r="D281" t="n">
+        <v>79200</v>
+      </c>
+      <c r="E281" t="n">
+        <v>78650</v>
+      </c>
+      <c r="F281" t="n">
+        <v>24.5192</v>
+      </c>
+      <c r="G281" t="n">
+        <v>143.54215507</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="n">
+        <v>1</v>
+      </c>
+      <c r="N281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>79200</v>
+      </c>
+      <c r="C282" t="n">
+        <v>79050</v>
+      </c>
+      <c r="D282" t="n">
+        <v>79200</v>
+      </c>
+      <c r="E282" t="n">
+        <v>79050</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.2851</v>
+      </c>
+      <c r="G282" t="n">
+        <v>143.25705507</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
         <v>78850</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C283" t="n">
         <v>79100</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D283" t="n">
         <v>79100</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E283" t="n">
         <v>78850</v>
       </c>
-      <c r="F212" t="n">
+      <c r="F283" t="n">
         <v>3.5221</v>
       </c>
-      <c r="G212" t="n">
-        <v>79210</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>79050</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>146.77915507</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="n">
+        <v>1</v>
+      </c>
+      <c r="N283" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest DASH.xlsx
+++ b/BackTest/2019-10-26 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N283"/>
+  <dimension ref="A1:M283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>92.50210000000003</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>92.33470000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>80700</v>
-      </c>
-      <c r="K3" t="n">
-        <v>80700</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,110 +517,101 @@
         <v>92.20570000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>80400</v>
       </c>
       <c r="J4" t="n">
         <v>80400</v>
       </c>
-      <c r="K4" t="n">
-        <v>80700</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>80300</v>
+      </c>
+      <c r="C5" t="n">
+        <v>80300</v>
+      </c>
+      <c r="D5" t="n">
+        <v>80300</v>
+      </c>
+      <c r="E5" t="n">
+        <v>80300</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8088</v>
+      </c>
+      <c r="G5" t="n">
+        <v>93.01450000000003</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>80200</v>
+      </c>
+      <c r="J5" t="n">
+        <v>80400</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>80500</v>
+      </c>
+      <c r="C6" t="n">
+        <v>80500</v>
+      </c>
+      <c r="D6" t="n">
+        <v>80500</v>
+      </c>
+      <c r="E6" t="n">
+        <v>80500</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.6171</v>
+      </c>
+      <c r="G6" t="n">
+        <v>99.63160000000002</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
         <v>80300</v>
       </c>
-      <c r="C5" t="n">
-        <v>80300</v>
-      </c>
-      <c r="D5" t="n">
-        <v>80300</v>
-      </c>
-      <c r="E5" t="n">
-        <v>80300</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8088</v>
-      </c>
-      <c r="G5" t="n">
-        <v>93.01450000000003</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>80200</v>
-      </c>
-      <c r="K5" t="n">
-        <v>80700</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="J6" t="n">
+        <v>80400</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>80500</v>
-      </c>
-      <c r="C6" t="n">
-        <v>80500</v>
-      </c>
-      <c r="D6" t="n">
-        <v>80500</v>
-      </c>
-      <c r="E6" t="n">
-        <v>80500</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6.6171</v>
-      </c>
-      <c r="G6" t="n">
-        <v>99.63160000000002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>80300</v>
-      </c>
-      <c r="K6" t="n">
-        <v>80300</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,104 +636,101 @@
         <v>156.0536</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>80500</v>
       </c>
       <c r="J7" t="n">
         <v>80500</v>
       </c>
-      <c r="K7" t="n">
-        <v>80300</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>80800</v>
+      </c>
+      <c r="C8" t="n">
+        <v>80800</v>
+      </c>
+      <c r="D8" t="n">
+        <v>80800</v>
+      </c>
+      <c r="E8" t="n">
+        <v>80800</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="G8" t="n">
+        <v>155.6366</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>80900</v>
+      </c>
+      <c r="J8" t="n">
+        <v>80500</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>80900</v>
+      </c>
+      <c r="C9" t="n">
+        <v>80900</v>
+      </c>
+      <c r="D9" t="n">
+        <v>80900</v>
+      </c>
+      <c r="E9" t="n">
+        <v>80850</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.3828</v>
+      </c>
+      <c r="G9" t="n">
+        <v>158.0194</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
         <v>80800</v>
       </c>
-      <c r="C8" t="n">
-        <v>80800</v>
-      </c>
-      <c r="D8" t="n">
-        <v>80800</v>
-      </c>
-      <c r="E8" t="n">
-        <v>80800</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="G8" t="n">
-        <v>155.6366</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>80300</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="J9" t="n">
+        <v>80500</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>80900</v>
-      </c>
-      <c r="C9" t="n">
-        <v>80900</v>
-      </c>
-      <c r="D9" t="n">
-        <v>80900</v>
-      </c>
-      <c r="E9" t="n">
-        <v>80850</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.3828</v>
-      </c>
-      <c r="G9" t="n">
-        <v>158.0194</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -784,16 +757,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -820,16 +790,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -856,16 +823,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -892,16 +856,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,16 +889,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -964,16 +922,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1000,16 +955,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1034,22 +986,15 @@
         <v>76.88880000000002</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>78750</v>
-      </c>
-      <c r="K17" t="n">
-        <v>78750</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1076,352 +1021,326 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>78750</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>79800</v>
+      </c>
+      <c r="C19" t="n">
+        <v>79800</v>
+      </c>
+      <c r="D19" t="n">
+        <v>79800</v>
+      </c>
+      <c r="E19" t="n">
+        <v>79450</v>
+      </c>
+      <c r="F19" t="n">
+        <v>22.348</v>
+      </c>
+      <c r="G19" t="n">
+        <v>74.41130000000003</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>79500</v>
+      </c>
+      <c r="C20" t="n">
+        <v>79500</v>
+      </c>
+      <c r="D20" t="n">
+        <v>79500</v>
+      </c>
+      <c r="E20" t="n">
+        <v>79500</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1454</v>
+      </c>
+      <c r="G20" t="n">
+        <v>74.26590000000003</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>79100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>79100</v>
+      </c>
+      <c r="D21" t="n">
+        <v>79100</v>
+      </c>
+      <c r="E21" t="n">
+        <v>79100</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>72.26590000000003</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>79050</v>
+      </c>
+      <c r="C22" t="n">
+        <v>79050</v>
+      </c>
+      <c r="D22" t="n">
+        <v>79050</v>
+      </c>
+      <c r="E22" t="n">
+        <v>79050</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G22" t="n">
+        <v>71.75590000000003</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>79050</v>
+      </c>
+      <c r="C23" t="n">
+        <v>79050</v>
+      </c>
+      <c r="D23" t="n">
+        <v>79050</v>
+      </c>
+      <c r="E23" t="n">
+        <v>79050</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G23" t="n">
+        <v>71.75590000000003</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>78850</v>
+      </c>
+      <c r="C24" t="n">
+        <v>78850</v>
+      </c>
+      <c r="D24" t="n">
+        <v>78850</v>
+      </c>
+      <c r="E24" t="n">
+        <v>78850</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>71.06590000000003</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>79500</v>
+      </c>
+      <c r="C25" t="n">
+        <v>79500</v>
+      </c>
+      <c r="D25" t="n">
+        <v>79500</v>
+      </c>
+      <c r="E25" t="n">
+        <v>79500</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="G25" t="n">
+        <v>71.23490000000002</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>78850</v>
+      </c>
+      <c r="J25" t="n">
+        <v>78850</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>79500</v>
+      </c>
+      <c r="C26" t="n">
+        <v>79500</v>
+      </c>
+      <c r="D26" t="n">
+        <v>79500</v>
+      </c>
+      <c r="E26" t="n">
+        <v>79500</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12.0973</v>
+      </c>
+      <c r="G26" t="n">
+        <v>71.23490000000002</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>78850</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>79800</v>
-      </c>
-      <c r="C19" t="n">
-        <v>79800</v>
-      </c>
-      <c r="D19" t="n">
-        <v>79800</v>
-      </c>
-      <c r="E19" t="n">
-        <v>79450</v>
-      </c>
-      <c r="F19" t="n">
-        <v>22.348</v>
-      </c>
-      <c r="G19" t="n">
-        <v>74.41130000000003</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>78750</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>79650</v>
+      </c>
+      <c r="C27" t="n">
+        <v>79650</v>
+      </c>
+      <c r="D27" t="n">
+        <v>79650</v>
+      </c>
+      <c r="E27" t="n">
+        <v>79650</v>
+      </c>
+      <c r="F27" t="n">
+        <v>16.1621</v>
+      </c>
+      <c r="G27" t="n">
+        <v>87.39700000000002</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>78850</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>79500</v>
-      </c>
-      <c r="C20" t="n">
-        <v>79500</v>
-      </c>
-      <c r="D20" t="n">
-        <v>79500</v>
-      </c>
-      <c r="E20" t="n">
-        <v>79500</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.1454</v>
-      </c>
-      <c r="G20" t="n">
-        <v>74.26590000000003</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>79100</v>
-      </c>
-      <c r="C21" t="n">
-        <v>79100</v>
-      </c>
-      <c r="D21" t="n">
-        <v>79100</v>
-      </c>
-      <c r="E21" t="n">
-        <v>79100</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" t="n">
-        <v>72.26590000000003</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>79050</v>
-      </c>
-      <c r="C22" t="n">
-        <v>79050</v>
-      </c>
-      <c r="D22" t="n">
-        <v>79050</v>
-      </c>
-      <c r="E22" t="n">
-        <v>79050</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="G22" t="n">
-        <v>71.75590000000003</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>79050</v>
-      </c>
-      <c r="C23" t="n">
-        <v>79050</v>
-      </c>
-      <c r="D23" t="n">
-        <v>79050</v>
-      </c>
-      <c r="E23" t="n">
-        <v>79050</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G23" t="n">
-        <v>71.75590000000003</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>78850</v>
-      </c>
-      <c r="C24" t="n">
-        <v>78850</v>
-      </c>
-      <c r="D24" t="n">
-        <v>78850</v>
-      </c>
-      <c r="E24" t="n">
-        <v>78850</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G24" t="n">
-        <v>71.06590000000003</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>79500</v>
-      </c>
-      <c r="C25" t="n">
-        <v>79500</v>
-      </c>
-      <c r="D25" t="n">
-        <v>79500</v>
-      </c>
-      <c r="E25" t="n">
-        <v>79500</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.169</v>
-      </c>
-      <c r="G25" t="n">
-        <v>71.23490000000002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>79500</v>
-      </c>
-      <c r="C26" t="n">
-        <v>79500</v>
-      </c>
-      <c r="D26" t="n">
-        <v>79500</v>
-      </c>
-      <c r="E26" t="n">
-        <v>79500</v>
-      </c>
-      <c r="F26" t="n">
-        <v>12.0973</v>
-      </c>
-      <c r="G26" t="n">
-        <v>71.23490000000002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>79650</v>
-      </c>
-      <c r="C27" t="n">
-        <v>79650</v>
-      </c>
-      <c r="D27" t="n">
-        <v>79650</v>
-      </c>
-      <c r="E27" t="n">
-        <v>79650</v>
-      </c>
-      <c r="F27" t="n">
-        <v>16.1621</v>
-      </c>
-      <c r="G27" t="n">
-        <v>87.39700000000002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1448,16 +1367,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1484,16 +1400,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1520,16 +1433,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1556,16 +1466,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1592,16 +1499,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1628,16 +1532,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1664,16 +1565,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1700,16 +1598,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1736,16 +1631,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1772,16 +1664,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1808,16 +1697,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1844,16 +1730,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1880,16 +1763,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1916,16 +1796,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1952,16 +1829,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1988,16 +1862,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2024,16 +1895,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2060,16 +1928,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2096,16 +1961,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2132,16 +1994,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2168,16 +2027,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2204,16 +2060,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2240,16 +2093,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2276,16 +2126,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2312,16 +2159,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2348,16 +2192,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2384,16 +2225,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2420,16 +2258,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2456,16 +2291,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2492,16 +2324,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2528,16 +2357,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2564,16 +2390,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2600,16 +2423,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2634,18 +2454,15 @@
         <v>129.9194</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2670,18 +2487,15 @@
         <v>133.4786</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2706,18 +2520,15 @@
         <v>133.8808</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2742,18 +2553,15 @@
         <v>133.8908</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2778,18 +2586,15 @@
         <v>145.86382872</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2814,18 +2619,15 @@
         <v>144.86382872</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2850,18 +2652,15 @@
         <v>153.5656</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2886,18 +2685,15 @@
         <v>152.8929</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2922,18 +2718,15 @@
         <v>152.8118</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2958,18 +2751,15 @@
         <v>152.8118</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2994,18 +2784,15 @@
         <v>152.8118</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3030,18 +2817,15 @@
         <v>152.93472562</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3068,16 +2852,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3102,18 +2883,15 @@
         <v>174.86452562</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3138,18 +2916,15 @@
         <v>174.88452562</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3174,18 +2949,15 @@
         <v>213.50822562</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3210,18 +2982,15 @@
         <v>247.86532562</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3246,18 +3015,15 @@
         <v>261.52142562</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3282,18 +3048,15 @@
         <v>133.05152562</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3318,18 +3081,15 @@
         <v>89.28412562</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3354,18 +3114,15 @@
         <v>83.72522562</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3390,18 +3147,15 @@
         <v>84.63992562</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3426,18 +3180,15 @@
         <v>83.71192562</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3462,18 +3213,15 @@
         <v>75.72692562</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3498,18 +3246,15 @@
         <v>79.72692562</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3534,18 +3279,15 @@
         <v>124.39802562</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3570,18 +3312,15 @@
         <v>162.56962562</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3606,18 +3345,15 @@
         <v>176.12962562</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3644,16 +3380,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3678,18 +3411,15 @@
         <v>192.67352562</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3716,16 +3446,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3750,18 +3477,15 @@
         <v>194.43312562</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3786,18 +3510,15 @@
         <v>202.43312562</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3822,18 +3543,15 @@
         <v>171.13892562</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3858,18 +3576,15 @@
         <v>159.13892562</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3894,18 +3609,15 @@
         <v>163.13892562</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3930,18 +3642,15 @@
         <v>163.29312562</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3966,18 +3675,15 @@
         <v>163.45212562</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4004,16 +3710,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4040,16 +3743,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4074,18 +3774,15 @@
         <v>153.13142562</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4110,18 +3807,15 @@
         <v>157.25702562</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4146,18 +3840,15 @@
         <v>153.25702562</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4182,18 +3873,15 @@
         <v>153.81002562</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4220,16 +3908,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4254,18 +3939,15 @@
         <v>189.75342562</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4292,16 +3974,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4328,16 +4007,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4364,16 +4040,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4398,18 +4071,15 @@
         <v>173.07882562</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4434,18 +4104,15 @@
         <v>154.26992562</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4470,18 +4137,15 @@
         <v>101.94122562</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4506,18 +4170,15 @@
         <v>104.30962562</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4542,18 +4203,15 @@
         <v>104.30962562</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4580,16 +4238,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4616,16 +4271,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4650,18 +4302,15 @@
         <v>166.90768409</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4688,16 +4337,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4724,16 +4370,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4760,16 +4403,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4796,16 +4436,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4832,16 +4469,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4868,16 +4502,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4904,16 +4535,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4938,18 +4566,15 @@
         <v>132.17698409</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4976,16 +4601,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5012,16 +4634,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5048,16 +4667,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5084,16 +4700,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5120,16 +4733,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5156,16 +4766,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5192,16 +4799,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5228,16 +4832,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5264,16 +4865,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5300,16 +4898,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5336,16 +4931,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5372,16 +4964,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5408,16 +4997,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5444,16 +5030,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5480,16 +5063,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5516,16 +5096,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5552,16 +5129,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5588,16 +5162,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5624,16 +5195,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5660,16 +5228,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5696,16 +5261,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5732,16 +5294,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5768,16 +5327,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5804,16 +5360,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5840,16 +5393,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5876,16 +5426,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5912,16 +5459,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5948,16 +5492,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5984,16 +5525,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6020,16 +5558,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6056,16 +5591,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6092,16 +5624,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6128,16 +5657,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6164,16 +5690,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6200,16 +5723,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6236,16 +5756,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6272,16 +5789,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6308,16 +5822,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6344,16 +5855,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6378,18 +5886,15 @@
         <v>6.675174820000031</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6416,16 +5921,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6450,18 +5952,15 @@
         <v>2.555474820000031</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6488,16 +5987,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6524,16 +6020,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6560,16 +6053,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6596,16 +6086,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6632,16 +6119,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6668,16 +6152,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6704,16 +6185,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6740,16 +6218,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6776,16 +6251,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6810,18 +6282,15 @@
         <v>-13.82252517999997</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6846,18 +6315,15 @@
         <v>-13.82252517999997</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6882,18 +6348,15 @@
         <v>-11.26852517999997</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6920,16 +6383,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6956,16 +6416,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6992,16 +6449,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7028,16 +6482,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7064,16 +6515,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7100,16 +6548,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7136,16 +6581,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7172,16 +6614,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7208,16 +6647,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7244,16 +6680,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7280,16 +6713,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7316,16 +6746,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7352,16 +6779,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7388,16 +6812,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7424,16 +6845,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7460,16 +6878,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7496,16 +6911,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7532,16 +6944,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7568,16 +6977,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7604,16 +7010,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7640,16 +7043,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7676,16 +7076,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7712,16 +7109,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7748,16 +7142,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7784,16 +7175,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7820,16 +7208,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7854,18 +7239,15 @@
         <v>170.45935507</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7890,18 +7272,15 @@
         <v>152.44145507</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7926,18 +7305,15 @@
         <v>152.44145507</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7962,18 +7338,15 @@
         <v>133.5308550700001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7998,18 +7371,15 @@
         <v>133.5308550700001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8034,18 +7404,15 @@
         <v>126.0839550700001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8070,18 +7437,15 @@
         <v>126.0839550700001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8106,18 +7470,15 @@
         <v>102.0839550700001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8144,16 +7505,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8180,16 +7538,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8216,16 +7571,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8252,16 +7604,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8288,16 +7637,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8324,16 +7670,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8358,18 +7701,15 @@
         <v>140.5393550700001</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8394,18 +7734,15 @@
         <v>141.05285507</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8432,16 +7769,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8468,16 +7802,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8504,16 +7835,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8540,16 +7868,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8576,16 +7901,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8610,18 +7932,15 @@
         <v>162.1787550700001</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8646,18 +7965,15 @@
         <v>158.1787550700001</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8682,18 +7998,15 @@
         <v>114.2021550700001</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8720,16 +8033,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8756,16 +8066,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8792,16 +8099,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8828,16 +8132,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8864,16 +8165,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8898,18 +8196,15 @@
         <v>62.97355507000005</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8934,18 +8229,15 @@
         <v>77.64025507000005</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8970,18 +8262,15 @@
         <v>77.64025507000005</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9006,18 +8295,15 @@
         <v>78.84575507000005</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9044,16 +8330,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9080,16 +8363,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9116,16 +8396,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9152,16 +8429,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9188,16 +8462,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9224,16 +8495,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9260,16 +8528,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9296,16 +8561,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9332,16 +8594,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9368,16 +8627,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9404,16 +8660,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9440,16 +8693,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9476,16 +8726,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9512,16 +8759,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9548,16 +8792,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9584,16 +8825,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9620,16 +8858,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9656,16 +8891,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9692,16 +8924,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9728,16 +8957,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9764,16 +8990,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9800,16 +9023,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9836,16 +9056,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9872,16 +9089,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9908,16 +9122,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9944,16 +9155,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9980,16 +9188,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10016,16 +9221,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10052,16 +9254,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10088,16 +9287,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10124,16 +9320,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10160,16 +9353,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10196,16 +9386,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10232,16 +9419,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10268,16 +9452,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10304,16 +9485,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10340,16 +9518,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10376,16 +9551,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10412,16 +9584,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10448,16 +9617,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10484,16 +9650,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10520,16 +9683,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10556,16 +9716,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10592,16 +9749,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10628,18 +9782,15 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest DASH.xlsx
+++ b/BackTest/2019-10-26 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>92.50210000000003</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>92.33470000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>80700</v>
+      </c>
+      <c r="J3" t="n">
+        <v>80700</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,15 +521,19 @@
         <v>92.20570000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>80400</v>
       </c>
       <c r="J4" t="n">
-        <v>80400</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>80700</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,13 +562,13 @@
         <v>93.01450000000003</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>80200</v>
       </c>
       <c r="J5" t="n">
-        <v>80400</v>
+        <v>80700</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -595,56 +603,56 @@
         <v>99.63160000000002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>80300</v>
       </c>
       <c r="J6" t="n">
-        <v>80400</v>
-      </c>
-      <c r="K6" t="inlineStr">
+        <v>80300</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>80800</v>
+      </c>
+      <c r="C7" t="n">
+        <v>80900</v>
+      </c>
+      <c r="D7" t="n">
+        <v>81050</v>
+      </c>
+      <c r="E7" t="n">
+        <v>80800</v>
+      </c>
+      <c r="F7" t="n">
+        <v>56.422</v>
+      </c>
+      <c r="G7" t="n">
+        <v>156.0536</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>80500</v>
+      </c>
+      <c r="J7" t="n">
+        <v>80300</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>80800</v>
-      </c>
-      <c r="C7" t="n">
-        <v>80900</v>
-      </c>
-      <c r="D7" t="n">
-        <v>81050</v>
-      </c>
-      <c r="E7" t="n">
-        <v>80800</v>
-      </c>
-      <c r="F7" t="n">
-        <v>56.422</v>
-      </c>
-      <c r="G7" t="n">
-        <v>156.0536</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>80500</v>
-      </c>
-      <c r="J7" t="n">
-        <v>80500</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -673,13 +681,13 @@
         <v>155.6366</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>80900</v>
       </c>
       <c r="J8" t="n">
-        <v>80500</v>
+        <v>80300</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -714,52 +722,56 @@
         <v>158.0194</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>80800</v>
       </c>
       <c r="J9" t="n">
-        <v>80500</v>
-      </c>
-      <c r="K9" t="inlineStr">
+        <v>80800</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>81050</v>
+      </c>
+      <c r="C10" t="n">
+        <v>80950</v>
+      </c>
+      <c r="D10" t="n">
+        <v>81200</v>
+      </c>
+      <c r="E10" t="n">
+        <v>80950</v>
+      </c>
+      <c r="F10" t="n">
+        <v>19.7156</v>
+      </c>
+      <c r="G10" t="n">
+        <v>177.735</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>80900</v>
+      </c>
+      <c r="J10" t="n">
+        <v>80800</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>81050</v>
-      </c>
-      <c r="C10" t="n">
-        <v>80950</v>
-      </c>
-      <c r="D10" t="n">
-        <v>81200</v>
-      </c>
-      <c r="E10" t="n">
-        <v>80950</v>
-      </c>
-      <c r="F10" t="n">
-        <v>19.7156</v>
-      </c>
-      <c r="G10" t="n">
-        <v>177.735</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -791,8 +803,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>80800</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -953,11 +971,17 @@
         <v>74.27040000000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>79500</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -986,11 +1010,17 @@
         <v>76.88880000000002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>78750</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1023,7 +1053,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1056,7 +1090,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1089,7 +1127,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1122,7 +1164,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1155,7 +1201,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1188,7 +1238,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1221,7 +1275,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1250,15 +1308,15 @@
         <v>71.23490000000002</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>78850</v>
-      </c>
-      <c r="J25" t="n">
-        <v>78850</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1290,12 +1348,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>78850</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1329,12 +1385,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>78850</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1369,7 +1423,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1402,7 +1460,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1435,7 +1497,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1468,7 +1534,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1501,7 +1571,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1534,7 +1608,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1567,7 +1645,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1600,7 +1682,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1633,7 +1719,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1666,7 +1756,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1699,7 +1793,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1732,7 +1830,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1765,7 +1867,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1798,7 +1904,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1831,7 +1941,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1864,7 +1978,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1897,7 +2015,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1930,7 +2052,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1963,7 +2089,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1996,7 +2126,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2029,7 +2163,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2062,7 +2200,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2095,7 +2237,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2128,7 +2274,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2161,7 +2311,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2194,7 +2348,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2227,7 +2385,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2260,7 +2422,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2293,7 +2459,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2326,7 +2496,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2359,7 +2533,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2392,7 +2570,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2425,7 +2607,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2454,11 +2640,15 @@
         <v>129.9194</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2487,11 +2677,15 @@
         <v>133.4786</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2520,11 +2714,15 @@
         <v>133.8808</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2553,11 +2751,15 @@
         <v>133.8908</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2586,11 +2788,15 @@
         <v>145.86382872</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2619,11 +2825,15 @@
         <v>144.86382872</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2652,11 +2862,15 @@
         <v>153.5656</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2685,11 +2899,15 @@
         <v>152.8929</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2718,11 +2936,15 @@
         <v>152.8118</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2751,11 +2973,15 @@
         <v>152.8118</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2784,11 +3010,15 @@
         <v>152.8118</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2817,11 +3047,15 @@
         <v>152.93472562</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2854,7 +3088,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2883,11 +3121,15 @@
         <v>174.86452562</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2916,11 +3158,15 @@
         <v>174.88452562</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2949,11 +3195,15 @@
         <v>213.50822562</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2982,11 +3232,15 @@
         <v>247.86532562</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3015,11 +3269,15 @@
         <v>261.52142562</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3048,11 +3306,15 @@
         <v>133.05152562</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3081,11 +3343,15 @@
         <v>89.28412562</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3114,11 +3380,15 @@
         <v>83.72522562</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3147,11 +3417,15 @@
         <v>84.63992562</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3180,11 +3454,15 @@
         <v>83.71192562</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3213,11 +3491,15 @@
         <v>75.72692562</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3246,11 +3528,15 @@
         <v>79.72692562</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3279,11 +3565,15 @@
         <v>124.39802562</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3312,11 +3602,15 @@
         <v>162.56962562</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3345,11 +3639,15 @@
         <v>176.12962562</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3382,7 +3680,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3411,11 +3713,15 @@
         <v>192.67352562</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3448,7 +3754,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3477,11 +3787,15 @@
         <v>194.43312562</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3510,11 +3824,15 @@
         <v>202.43312562</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3543,11 +3861,15 @@
         <v>171.13892562</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3576,11 +3898,15 @@
         <v>159.13892562</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3609,11 +3935,15 @@
         <v>163.13892562</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3642,11 +3972,15 @@
         <v>163.29312562</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3675,11 +4009,15 @@
         <v>163.45212562</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3708,14 +4046,16 @@
         <v>165.19982562</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -3741,7 +4081,7 @@
         <v>160.63122562</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3774,7 +4114,7 @@
         <v>153.13142562</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3807,7 +4147,7 @@
         <v>157.25702562</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3840,7 +4180,7 @@
         <v>153.25702562</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3873,7 +4213,7 @@
         <v>153.81002562</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3906,7 +4246,7 @@
         <v>157.81002562</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3939,7 +4279,7 @@
         <v>189.75342562</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3972,7 +4312,7 @@
         <v>147.43542562</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4071,7 +4411,7 @@
         <v>173.07882562</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4104,7 +4444,7 @@
         <v>154.26992562</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4137,7 +4477,7 @@
         <v>101.94122562</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4170,7 +4510,7 @@
         <v>104.30962562</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4203,7 +4543,7 @@
         <v>104.30962562</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4236,7 +4576,7 @@
         <v>251.92078409</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4269,7 +4609,7 @@
         <v>244.64658409</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4302,7 +4642,7 @@
         <v>166.90768409</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4335,7 +4675,7 @@
         <v>139.62248409</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4368,7 +4708,7 @@
         <v>138.82108409</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4401,7 +4741,7 @@
         <v>146.82108409</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4434,7 +4774,7 @@
         <v>149.66018409</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4467,7 +4807,7 @@
         <v>148.85008409</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4500,7 +4840,7 @@
         <v>148.35008409</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4533,7 +4873,7 @@
         <v>149.48068409</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4566,7 +4906,7 @@
         <v>132.17698409</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4632,7 +4972,7 @@
         <v>134.26928409</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4665,7 +5005,7 @@
         <v>137.21958409</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4698,7 +5038,7 @@
         <v>137.09468409</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4731,7 +5071,7 @@
         <v>136.09298409</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4764,7 +5104,7 @@
         <v>135.96808409</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4797,7 +5137,7 @@
         <v>136.13018409</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4830,7 +5170,7 @@
         <v>117.06228409</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4863,7 +5203,7 @@
         <v>29.43808409000002</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4896,7 +5236,7 @@
         <v>31.61698409000002</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4929,7 +5269,7 @@
         <v>31.74918409000002</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4962,7 +5302,7 @@
         <v>72.84918409000002</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4995,7 +5335,7 @@
         <v>89.74918409000003</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5160,7 +5500,7 @@
         <v>108.65958409</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5226,7 +5566,7 @@
         <v>37.45178409000003</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5391,7 +5731,7 @@
         <v>33.65947482000003</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5424,7 +5764,7 @@
         <v>33.35677482000003</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5523,7 +5863,7 @@
         <v>28.43277482000003</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5556,7 +5896,7 @@
         <v>17.87697482000003</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5589,7 +5929,7 @@
         <v>17.39057482000003</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5622,7 +5962,7 @@
         <v>8.269674820000029</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5655,7 +5995,7 @@
         <v>12.55967482000003</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5688,7 +6028,7 @@
         <v>12.44967482000003</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5721,7 +6061,7 @@
         <v>11.20967482000003</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5754,7 +6094,7 @@
         <v>9.28667482000003</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5886,7 +6226,7 @@
         <v>6.675174820000031</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5952,7 +6292,7 @@
         <v>2.555474820000031</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6282,7 +6622,7 @@
         <v>-13.82252517999997</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6315,7 +6655,7 @@
         <v>-13.82252517999997</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6348,7 +6688,7 @@
         <v>-11.26852517999997</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7239,7 +7579,7 @@
         <v>170.45935507</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7272,7 +7612,7 @@
         <v>152.44145507</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7305,7 +7645,7 @@
         <v>152.44145507</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7338,7 +7678,7 @@
         <v>133.5308550700001</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7371,7 +7711,7 @@
         <v>133.5308550700001</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7404,7 +7744,7 @@
         <v>126.0839550700001</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7437,7 +7777,7 @@
         <v>126.0839550700001</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7470,7 +7810,7 @@
         <v>102.0839550700001</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7701,7 +8041,7 @@
         <v>140.5393550700001</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7734,7 +8074,7 @@
         <v>141.05285507</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7932,7 +8272,7 @@
         <v>162.1787550700001</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7965,7 +8305,7 @@
         <v>158.1787550700001</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7998,7 +8338,7 @@
         <v>114.2021550700001</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8196,7 +8536,7 @@
         <v>62.97355507000005</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8229,7 +8569,7 @@
         <v>77.64025507000005</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8262,7 +8602,7 @@
         <v>77.64025507000005</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8295,7 +8635,7 @@
         <v>78.84575507000005</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8460,7 +8800,7 @@
         <v>143.78265507</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8526,7 +8866,7 @@
         <v>116.09415507</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8559,7 +8899,7 @@
         <v>96.30495507000003</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8592,7 +8932,7 @@
         <v>96.30495507000003</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8625,7 +8965,7 @@
         <v>92.80505507000004</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8658,7 +8998,7 @@
         <v>76.80505507000004</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9791,6 +10131,6 @@
       <c r="M283" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest DASH.xlsx
+++ b/BackTest/2019-10-26 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>92.50210000000003</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>92.33470000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>80700</v>
-      </c>
-      <c r="J3" t="n">
-        <v>80700</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>92.20570000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>80400</v>
-      </c>
-      <c r="J4" t="n">
-        <v>80700</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>93.01450000000003</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>80200</v>
-      </c>
-      <c r="J5" t="n">
-        <v>80700</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>99.63160000000002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>80300</v>
-      </c>
-      <c r="J6" t="n">
-        <v>80300</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>156.0536</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>80500</v>
-      </c>
-      <c r="J7" t="n">
-        <v>80300</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>155.6366</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>80900</v>
-      </c>
-      <c r="J8" t="n">
-        <v>80300</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,14 +682,10 @@
         <v>158.0194</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>80800</v>
-      </c>
-      <c r="J9" t="n">
-        <v>80800</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -759,19 +715,11 @@
         <v>177.735</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>80900</v>
-      </c>
-      <c r="J10" t="n">
-        <v>80800</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,17 +748,11 @@
         <v>202.1042</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>80800</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -839,7 +781,7 @@
         <v>182.5766</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -905,7 +847,7 @@
         <v>109.9939</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -938,7 +880,7 @@
         <v>109.4944</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -971,17 +913,11 @@
         <v>74.27040000000002</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>79500</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1010,17 +946,11 @@
         <v>76.88880000000002</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>78750</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1049,15 +979,11 @@
         <v>96.75930000000002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1086,15 +1012,11 @@
         <v>74.41130000000003</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1123,15 +1045,11 @@
         <v>74.26590000000003</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1164,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1201,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1238,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1275,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1312,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1349,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1386,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1423,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1460,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1497,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1534,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1571,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1608,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1645,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1682,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1719,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1756,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1793,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1830,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1867,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1904,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1941,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1978,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2015,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2052,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2089,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2126,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2163,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2237,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2274,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2311,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2348,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2385,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2422,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2459,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2496,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2533,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2570,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2607,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2644,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2681,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2718,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2755,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2792,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2829,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2866,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2903,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2940,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2977,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3014,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3051,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3088,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3125,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3162,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3199,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3236,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3273,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3310,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3347,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3384,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3458,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3495,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3532,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3569,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3606,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3643,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3680,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3717,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3754,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3791,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3828,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3865,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3902,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3939,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3976,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4013,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4046,16 +3652,14 @@
         <v>165.19982562</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
       <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -4081,7 +3685,7 @@
         <v>160.63122562</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4114,7 +3718,7 @@
         <v>153.13142562</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4147,7 +3751,7 @@
         <v>157.25702562</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4180,7 +3784,7 @@
         <v>153.25702562</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4213,7 +3817,7 @@
         <v>153.81002562</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4246,7 +3850,7 @@
         <v>157.81002562</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4279,7 +3883,7 @@
         <v>189.75342562</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4312,7 +3916,7 @@
         <v>147.43542562</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4510,7 +4114,7 @@
         <v>104.30962562</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4543,7 +4147,7 @@
         <v>104.30962562</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4576,7 +4180,7 @@
         <v>251.92078409</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4609,7 +4213,7 @@
         <v>244.64658409</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4642,7 +4246,7 @@
         <v>166.90768409</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4675,7 +4279,7 @@
         <v>139.62248409</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4708,7 +4312,7 @@
         <v>138.82108409</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4741,7 +4345,7 @@
         <v>146.82108409</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4774,7 +4378,7 @@
         <v>149.66018409</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4807,7 +4411,7 @@
         <v>148.85008409</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4840,7 +4444,7 @@
         <v>148.35008409</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4873,7 +4477,7 @@
         <v>149.48068409</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4972,7 +4576,7 @@
         <v>134.26928409</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5005,7 +4609,7 @@
         <v>137.21958409</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5038,7 +4642,7 @@
         <v>137.09468409</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5071,7 +4675,7 @@
         <v>136.09298409</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5104,7 +4708,7 @@
         <v>135.96808409</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5137,7 +4741,7 @@
         <v>136.13018409</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5170,7 +4774,7 @@
         <v>117.06228409</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5203,7 +4807,7 @@
         <v>29.43808409000002</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5236,7 +4840,7 @@
         <v>31.61698409000002</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5269,7 +4873,7 @@
         <v>31.74918409000002</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5302,7 +4906,7 @@
         <v>72.84918409000002</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5335,7 +4939,7 @@
         <v>89.74918409000003</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5500,7 +5104,7 @@
         <v>108.65958409</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5566,7 +5170,7 @@
         <v>37.45178409000003</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5731,7 +5335,7 @@
         <v>33.65947482000003</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5764,7 +5368,7 @@
         <v>33.35677482000003</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5863,7 +5467,7 @@
         <v>28.43277482000003</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5896,7 +5500,7 @@
         <v>17.87697482000003</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5929,7 +5533,7 @@
         <v>17.39057482000003</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5962,7 +5566,7 @@
         <v>8.269674820000029</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5995,7 +5599,7 @@
         <v>12.55967482000003</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6028,7 +5632,7 @@
         <v>12.44967482000003</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6061,7 +5665,7 @@
         <v>11.20967482000003</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6094,7 +5698,7 @@
         <v>9.28667482000003</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6985,10 +6589,14 @@
         <v>2.329867380000033</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>81350</v>
+      </c>
+      <c r="J188" t="n">
+        <v>81350</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
@@ -7021,8 +6629,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>81350</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +6665,19 @@
         <v>2.919867380000034</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>81550</v>
+      </c>
+      <c r="J190" t="n">
+        <v>81350</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7084,10 +6706,14 @@
         <v>3.907267380000034</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>81600</v>
+      </c>
+      <c r="J191" t="n">
+        <v>81600</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
@@ -7117,11 +6743,19 @@
         <v>2.328167380000034</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>81850</v>
+      </c>
+      <c r="J192" t="n">
+        <v>81600</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +6787,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>81600</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7216,10 +6856,14 @@
         <v>20.57425507000004</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>82300</v>
+      </c>
+      <c r="J195" t="n">
+        <v>82300</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
@@ -7249,11 +6893,19 @@
         <v>20.86855507000003</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>82400</v>
+      </c>
+      <c r="J196" t="n">
+        <v>82300</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +6934,19 @@
         <v>24.86855507000003</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>82700</v>
+      </c>
+      <c r="J197" t="n">
+        <v>82300</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7315,10 +6975,14 @@
         <v>20.02855507000003</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>82800</v>
+      </c>
+      <c r="J198" t="n">
+        <v>82800</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
@@ -7348,11 +7012,19 @@
         <v>31.82795507000004</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>82600</v>
+      </c>
+      <c r="J199" t="n">
+        <v>82800</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7053,19 @@
         <v>35.49995507000003</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>83050</v>
+      </c>
+      <c r="J200" t="n">
+        <v>82800</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7414,10 +7094,14 @@
         <v>34.80155507000003</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>83150</v>
+      </c>
+      <c r="J201" t="n">
+        <v>83150</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
@@ -7450,8 +7134,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +7173,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +7212,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +7251,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +7290,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +7329,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +7368,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +7407,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +7446,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +7485,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +7524,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +7563,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +7602,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +7641,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +7680,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7945,8 +7719,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7978,8 +7758,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8011,8 +7797,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +7836,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8077,8 +7875,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +7914,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +7953,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8176,8 +7992,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +8031,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +8070,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8275,8 +8109,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8308,8 +8148,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +8187,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +8226,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +8265,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +8304,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +8343,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +8382,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +8421,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +8460,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +8499,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +8538,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +8577,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +8616,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +8655,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +8694,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8730,17 @@
         <v>143.78265507</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +8772,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +8808,17 @@
         <v>116.09415507</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +8847,17 @@
         <v>96.30495507000003</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +8886,17 @@
         <v>96.30495507000003</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +8925,17 @@
         <v>92.80505507000004</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +8964,17 @@
         <v>76.80505507000004</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +9006,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +9045,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +9084,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +9123,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9166,8 +9162,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9199,8 +9201,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9232,8 +9240,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +9279,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9298,8 +9318,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9331,8 +9357,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9364,8 +9396,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9397,8 +9435,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9430,8 +9474,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9463,8 +9513,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9496,8 +9552,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9529,8 +9591,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9562,8 +9630,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9595,8 +9669,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9628,8 +9708,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9661,8 +9747,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9694,8 +9786,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +9825,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9760,8 +9864,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +9903,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +9942,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9859,8 +9981,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9892,8 +10020,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +10059,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9958,8 +10098,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9991,8 +10137,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10024,8 +10176,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10212,19 @@
         <v>143.54215507</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>79150</v>
+      </c>
+      <c r="J281" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10253,19 @@
         <v>143.25705507</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>79200</v>
+      </c>
+      <c r="J282" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10120,17 +10294,25 @@
         <v>146.77915507</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>79050</v>
+      </c>
+      <c r="J283" t="n">
+        <v>83150</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
       <c r="M283" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest DASH.xlsx
+++ b/BackTest/2019-10-26 BackTest DASH.xlsx
@@ -451,7 +451,7 @@
         <v>92.50210000000003</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>92.33470000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>80700</v>
+      </c>
+      <c r="J3" t="n">
+        <v>80700</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>92.20570000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>80400</v>
+      </c>
+      <c r="J4" t="n">
+        <v>80700</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>93.01450000000003</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>80200</v>
+      </c>
+      <c r="J5" t="n">
+        <v>80700</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>99.63160000000002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>80300</v>
+      </c>
+      <c r="J6" t="n">
+        <v>80300</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>156.0536</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>80500</v>
+      </c>
+      <c r="J7" t="n">
+        <v>80300</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>155.6366</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>80900</v>
+      </c>
+      <c r="J8" t="n">
+        <v>80300</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,7 +722,7 @@
         <v>158.0194</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +755,7 @@
         <v>177.735</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +788,7 @@
         <v>202.1042</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +821,7 @@
         <v>182.5766</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +887,7 @@
         <v>109.9939</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +920,7 @@
         <v>109.4944</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +953,7 @@
         <v>74.27040000000002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,10 +986,14 @@
         <v>76.88880000000002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>78750</v>
+      </c>
+      <c r="J17" t="n">
+        <v>78750</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -979,11 +1023,19 @@
         <v>96.75930000000002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>79450</v>
+      </c>
+      <c r="J18" t="n">
+        <v>78750</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1064,19 @@
         <v>74.41130000000003</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>80000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>78750</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,7 +1105,7 @@
         <v>74.26590000000003</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,10 +1138,14 @@
         <v>72.26590000000003</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>79500</v>
+      </c>
+      <c r="J21" t="n">
+        <v>79500</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1111,11 +1175,19 @@
         <v>71.75590000000003</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>79100</v>
+      </c>
+      <c r="J22" t="n">
+        <v>79500</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1216,19 @@
         <v>71.75590000000003</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>79050</v>
+      </c>
+      <c r="J23" t="n">
+        <v>79500</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -3487,7 +3567,7 @@
         <v>171.13892562</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3652,7 +3732,7 @@
         <v>165.19982562</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3765,7 @@
         <v>160.63122562</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3798,7 @@
         <v>153.13142562</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3831,7 @@
         <v>157.25702562</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3864,7 @@
         <v>153.25702562</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3897,7 @@
         <v>153.81002562</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3930,7 @@
         <v>157.81002562</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3963,7 @@
         <v>189.75342562</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3996,7 @@
         <v>147.43542562</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4029,7 @@
         <v>147.43542562</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4062,7 @@
         <v>147.43542562</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4095,7 @@
         <v>173.07882562</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4128,7 @@
         <v>154.26992562</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4161,7 @@
         <v>101.94122562</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4194,7 @@
         <v>104.30962562</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4227,7 @@
         <v>104.30962562</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4260,7 @@
         <v>251.92078409</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4293,7 @@
         <v>244.64658409</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4326,7 @@
         <v>166.90768409</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4359,7 @@
         <v>139.62248409</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4642,7 +4722,7 @@
         <v>137.09468409</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -6556,10 +6636,14 @@
         <v>-0.6701326199999666</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>81150</v>
+      </c>
+      <c r="J187" t="n">
+        <v>81150</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
@@ -6595,9 +6679,13 @@
         <v>81350</v>
       </c>
       <c r="J188" t="n">
-        <v>81350</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
+        <v>81150</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,11 +6714,13 @@
         <v>2.719867380000033</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>81450</v>
+      </c>
       <c r="J189" t="n">
-        <v>81350</v>
+        <v>81150</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6671,50 +6761,50 @@
         <v>81550</v>
       </c>
       <c r="J190" t="n">
-        <v>81350</v>
-      </c>
-      <c r="K190" t="inlineStr">
+        <v>81550</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>81850</v>
+      </c>
+      <c r="C191" t="n">
+        <v>81850</v>
+      </c>
+      <c r="D191" t="n">
+        <v>81850</v>
+      </c>
+      <c r="E191" t="n">
+        <v>81850</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.9874000000000001</v>
+      </c>
+      <c r="G191" t="n">
+        <v>3.907267380000034</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>81600</v>
+      </c>
+      <c r="J191" t="n">
+        <v>81550</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>81850</v>
-      </c>
-      <c r="C191" t="n">
-        <v>81850</v>
-      </c>
-      <c r="D191" t="n">
-        <v>81850</v>
-      </c>
-      <c r="E191" t="n">
-        <v>81850</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.9874000000000001</v>
-      </c>
-      <c r="G191" t="n">
-        <v>3.907267380000034</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>81600</v>
-      </c>
-      <c r="J191" t="n">
-        <v>81600</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6743,13 +6833,11 @@
         <v>2.328167380000034</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>81850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>81600</v>
+        <v>81550</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6784,50 +6872,54 @@
         <v>2.340355070000034</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>81700</v>
+      </c>
       <c r="J193" t="n">
-        <v>81600</v>
-      </c>
-      <c r="K193" t="inlineStr">
+        <v>81700</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>82300</v>
+      </c>
+      <c r="C194" t="n">
+        <v>82300</v>
+      </c>
+      <c r="D194" t="n">
+        <v>82300</v>
+      </c>
+      <c r="E194" t="n">
+        <v>82300</v>
+      </c>
+      <c r="F194" t="n">
+        <v>18.0179</v>
+      </c>
+      <c r="G194" t="n">
+        <v>20.35825507000003</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>81700</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>82300</v>
-      </c>
-      <c r="C194" t="n">
-        <v>82300</v>
-      </c>
-      <c r="D194" t="n">
-        <v>82300</v>
-      </c>
-      <c r="E194" t="n">
-        <v>82300</v>
-      </c>
-      <c r="F194" t="n">
-        <v>18.0179</v>
-      </c>
-      <c r="G194" t="n">
-        <v>20.35825507000003</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6856,15 +6948,17 @@
         <v>20.57425507000004</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>82300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>82300</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
+        <v>81700</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6893,19 +6987,11 @@
         <v>20.86855507000003</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>82400</v>
-      </c>
-      <c r="J196" t="n">
-        <v>82300</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6934,19 +7020,11 @@
         <v>24.86855507000003</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>82700</v>
-      </c>
-      <c r="J197" t="n">
-        <v>82300</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6975,14 +7053,10 @@
         <v>20.02855507000003</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>82800</v>
-      </c>
-      <c r="J198" t="n">
-        <v>82800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
@@ -7012,19 +7086,11 @@
         <v>31.82795507000004</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>82600</v>
-      </c>
-      <c r="J199" t="n">
-        <v>82800</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7053,19 +7119,11 @@
         <v>35.49995507000003</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>83050</v>
-      </c>
-      <c r="J200" t="n">
-        <v>82800</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7094,14 +7152,10 @@
         <v>34.80155507000003</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>83150</v>
-      </c>
-      <c r="J201" t="n">
-        <v>83150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
@@ -7134,14 +7188,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7173,14 +7221,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7212,14 +7254,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7251,14 +7287,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7290,14 +7320,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7329,14 +7353,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7368,14 +7386,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7407,14 +7419,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7446,14 +7452,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7485,14 +7485,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7524,14 +7518,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7563,14 +7551,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7602,14 +7584,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7641,14 +7617,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7680,14 +7650,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7719,14 +7683,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7758,14 +7716,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7797,14 +7749,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7836,14 +7782,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7875,14 +7815,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7914,14 +7848,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7953,14 +7881,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7992,14 +7914,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8031,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8070,14 +7980,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8109,14 +8013,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8148,14 +8046,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8187,14 +8079,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8226,14 +8112,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8265,14 +8145,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8304,14 +8178,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8343,14 +8211,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8382,14 +8244,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8421,14 +8277,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8460,14 +8310,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8499,14 +8343,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8538,14 +8376,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8577,14 +8409,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8616,14 +8442,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8655,14 +8475,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8694,14 +8508,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8733,14 +8541,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8772,14 +8574,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8811,14 +8607,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8850,14 +8640,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8889,14 +8673,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8928,14 +8706,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8967,14 +8739,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9006,14 +8772,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9045,14 +8805,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9084,14 +8838,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9123,14 +8871,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9162,14 +8904,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9201,14 +8937,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9240,14 +8970,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9279,14 +9003,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9318,14 +9036,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9357,14 +9069,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9396,14 +9102,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9435,14 +9135,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9474,14 +9168,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9513,14 +9201,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9552,14 +9234,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9591,14 +9267,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9630,14 +9300,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9669,14 +9333,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9708,14 +9366,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9747,14 +9399,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9786,14 +9432,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9825,14 +9465,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9864,14 +9498,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9903,14 +9531,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9942,14 +9564,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9981,14 +9597,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10020,14 +9630,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10059,14 +9663,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10098,14 +9696,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10137,14 +9729,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10176,14 +9762,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10212,19 +9792,11 @@
         <v>143.54215507</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>79150</v>
-      </c>
-      <c r="J281" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10253,19 +9825,11 @@
         <v>143.25705507</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>79200</v>
-      </c>
-      <c r="J282" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10294,19 +9858,11 @@
         <v>146.77915507</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>79050</v>
-      </c>
-      <c r="J283" t="n">
-        <v>83150</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest DASH.xlsx
+++ b/BackTest/2019-10-26 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M283"/>
+  <dimension ref="A1:L283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>30.1</v>
       </c>
       <c r="G2" t="n">
-        <v>92.50210000000003</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>0.1674</v>
       </c>
       <c r="G3" t="n">
-        <v>92.33470000000003</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>80700</v>
       </c>
       <c r="I3" t="n">
         <v>80700</v>
       </c>
-      <c r="J3" t="n">
-        <v>80700</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>0.129</v>
       </c>
       <c r="G4" t="n">
-        <v>92.20570000000002</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>80400</v>
       </c>
       <c r="I4" t="n">
-        <v>80400</v>
-      </c>
-      <c r="J4" t="n">
         <v>80700</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>0.8088</v>
       </c>
       <c r="G5" t="n">
-        <v>93.01450000000003</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>80200</v>
       </c>
       <c r="I5" t="n">
-        <v>80200</v>
-      </c>
-      <c r="J5" t="n">
         <v>80700</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,19 @@
         <v>6.6171</v>
       </c>
       <c r="G6" t="n">
-        <v>99.63160000000002</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>80300</v>
       </c>
       <c r="I6" t="n">
         <v>80300</v>
       </c>
-      <c r="J6" t="n">
-        <v>80300</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +617,23 @@
         <v>56.422</v>
       </c>
       <c r="G7" t="n">
-        <v>156.0536</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>80500</v>
       </c>
       <c r="I7" t="n">
-        <v>80500</v>
-      </c>
-      <c r="J7" t="n">
         <v>80300</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +655,23 @@
         <v>0.417</v>
       </c>
       <c r="G8" t="n">
-        <v>155.6366</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>80900</v>
       </c>
       <c r="I8" t="n">
-        <v>80900</v>
-      </c>
-      <c r="J8" t="n">
         <v>80300</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,18 +693,19 @@
         <v>2.3828</v>
       </c>
       <c r="G9" t="n">
-        <v>158.0194</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>80800</v>
+      </c>
+      <c r="I9" t="n">
+        <v>80800</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -752,18 +727,23 @@
         <v>19.7156</v>
       </c>
       <c r="G10" t="n">
-        <v>177.735</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>80900</v>
+      </c>
+      <c r="I10" t="n">
+        <v>80800</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -785,18 +765,23 @@
         <v>24.3692</v>
       </c>
       <c r="G11" t="n">
-        <v>202.1042</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>80950</v>
+      </c>
+      <c r="I11" t="n">
+        <v>80800</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,18 +803,15 @@
         <v>19.5276</v>
       </c>
       <c r="G12" t="n">
-        <v>182.5766</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -851,18 +833,15 @@
         <v>72.3827</v>
       </c>
       <c r="G13" t="n">
-        <v>110.1939</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -884,18 +863,19 @@
         <v>0.2</v>
       </c>
       <c r="G14" t="n">
-        <v>109.9939</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>80250</v>
+      </c>
+      <c r="I14" t="n">
+        <v>80250</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,18 +897,23 @@
         <v>0.4995</v>
       </c>
       <c r="G15" t="n">
-        <v>109.4944</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>80100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -950,18 +935,23 @@
         <v>35.224</v>
       </c>
       <c r="G16" t="n">
-        <v>74.27040000000002</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>79500</v>
+      </c>
+      <c r="I16" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -983,22 +973,23 @@
         <v>2.6184</v>
       </c>
       <c r="G17" t="n">
-        <v>76.88880000000002</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>78750</v>
       </c>
       <c r="I17" t="n">
-        <v>78750</v>
-      </c>
-      <c r="J17" t="n">
-        <v>78750</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>80250</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1020,26 +1011,23 @@
         <v>19.8705</v>
       </c>
       <c r="G18" t="n">
-        <v>96.75930000000002</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>79450</v>
       </c>
       <c r="I18" t="n">
-        <v>79450</v>
-      </c>
-      <c r="J18" t="n">
-        <v>78750</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>80250</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1061,26 +1049,21 @@
         <v>22.348</v>
       </c>
       <c r="G19" t="n">
-        <v>74.41130000000003</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>80000</v>
-      </c>
-      <c r="J19" t="n">
-        <v>78750</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>80250</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1102,18 +1085,21 @@
         <v>0.1454</v>
       </c>
       <c r="G20" t="n">
-        <v>74.26590000000003</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1135,22 +1121,21 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>72.26590000000003</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>79500</v>
-      </c>
-      <c r="J21" t="n">
-        <v>79500</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>80250</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1172,26 +1157,21 @@
         <v>0.51</v>
       </c>
       <c r="G22" t="n">
-        <v>71.75590000000003</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>79100</v>
-      </c>
-      <c r="J22" t="n">
-        <v>79500</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>80250</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1213,26 +1193,21 @@
         <v>0.04</v>
       </c>
       <c r="G23" t="n">
-        <v>71.75590000000003</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>79050</v>
-      </c>
-      <c r="J23" t="n">
-        <v>79500</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>80250</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1254,18 +1229,21 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>71.06590000000003</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1287,18 +1265,21 @@
         <v>0.169</v>
       </c>
       <c r="G25" t="n">
-        <v>71.23490000000002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1301,21 @@
         <v>12.0973</v>
       </c>
       <c r="G26" t="n">
-        <v>71.23490000000002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1353,18 +1337,21 @@
         <v>16.1621</v>
       </c>
       <c r="G27" t="n">
-        <v>87.39700000000002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1386,18 +1373,21 @@
         <v>3.6533</v>
       </c>
       <c r="G28" t="n">
-        <v>83.74370000000002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1419,18 +1409,21 @@
         <v>1.7276</v>
       </c>
       <c r="G29" t="n">
-        <v>83.74370000000002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1452,18 +1445,21 @@
         <v>25.4</v>
       </c>
       <c r="G30" t="n">
-        <v>58.34370000000002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1485,18 +1481,21 @@
         <v>12.8</v>
       </c>
       <c r="G31" t="n">
-        <v>71.14370000000002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1518,18 +1517,23 @@
         <v>0.8499</v>
       </c>
       <c r="G32" t="n">
-        <v>70.29380000000002</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>79050</v>
+      </c>
+      <c r="I32" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1551,18 +1555,23 @@
         <v>0.6411</v>
       </c>
       <c r="G33" t="n">
-        <v>69.65270000000002</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>78900</v>
+      </c>
+      <c r="I33" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1584,18 +1593,23 @@
         <v>5.0143</v>
       </c>
       <c r="G34" t="n">
-        <v>64.63840000000002</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>78700</v>
+      </c>
+      <c r="I34" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,18 +1631,23 @@
         <v>5.0762</v>
       </c>
       <c r="G35" t="n">
-        <v>69.71460000000002</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>78650</v>
+      </c>
+      <c r="I35" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1650,18 +1669,23 @@
         <v>0.01</v>
       </c>
       <c r="G36" t="n">
-        <v>69.72460000000002</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>78800</v>
+      </c>
+      <c r="I36" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1683,18 +1707,23 @@
         <v>9.316599999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>79.04120000000002</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>79500</v>
+      </c>
+      <c r="I37" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1716,18 +1745,21 @@
         <v>2.8862</v>
       </c>
       <c r="G38" t="n">
-        <v>81.92740000000002</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1749,18 +1781,21 @@
         <v>0.1404</v>
       </c>
       <c r="G39" t="n">
-        <v>81.78700000000002</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1782,18 +1817,23 @@
         <v>1.0088</v>
       </c>
       <c r="G40" t="n">
-        <v>80.77820000000003</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>79550</v>
+      </c>
+      <c r="I40" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1815,18 +1855,23 @@
         <v>0.1404</v>
       </c>
       <c r="G41" t="n">
-        <v>80.91860000000003</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>79300</v>
+      </c>
+      <c r="I41" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1848,18 +1893,23 @@
         <v>0.5590000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>81.47760000000002</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>79700</v>
+      </c>
+      <c r="I42" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1881,18 +1931,23 @@
         <v>11.0146</v>
       </c>
       <c r="G43" t="n">
-        <v>70.46300000000002</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>80100</v>
+      </c>
+      <c r="I43" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1914,18 +1969,21 @@
         <v>1.8551</v>
       </c>
       <c r="G44" t="n">
-        <v>68.60790000000003</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1947,18 +2005,21 @@
         <v>4.5432</v>
       </c>
       <c r="G45" t="n">
-        <v>73.15110000000003</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1980,18 +2041,23 @@
         <v>0.9381</v>
       </c>
       <c r="G46" t="n">
-        <v>74.08920000000003</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>79700</v>
+      </c>
+      <c r="I46" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2013,18 +2079,23 @@
         <v>0.0108</v>
       </c>
       <c r="G47" t="n">
-        <v>74.07840000000003</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>79950</v>
+      </c>
+      <c r="I47" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2046,18 +2117,23 @@
         <v>0.02</v>
       </c>
       <c r="G48" t="n">
-        <v>74.07840000000003</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>79750</v>
+      </c>
+      <c r="I48" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2079,18 +2155,23 @@
         <v>9.773300000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>83.85170000000004</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>79750</v>
+      </c>
+      <c r="I49" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2112,18 +2193,23 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>82.85170000000004</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>80150</v>
+      </c>
+      <c r="I50" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2145,18 +2231,21 @@
         <v>0.55</v>
       </c>
       <c r="G51" t="n">
-        <v>83.40170000000003</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2178,18 +2267,21 @@
         <v>0.06</v>
       </c>
       <c r="G52" t="n">
-        <v>83.40170000000003</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2211,18 +2303,21 @@
         <v>1.985</v>
       </c>
       <c r="G53" t="n">
-        <v>85.38670000000003</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2244,18 +2339,21 @@
         <v>0.5584</v>
       </c>
       <c r="G54" t="n">
-        <v>84.82830000000003</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2277,18 +2375,21 @@
         <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>82.82830000000003</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2310,18 +2411,21 @@
         <v>0.1299</v>
       </c>
       <c r="G56" t="n">
-        <v>82.69840000000002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2343,18 +2447,21 @@
         <v>0.8</v>
       </c>
       <c r="G57" t="n">
-        <v>83.49840000000002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2376,18 +2483,21 @@
         <v>17.9549</v>
       </c>
       <c r="G58" t="n">
-        <v>101.4533</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2409,18 +2519,21 @@
         <v>28.2001</v>
       </c>
       <c r="G59" t="n">
-        <v>129.6534</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2442,18 +2555,21 @@
         <v>0.216</v>
       </c>
       <c r="G60" t="n">
-        <v>129.8694</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2475,18 +2591,21 @@
         <v>0.05</v>
       </c>
       <c r="G61" t="n">
-        <v>129.9194</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2508,18 +2627,21 @@
         <v>3.5592</v>
       </c>
       <c r="G62" t="n">
-        <v>133.4786</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2541,18 +2663,21 @@
         <v>0.4022</v>
       </c>
       <c r="G63" t="n">
-        <v>133.8808</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2574,18 +2699,21 @@
         <v>0.01</v>
       </c>
       <c r="G64" t="n">
-        <v>133.8908</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2607,18 +2735,21 @@
         <v>11.97302872</v>
       </c>
       <c r="G65" t="n">
-        <v>145.86382872</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2640,18 +2771,21 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>144.86382872</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2673,18 +2807,21 @@
         <v>8.701771280000001</v>
       </c>
       <c r="G67" t="n">
-        <v>153.5656</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2706,18 +2843,21 @@
         <v>0.6727</v>
       </c>
       <c r="G68" t="n">
-        <v>152.8929</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2739,18 +2879,21 @@
         <v>0.08110000000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>152.8118</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2772,18 +2915,21 @@
         <v>1.9157</v>
       </c>
       <c r="G70" t="n">
-        <v>152.8118</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2805,18 +2951,21 @@
         <v>3.8065</v>
       </c>
       <c r="G71" t="n">
-        <v>152.8118</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2838,18 +2987,21 @@
         <v>0.12292562</v>
       </c>
       <c r="G72" t="n">
-        <v>152.93472562</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2871,18 +3023,21 @@
         <v>30.0654</v>
       </c>
       <c r="G73" t="n">
-        <v>152.93472562</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2904,18 +3059,21 @@
         <v>21.9298</v>
       </c>
       <c r="G74" t="n">
-        <v>174.86452562</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2937,18 +3095,21 @@
         <v>0.02</v>
       </c>
       <c r="G75" t="n">
-        <v>174.88452562</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2970,18 +3131,21 @@
         <v>38.6237</v>
       </c>
       <c r="G76" t="n">
-        <v>213.50822562</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3003,18 +3167,21 @@
         <v>34.3571</v>
       </c>
       <c r="G77" t="n">
-        <v>247.86532562</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3036,18 +3203,21 @@
         <v>13.6561</v>
       </c>
       <c r="G78" t="n">
-        <v>261.52142562</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3069,18 +3239,21 @@
         <v>128.4699</v>
       </c>
       <c r="G79" t="n">
-        <v>133.05152562</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3102,18 +3275,21 @@
         <v>43.7674</v>
       </c>
       <c r="G80" t="n">
-        <v>89.28412562</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3135,18 +3311,21 @@
         <v>5.5589</v>
       </c>
       <c r="G81" t="n">
-        <v>83.72522562</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3168,18 +3347,21 @@
         <v>0.9147</v>
       </c>
       <c r="G82" t="n">
-        <v>84.63992562</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3201,18 +3383,21 @@
         <v>0.928</v>
       </c>
       <c r="G83" t="n">
-        <v>83.71192562</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3234,18 +3419,21 @@
         <v>7.985</v>
       </c>
       <c r="G84" t="n">
-        <v>75.72692562</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3267,18 +3455,21 @@
         <v>4</v>
       </c>
       <c r="G85" t="n">
-        <v>79.72692562</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3300,18 +3491,21 @@
         <v>44.6711</v>
       </c>
       <c r="G86" t="n">
-        <v>124.39802562</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3333,18 +3527,21 @@
         <v>38.1716</v>
       </c>
       <c r="G87" t="n">
-        <v>162.56962562</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3366,18 +3563,21 @@
         <v>13.56</v>
       </c>
       <c r="G88" t="n">
-        <v>176.12962562</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3399,18 +3599,21 @@
         <v>17.1</v>
       </c>
       <c r="G89" t="n">
-        <v>193.22962562</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3432,18 +3635,21 @@
         <v>0.5561</v>
       </c>
       <c r="G90" t="n">
-        <v>192.67352562</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3465,18 +3671,21 @@
         <v>0.1296</v>
       </c>
       <c r="G91" t="n">
-        <v>192.80312562</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3498,18 +3707,21 @@
         <v>1.63</v>
       </c>
       <c r="G92" t="n">
-        <v>194.43312562</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3531,18 +3743,21 @@
         <v>8</v>
       </c>
       <c r="G93" t="n">
-        <v>202.43312562</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3564,18 +3779,21 @@
         <v>31.2942</v>
       </c>
       <c r="G94" t="n">
-        <v>171.13892562</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3597,18 +3815,21 @@
         <v>12</v>
       </c>
       <c r="G95" t="n">
-        <v>159.13892562</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3630,18 +3851,21 @@
         <v>4</v>
       </c>
       <c r="G96" t="n">
-        <v>163.13892562</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3663,18 +3887,21 @@
         <v>0.1542</v>
       </c>
       <c r="G97" t="n">
-        <v>163.29312562</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3696,18 +3923,21 @@
         <v>0.159</v>
       </c>
       <c r="G98" t="n">
-        <v>163.45212562</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3729,18 +3959,21 @@
         <v>1.7477</v>
       </c>
       <c r="G99" t="n">
-        <v>165.19982562</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3762,18 +3995,21 @@
         <v>4.5686</v>
       </c>
       <c r="G100" t="n">
-        <v>160.63122562</v>
-      </c>
-      <c r="H100" t="n">
         <v>2</v>
       </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1.044844236760125</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3795,18 +4031,15 @@
         <v>7.4998</v>
       </c>
       <c r="G101" t="n">
-        <v>153.13142562</v>
-      </c>
-      <c r="H101" t="n">
         <v>2</v>
       </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3828,18 +4061,15 @@
         <v>4.1256</v>
       </c>
       <c r="G102" t="n">
-        <v>157.25702562</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3861,18 +4091,15 @@
         <v>4</v>
       </c>
       <c r="G103" t="n">
-        <v>153.25702562</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3894,18 +4121,15 @@
         <v>0.553</v>
       </c>
       <c r="G104" t="n">
-        <v>153.81002562</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3927,18 +4151,15 @@
         <v>4</v>
       </c>
       <c r="G105" t="n">
-        <v>157.81002562</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3960,18 +4181,15 @@
         <v>31.9434</v>
       </c>
       <c r="G106" t="n">
-        <v>189.75342562</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3993,18 +4211,15 @@
         <v>42.318</v>
       </c>
       <c r="G107" t="n">
-        <v>147.43542562</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4026,18 +4241,15 @@
         <v>4</v>
       </c>
       <c r="G108" t="n">
-        <v>147.43542562</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4059,18 +4271,15 @@
         <v>23.3726</v>
       </c>
       <c r="G109" t="n">
-        <v>147.43542562</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4092,18 +4301,15 @@
         <v>25.6434</v>
       </c>
       <c r="G110" t="n">
-        <v>173.07882562</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4125,18 +4331,15 @@
         <v>18.8089</v>
       </c>
       <c r="G111" t="n">
-        <v>154.26992562</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4158,18 +4361,15 @@
         <v>52.3287</v>
       </c>
       <c r="G112" t="n">
-        <v>101.94122562</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4191,18 +4391,15 @@
         <v>2.3684</v>
       </c>
       <c r="G113" t="n">
-        <v>104.30962562</v>
-      </c>
-      <c r="H113" t="n">
         <v>2</v>
       </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4224,18 +4421,15 @@
         <v>12.2195</v>
       </c>
       <c r="G114" t="n">
-        <v>104.30962562</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4257,18 +4451,15 @@
         <v>147.61115847</v>
       </c>
       <c r="G115" t="n">
-        <v>251.92078409</v>
-      </c>
-      <c r="H115" t="n">
         <v>2</v>
       </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4290,18 +4481,15 @@
         <v>7.2742</v>
       </c>
       <c r="G116" t="n">
-        <v>244.64658409</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4323,18 +4511,15 @@
         <v>77.7389</v>
       </c>
       <c r="G117" t="n">
-        <v>166.90768409</v>
-      </c>
-      <c r="H117" t="n">
         <v>2</v>
       </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4356,18 +4541,15 @@
         <v>27.2852</v>
       </c>
       <c r="G118" t="n">
-        <v>139.62248409</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4389,18 +4571,15 @@
         <v>0.8014</v>
       </c>
       <c r="G119" t="n">
-        <v>138.82108409</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4422,18 +4601,15 @@
         <v>8</v>
       </c>
       <c r="G120" t="n">
-        <v>146.82108409</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4455,18 +4631,15 @@
         <v>2.8391</v>
       </c>
       <c r="G121" t="n">
-        <v>149.66018409</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4488,18 +4661,15 @@
         <v>0.8101</v>
       </c>
       <c r="G122" t="n">
-        <v>148.85008409</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4521,18 +4691,15 @@
         <v>0.5</v>
       </c>
       <c r="G123" t="n">
-        <v>148.35008409</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4554,18 +4721,15 @@
         <v>1.1306</v>
       </c>
       <c r="G124" t="n">
-        <v>149.48068409</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4587,18 +4751,15 @@
         <v>17.3037</v>
       </c>
       <c r="G125" t="n">
-        <v>132.17698409</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4620,18 +4781,15 @@
         <v>1.8923</v>
       </c>
       <c r="G126" t="n">
-        <v>134.06928409</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4653,18 +4811,15 @@
         <v>0.2</v>
       </c>
       <c r="G127" t="n">
-        <v>134.26928409</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4686,18 +4841,15 @@
         <v>2.9503</v>
       </c>
       <c r="G128" t="n">
-        <v>137.21958409</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4719,18 +4871,15 @@
         <v>0.1249</v>
       </c>
       <c r="G129" t="n">
-        <v>137.09468409</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4752,18 +4901,15 @@
         <v>1.0017</v>
       </c>
       <c r="G130" t="n">
-        <v>136.09298409</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4785,18 +4931,15 @@
         <v>0.1249</v>
       </c>
       <c r="G131" t="n">
-        <v>135.96808409</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4818,18 +4961,15 @@
         <v>0.1621</v>
       </c>
       <c r="G132" t="n">
-        <v>136.13018409</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4851,18 +4991,15 @@
         <v>19.0679</v>
       </c>
       <c r="G133" t="n">
-        <v>117.06228409</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4884,18 +5021,15 @@
         <v>87.6242</v>
       </c>
       <c r="G134" t="n">
-        <v>29.43808409000002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4917,18 +5051,15 @@
         <v>2.1789</v>
       </c>
       <c r="G135" t="n">
-        <v>31.61698409000002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4950,18 +5081,15 @@
         <v>0.1322</v>
       </c>
       <c r="G136" t="n">
-        <v>31.74918409000002</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4983,18 +5111,15 @@
         <v>41.1</v>
       </c>
       <c r="G137" t="n">
-        <v>72.84918409000002</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5016,18 +5141,15 @@
         <v>16.9</v>
       </c>
       <c r="G138" t="n">
-        <v>89.74918409000003</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5049,18 +5171,15 @@
         <v>0.1302</v>
       </c>
       <c r="G139" t="n">
-        <v>89.61898409000003</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5082,18 +5201,15 @@
         <v>19.6911</v>
       </c>
       <c r="G140" t="n">
-        <v>109.31008409</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5115,18 +5231,15 @@
         <v>0.1505</v>
       </c>
       <c r="G141" t="n">
-        <v>109.15958409</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5148,18 +5261,15 @@
         <v>34.3005</v>
       </c>
       <c r="G142" t="n">
-        <v>109.15958409</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5181,18 +5291,15 @@
         <v>0.5</v>
       </c>
       <c r="G143" t="n">
-        <v>108.65958409</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5214,18 +5321,15 @@
         <v>0.119</v>
       </c>
       <c r="G144" t="n">
-        <v>108.77858409</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5247,18 +5351,15 @@
         <v>71.32680000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>37.45178409000003</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5280,18 +5381,15 @@
         <v>1.17569073</v>
       </c>
       <c r="G146" t="n">
-        <v>38.62747482000003</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5313,18 +5411,15 @@
         <v>0.3212</v>
       </c>
       <c r="G147" t="n">
-        <v>38.30627482000003</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5346,18 +5441,15 @@
         <v>2.5358</v>
       </c>
       <c r="G148" t="n">
-        <v>35.77047482000003</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5379,18 +5471,15 @@
         <v>2.24</v>
       </c>
       <c r="G149" t="n">
-        <v>33.53047482000003</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5412,18 +5501,15 @@
         <v>0.129</v>
       </c>
       <c r="G150" t="n">
-        <v>33.65947482000003</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5445,18 +5531,15 @@
         <v>0.3027</v>
       </c>
       <c r="G151" t="n">
-        <v>33.35677482000003</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5478,18 +5561,15 @@
         <v>6.0595</v>
       </c>
       <c r="G152" t="n">
-        <v>39.41627482000003</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5511,18 +5591,15 @@
         <v>3.647</v>
       </c>
       <c r="G153" t="n">
-        <v>35.76927482000003</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5544,18 +5621,15 @@
         <v>7.3365</v>
       </c>
       <c r="G154" t="n">
-        <v>28.43277482000003</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5577,18 +5651,15 @@
         <v>10.5558</v>
       </c>
       <c r="G155" t="n">
-        <v>17.87697482000003</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5610,18 +5681,15 @@
         <v>0.4864</v>
       </c>
       <c r="G156" t="n">
-        <v>17.39057482000003</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5643,18 +5711,15 @@
         <v>9.120900000000001</v>
       </c>
       <c r="G157" t="n">
-        <v>8.269674820000029</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5676,18 +5741,15 @@
         <v>4.29</v>
       </c>
       <c r="G158" t="n">
-        <v>12.55967482000003</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5709,18 +5771,15 @@
         <v>0.11</v>
       </c>
       <c r="G159" t="n">
-        <v>12.44967482000003</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5742,18 +5801,15 @@
         <v>1.24</v>
       </c>
       <c r="G160" t="n">
-        <v>11.20967482000003</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5775,18 +5831,15 @@
         <v>1.923</v>
       </c>
       <c r="G161" t="n">
-        <v>9.28667482000003</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5808,18 +5861,15 @@
         <v>0.478</v>
       </c>
       <c r="G162" t="n">
-        <v>9.76467482000003</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5841,18 +5891,15 @@
         <v>2.246</v>
       </c>
       <c r="G163" t="n">
-        <v>12.01067482000003</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5874,18 +5921,15 @@
         <v>4.8607</v>
       </c>
       <c r="G164" t="n">
-        <v>7.149974820000031</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5907,18 +5951,15 @@
         <v>0.4748</v>
       </c>
       <c r="G165" t="n">
-        <v>6.675174820000031</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5940,18 +5981,15 @@
         <v>0.773</v>
       </c>
       <c r="G166" t="n">
-        <v>7.44817482000003</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5973,18 +6011,15 @@
         <v>4.8927</v>
       </c>
       <c r="G167" t="n">
-        <v>2.555474820000031</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6006,18 +6041,15 @@
         <v>2.13</v>
       </c>
       <c r="G168" t="n">
-        <v>0.4254748200000309</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6039,18 +6071,15 @@
         <v>0.21</v>
       </c>
       <c r="G169" t="n">
-        <v>0.2154748200000309</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6072,18 +6101,15 @@
         <v>2.5262</v>
       </c>
       <c r="G170" t="n">
-        <v>0.2154748200000309</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6105,18 +6131,15 @@
         <v>0.6346000000000001</v>
       </c>
       <c r="G171" t="n">
-        <v>-0.4191251799999691</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6138,18 +6161,15 @@
         <v>1.6054</v>
       </c>
       <c r="G172" t="n">
-        <v>-0.4191251799999691</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6171,18 +6191,15 @@
         <v>17.4052</v>
       </c>
       <c r="G173" t="n">
-        <v>-17.82432517999997</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6204,18 +6221,15 @@
         <v>4.9</v>
       </c>
       <c r="G174" t="n">
-        <v>-17.82432517999997</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6237,18 +6251,15 @@
         <v>0.5</v>
       </c>
       <c r="G175" t="n">
-        <v>-18.32432517999997</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6270,18 +6281,15 @@
         <v>2.96</v>
       </c>
       <c r="G176" t="n">
-        <v>-15.36432517999997</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6303,18 +6311,15 @@
         <v>1.5418</v>
       </c>
       <c r="G177" t="n">
-        <v>-13.82252517999997</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6336,18 +6341,15 @@
         <v>14.3668</v>
       </c>
       <c r="G178" t="n">
-        <v>-13.82252517999997</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6369,18 +6371,15 @@
         <v>2.554</v>
       </c>
       <c r="G179" t="n">
-        <v>-11.26852517999997</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6402,18 +6401,15 @@
         <v>0.01229256</v>
       </c>
       <c r="G180" t="n">
-        <v>-11.25623261999997</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6435,18 +6431,15 @@
         <v>3.1919</v>
       </c>
       <c r="G181" t="n">
-        <v>-8.064332619999968</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6468,18 +6461,15 @@
         <v>0.1093</v>
       </c>
       <c r="G182" t="n">
-        <v>-8.173632619999967</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6501,18 +6491,15 @@
         <v>1.2285</v>
       </c>
       <c r="G183" t="n">
-        <v>-6.945132619999967</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6534,18 +6521,15 @@
         <v>1.985</v>
       </c>
       <c r="G184" t="n">
-        <v>-8.930132619999966</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6567,18 +6551,15 @@
         <v>3</v>
       </c>
       <c r="G185" t="n">
-        <v>-5.930132619999966</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6600,18 +6581,15 @@
         <v>1.74</v>
       </c>
       <c r="G186" t="n">
-        <v>-7.670132619999967</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6633,22 +6611,15 @@
         <v>7</v>
       </c>
       <c r="G187" t="n">
-        <v>-0.6701326199999666</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>81150</v>
-      </c>
-      <c r="J187" t="n">
-        <v>81150</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6670,26 +6641,15 @@
         <v>3</v>
       </c>
       <c r="G188" t="n">
-        <v>2.329867380000033</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>81350</v>
-      </c>
-      <c r="J188" t="n">
-        <v>81150</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6711,26 +6671,15 @@
         <v>0.39</v>
       </c>
       <c r="G189" t="n">
-        <v>2.719867380000033</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>81450</v>
-      </c>
-      <c r="J189" t="n">
-        <v>81150</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6752,22 +6701,15 @@
         <v>0.2</v>
       </c>
       <c r="G190" t="n">
-        <v>2.919867380000034</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>81550</v>
-      </c>
-      <c r="J190" t="n">
-        <v>81550</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6789,26 +6731,15 @@
         <v>0.9874000000000001</v>
       </c>
       <c r="G191" t="n">
-        <v>3.907267380000034</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>81600</v>
-      </c>
-      <c r="J191" t="n">
-        <v>81550</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6830,24 +6761,15 @@
         <v>1.5791</v>
       </c>
       <c r="G192" t="n">
-        <v>2.328167380000034</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>81550</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6869,22 +6791,15 @@
         <v>0.01218769</v>
       </c>
       <c r="G193" t="n">
-        <v>2.340355070000034</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>81700</v>
-      </c>
-      <c r="J193" t="n">
-        <v>81700</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6906,24 +6821,15 @@
         <v>18.0179</v>
       </c>
       <c r="G194" t="n">
-        <v>20.35825507000003</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>81700</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6945,24 +6851,15 @@
         <v>0.216</v>
       </c>
       <c r="G195" t="n">
-        <v>20.57425507000004</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>81700</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6984,18 +6881,15 @@
         <v>0.2943</v>
       </c>
       <c r="G196" t="n">
-        <v>20.86855507000003</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7017,18 +6911,15 @@
         <v>4</v>
       </c>
       <c r="G197" t="n">
-        <v>24.86855507000003</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7050,18 +6941,15 @@
         <v>4.84</v>
       </c>
       <c r="G198" t="n">
-        <v>20.02855507000003</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7083,18 +6971,15 @@
         <v>11.7994</v>
       </c>
       <c r="G199" t="n">
-        <v>31.82795507000004</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7116,18 +7001,15 @@
         <v>3.672</v>
       </c>
       <c r="G200" t="n">
-        <v>35.49995507000003</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7149,18 +7031,15 @@
         <v>0.6984</v>
       </c>
       <c r="G201" t="n">
-        <v>34.80155507000003</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7182,18 +7061,15 @@
         <v>0.7265</v>
       </c>
       <c r="G202" t="n">
-        <v>34.07505507000003</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7215,18 +7091,15 @@
         <v>2.007</v>
       </c>
       <c r="G203" t="n">
-        <v>36.08205507000003</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7248,18 +7121,15 @@
         <v>137.5942</v>
       </c>
       <c r="G204" t="n">
-        <v>173.67625507</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7281,18 +7151,15 @@
         <v>3.6298</v>
       </c>
       <c r="G205" t="n">
-        <v>170.04645507</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7314,18 +7181,15 @@
         <v>0.4129</v>
       </c>
       <c r="G206" t="n">
-        <v>170.45935507</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7347,18 +7211,15 @@
         <v>18.0179</v>
       </c>
       <c r="G207" t="n">
-        <v>152.44145507</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7380,18 +7241,15 @@
         <v>2</v>
       </c>
       <c r="G208" t="n">
-        <v>152.44145507</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7413,18 +7271,15 @@
         <v>18.9106</v>
       </c>
       <c r="G209" t="n">
-        <v>133.5308550700001</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7446,18 +7301,15 @@
         <v>5.2494</v>
       </c>
       <c r="G210" t="n">
-        <v>133.5308550700001</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7479,18 +7331,15 @@
         <v>7.4469</v>
       </c>
       <c r="G211" t="n">
-        <v>126.0839550700001</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7512,18 +7361,15 @@
         <v>3.4901</v>
       </c>
       <c r="G212" t="n">
-        <v>126.0839550700001</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7545,18 +7391,15 @@
         <v>24</v>
       </c>
       <c r="G213" t="n">
-        <v>102.0839550700001</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7578,18 +7421,15 @@
         <v>3.6028</v>
       </c>
       <c r="G214" t="n">
-        <v>105.6867550700001</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7611,18 +7451,15 @@
         <v>15.5</v>
       </c>
       <c r="G215" t="n">
-        <v>121.1867550700001</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7644,18 +7481,15 @@
         <v>37.7</v>
       </c>
       <c r="G216" t="n">
-        <v>158.88675507</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7677,18 +7511,15 @@
         <v>20.7</v>
       </c>
       <c r="G217" t="n">
-        <v>138.1867550700001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7710,18 +7541,15 @@
         <v>2.115</v>
       </c>
       <c r="G218" t="n">
-        <v>140.3017550700001</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7743,18 +7571,15 @@
         <v>0.1129</v>
       </c>
       <c r="G219" t="n">
-        <v>140.4146550700001</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7776,18 +7601,15 @@
         <v>0.1247</v>
       </c>
       <c r="G220" t="n">
-        <v>140.5393550700001</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7809,18 +7631,15 @@
         <v>0.5135</v>
       </c>
       <c r="G221" t="n">
-        <v>141.05285507</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7842,18 +7661,15 @@
         <v>2.4663</v>
       </c>
       <c r="G222" t="n">
-        <v>141.05285507</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7875,18 +7691,15 @@
         <v>1.233</v>
       </c>
       <c r="G223" t="n">
-        <v>142.2858550700001</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7908,18 +7721,15 @@
         <v>2.682</v>
       </c>
       <c r="G224" t="n">
-        <v>142.2858550700001</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7941,18 +7751,15 @@
         <v>3.725</v>
       </c>
       <c r="G225" t="n">
-        <v>138.5608550700001</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7974,18 +7781,15 @@
         <v>2.3625</v>
       </c>
       <c r="G226" t="n">
-        <v>138.5608550700001</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8007,18 +7811,15 @@
         <v>23.6179</v>
       </c>
       <c r="G227" t="n">
-        <v>162.1787550700001</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8040,18 +7841,15 @@
         <v>4</v>
       </c>
       <c r="G228" t="n">
-        <v>158.1787550700001</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8073,18 +7871,15 @@
         <v>43.9766</v>
       </c>
       <c r="G229" t="n">
-        <v>114.2021550700001</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8106,18 +7901,15 @@
         <v>4.0215</v>
       </c>
       <c r="G230" t="n">
-        <v>118.2236550700001</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8139,18 +7931,15 @@
         <v>4.8</v>
       </c>
       <c r="G231" t="n">
-        <v>113.4236550700001</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8172,18 +7961,15 @@
         <v>50.336</v>
       </c>
       <c r="G232" t="n">
-        <v>63.08765507000007</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8205,18 +7991,15 @@
         <v>1.9968</v>
       </c>
       <c r="G233" t="n">
-        <v>65.08445507000006</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8238,18 +8021,15 @@
         <v>0.7296</v>
       </c>
       <c r="G234" t="n">
-        <v>64.35485507000006</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8271,18 +8051,15 @@
         <v>1.3813</v>
       </c>
       <c r="G235" t="n">
-        <v>62.97355507000005</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8304,18 +8081,15 @@
         <v>14.6667</v>
       </c>
       <c r="G236" t="n">
-        <v>77.64025507000005</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8337,18 +8111,15 @@
         <v>2</v>
       </c>
       <c r="G237" t="n">
-        <v>77.64025507000005</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8370,18 +8141,15 @@
         <v>1.2055</v>
       </c>
       <c r="G238" t="n">
-        <v>78.84575507000005</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8403,18 +8171,15 @@
         <v>0.2943</v>
       </c>
       <c r="G239" t="n">
-        <v>78.55145507000005</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8436,18 +8201,15 @@
         <v>0.0984</v>
       </c>
       <c r="G240" t="n">
-        <v>78.45305507000005</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8469,18 +8231,15 @@
         <v>1.1727</v>
       </c>
       <c r="G241" t="n">
-        <v>79.62575507000005</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8502,18 +8261,15 @@
         <v>64.15689999999999</v>
       </c>
       <c r="G242" t="n">
-        <v>143.78265507</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8535,18 +8291,15 @@
         <v>72.90000000000001</v>
       </c>
       <c r="G243" t="n">
-        <v>143.78265507</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8568,18 +8321,15 @@
         <v>55.6408</v>
       </c>
       <c r="G244" t="n">
-        <v>88.14185507000003</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8601,18 +8351,15 @@
         <v>27.9523</v>
       </c>
       <c r="G245" t="n">
-        <v>116.09415507</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8634,18 +8381,15 @@
         <v>19.7892</v>
       </c>
       <c r="G246" t="n">
-        <v>96.30495507000003</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8667,18 +8411,15 @@
         <v>19.629</v>
       </c>
       <c r="G247" t="n">
-        <v>96.30495507000003</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8700,18 +8441,15 @@
         <v>3.4999</v>
       </c>
       <c r="G248" t="n">
-        <v>92.80505507000004</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8733,18 +8471,15 @@
         <v>16</v>
       </c>
       <c r="G249" t="n">
-        <v>76.80505507000004</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8766,18 +8501,15 @@
         <v>0.216</v>
       </c>
       <c r="G250" t="n">
-        <v>76.58905507000004</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8799,18 +8531,15 @@
         <v>2.7195</v>
       </c>
       <c r="G251" t="n">
-        <v>73.86955507000005</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8832,18 +8561,15 @@
         <v>0.26</v>
       </c>
       <c r="G252" t="n">
-        <v>73.60955507000004</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8865,18 +8591,15 @@
         <v>13.928</v>
       </c>
       <c r="G253" t="n">
-        <v>87.53755507000004</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8898,18 +8621,15 @@
         <v>0.0174</v>
       </c>
       <c r="G254" t="n">
-        <v>87.52015507000004</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8931,18 +8651,15 @@
         <v>8.4673</v>
       </c>
       <c r="G255" t="n">
-        <v>95.98745507000004</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8964,18 +8681,15 @@
         <v>19.6127</v>
       </c>
       <c r="G256" t="n">
-        <v>115.60015507</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8997,18 +8711,15 @@
         <v>4.8072</v>
       </c>
       <c r="G257" t="n">
-        <v>115.60015507</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9030,18 +8741,15 @@
         <v>18</v>
       </c>
       <c r="G258" t="n">
-        <v>97.60015507000004</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9063,18 +8771,15 @@
         <v>0.3824</v>
       </c>
       <c r="G259" t="n">
-        <v>97.98255507000005</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9096,18 +8801,15 @@
         <v>0.5692</v>
       </c>
       <c r="G260" t="n">
-        <v>97.41335507000005</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9129,18 +8831,15 @@
         <v>8.845000000000001</v>
       </c>
       <c r="G261" t="n">
-        <v>106.2583550700001</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9162,18 +8861,15 @@
         <v>1.9139</v>
       </c>
       <c r="G262" t="n">
-        <v>106.2583550700001</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9195,18 +8891,15 @@
         <v>1.4182</v>
       </c>
       <c r="G263" t="n">
-        <v>107.67655507</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9228,18 +8921,15 @@
         <v>0.8909</v>
       </c>
       <c r="G264" t="n">
-        <v>108.5674550700001</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9261,18 +8951,15 @@
         <v>2</v>
       </c>
       <c r="G265" t="n">
-        <v>106.5674550700001</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9294,18 +8981,15 @@
         <v>3</v>
       </c>
       <c r="G266" t="n">
-        <v>103.5674550700001</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9327,18 +9011,15 @@
         <v>3.55</v>
       </c>
       <c r="G267" t="n">
-        <v>100.0174550700001</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9360,18 +9041,15 @@
         <v>10.3955</v>
       </c>
       <c r="G268" t="n">
-        <v>89.62195507000006</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9393,18 +9071,15 @@
         <v>13.8723</v>
       </c>
       <c r="G269" t="n">
-        <v>75.74965507000006</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9426,18 +9101,15 @@
         <v>13.2374</v>
       </c>
       <c r="G270" t="n">
-        <v>62.51225507000006</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9459,18 +9131,15 @@
         <v>21.4199</v>
       </c>
       <c r="G271" t="n">
-        <v>83.93215507000005</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9492,18 +9161,21 @@
         <v>20.742</v>
       </c>
       <c r="G272" t="n">
-        <v>63.19015507000005</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>80200</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9525,18 +9197,21 @@
         <v>0.615</v>
       </c>
       <c r="G273" t="n">
-        <v>62.57515507000004</v>
+        <v>1</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>79850</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9558,18 +9233,21 @@
         <v>2.385</v>
       </c>
       <c r="G274" t="n">
-        <v>62.57515507000004</v>
+        <v>1</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>79700</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9591,18 +9269,21 @@
         <v>80.0998</v>
       </c>
       <c r="G275" t="n">
-        <v>142.67495507</v>
+        <v>1</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>79700</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9624,18 +9305,21 @@
         <v>14.9214</v>
       </c>
       <c r="G276" t="n">
-        <v>142.67495507</v>
+        <v>1</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>79800</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9657,18 +9341,21 @@
         <v>16.3834</v>
       </c>
       <c r="G277" t="n">
-        <v>142.67495507</v>
+        <v>1</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>79800</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9690,18 +9377,21 @@
         <v>8.726000000000001</v>
       </c>
       <c r="G278" t="n">
-        <v>142.67495507</v>
+        <v>1</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>79800</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9723,18 +9413,21 @@
         <v>16.3</v>
       </c>
       <c r="G279" t="n">
-        <v>126.37495507</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>79800</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9756,18 +9449,21 @@
         <v>7.352</v>
       </c>
       <c r="G280" t="n">
-        <v>119.02295507</v>
+        <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>79550</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9789,18 +9485,21 @@
         <v>24.5192</v>
       </c>
       <c r="G281" t="n">
-        <v>143.54215507</v>
+        <v>1</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>79150</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9822,18 +9521,21 @@
         <v>0.2851</v>
       </c>
       <c r="G282" t="n">
-        <v>143.25705507</v>
+        <v>1</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>79200</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9855,18 +9557,21 @@
         <v>3.5221</v>
       </c>
       <c r="G283" t="n">
-        <v>146.77915507</v>
+        <v>1</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>79050</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
